--- a/tools/luban/Datas/Enemys.xlsx
+++ b/tools/luban/Datas/Enemys.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB20C56-CDF8-4B68-9CB1-463C216FF95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B322F1-8843-4002-AAD2-C11EB893FB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="109">
   <si>
     <t>##var</t>
   </si>
@@ -457,6 +457,14 @@
   </si>
   <si>
     <t>基础攻击冷却</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkeletonArcher2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkeletonArcher3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -845,7 +853,7 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1405,7 +1413,7 @@
         <v>1200</v>
       </c>
       <c r="H11" s="3">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I11" s="3">
         <v>40</v>
@@ -1447,7 +1455,7 @@
         <v>38</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E12" s="3">
         <v>120</v>
@@ -1459,7 +1467,7 @@
         <v>1200</v>
       </c>
       <c r="H12" s="3">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I12" s="3">
         <v>30</v>
@@ -1501,7 +1509,7 @@
         <v>39</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E13" s="3">
         <v>200</v>
@@ -1513,7 +1521,7 @@
         <v>1200</v>
       </c>
       <c r="H13" s="3">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I13" s="3">
         <v>30</v>

--- a/tools/luban/Datas/Enemys.xlsx
+++ b/tools/luban/Datas/Enemys.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B322F1-8843-4002-AAD2-C11EB893FB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15B9A19-F7C4-4718-8716-3327EF5569F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enemy" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="129">
   <si>
     <t>##var</t>
   </si>
@@ -310,25 +310,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>黄金副本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>赦罪之血</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天使之泪</t>
-  </si>
-  <si>
-    <t>天堂之尘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>奉献之灰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>骷髅弓箭手4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -466,6 +447,89 @@
   <si>
     <t>SkeletonArcher3</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vampire2</t>
+  </si>
+  <si>
+    <t>Vampire3</t>
+  </si>
+  <si>
+    <t>Vampire4</t>
+  </si>
+  <si>
+    <t>Vampire5</t>
+  </si>
+  <si>
+    <t>Vampire6</t>
+  </si>
+  <si>
+    <t>Vampire7</t>
+  </si>
+  <si>
+    <t>Vampire8</t>
+  </si>
+  <si>
+    <t>Vampire9</t>
+  </si>
+  <si>
+    <t>Vampire10</t>
+  </si>
+  <si>
+    <t>Vampire11</t>
+  </si>
+  <si>
+    <t>幻境之门</t>
+  </si>
+  <si>
+    <t>梦境之巅</t>
+  </si>
+  <si>
+    <t>时间余晖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>空灵之谜</t>
+  </si>
+  <si>
+    <t>灵魂迷宫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄思之石</t>
+  </si>
+  <si>
+    <t>真相幕布</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>心灵追求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命之树</t>
+  </si>
+  <si>
+    <t>震撼虚无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗忘神殿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>星辰启示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微光之路</t>
+  </si>
+  <si>
+    <t>唤醒时刻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>意识迷雾</t>
   </si>
 </sst>
 </file>
@@ -850,10 +914,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -895,13 +959,13 @@
         <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>20</v>
@@ -1029,13 +1093,13 @@
         <v>53</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>10</v>
@@ -1347,7 +1411,7 @@
         <v>36</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E10" s="3">
         <v>240</v>
@@ -1401,7 +1465,7 @@
         <v>37</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E11" s="3">
         <v>80</v>
@@ -1455,7 +1519,7 @@
         <v>38</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E12" s="3">
         <v>120</v>
@@ -1509,7 +1573,7 @@
         <v>39</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E13" s="3">
         <v>200</v>
@@ -1722,10 +1786,10 @@
         <v>7013</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E17" s="3">
         <v>50</v>
@@ -1776,10 +1840,10 @@
         <v>7014</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E18" s="3">
         <v>100</v>
@@ -1992,10 +2056,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA639C1-B7A9-4558-AA8A-6FFF02A6BAEF}">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2162,13 +2226,13 @@
     </row>
     <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="B5" s="3">
         <v>1001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>46</v>
@@ -2180,28 +2244,28 @@
         <v>400</v>
       </c>
       <c r="G5" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H5" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I5" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J5" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K5" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L5" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M5" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N5" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="O5" s="3">
         <v>400</v>
@@ -2209,13 +2273,13 @@
     </row>
     <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="B6" s="3">
         <v>1002</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>46</v>
@@ -2256,13 +2320,13 @@
     </row>
     <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="B7" s="3">
         <v>1003</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>46</v>
@@ -2303,13 +2367,13 @@
     </row>
     <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="B8" s="3">
         <v>1004</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>44</v>
@@ -2350,13 +2414,13 @@
     </row>
     <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="B9" s="3">
         <v>1005</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>45</v>
@@ -2397,16 +2461,16 @@
     </row>
     <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B10" s="3">
         <v>1006</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E10" s="3">
         <v>10000</v>
@@ -2443,106 +2507,508 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1007</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F11" s="3">
+        <v>400</v>
+      </c>
+      <c r="G11" s="3">
+        <v>2</v>
+      </c>
+      <c r="H11" s="3">
+        <v>2</v>
+      </c>
+      <c r="I11" s="3">
+        <v>2</v>
+      </c>
+      <c r="J11" s="3">
+        <v>2</v>
+      </c>
+      <c r="K11" s="3">
+        <v>2</v>
+      </c>
+      <c r="L11" s="3">
+        <v>2</v>
+      </c>
+      <c r="M11" s="3">
+        <v>2</v>
+      </c>
+      <c r="N11" s="3">
+        <v>2</v>
+      </c>
+      <c r="O11" s="3">
+        <v>400</v>
+      </c>
     </row>
     <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
+      <c r="A12" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1008</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="3">
+        <v>400</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2</v>
+      </c>
+      <c r="K12" s="3">
+        <v>2</v>
+      </c>
+      <c r="L12" s="3">
+        <v>2</v>
+      </c>
+      <c r="M12" s="3">
+        <v>2</v>
+      </c>
+      <c r="N12" s="3">
+        <v>2</v>
+      </c>
+      <c r="O12" s="3">
+        <v>400</v>
+      </c>
     </row>
     <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1009</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F13" s="3">
+        <v>400</v>
+      </c>
+      <c r="G13" s="3">
+        <v>2</v>
+      </c>
+      <c r="H13" s="3">
+        <v>2</v>
+      </c>
+      <c r="I13" s="3">
+        <v>2</v>
+      </c>
+      <c r="J13" s="3">
+        <v>2</v>
+      </c>
+      <c r="K13" s="3">
+        <v>2</v>
+      </c>
+      <c r="L13" s="3">
+        <v>2</v>
+      </c>
+      <c r="M13" s="3">
+        <v>2</v>
+      </c>
+      <c r="N13" s="3">
+        <v>2</v>
+      </c>
+      <c r="O13" s="3">
+        <v>400</v>
+      </c>
     </row>
     <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1010</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>400</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2</v>
+      </c>
+      <c r="I14" s="3">
+        <v>2</v>
+      </c>
+      <c r="J14" s="3">
+        <v>2</v>
+      </c>
+      <c r="K14" s="3">
+        <v>2</v>
+      </c>
+      <c r="L14" s="3">
+        <v>2</v>
+      </c>
+      <c r="M14" s="3">
+        <v>2</v>
+      </c>
+      <c r="N14" s="3">
+        <v>2</v>
+      </c>
+      <c r="O14" s="3">
+        <v>400</v>
+      </c>
     </row>
     <row r="15" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
+      <c r="A15" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1011</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F15" s="3">
+        <v>400</v>
+      </c>
+      <c r="G15" s="3">
+        <v>2</v>
+      </c>
+      <c r="H15" s="3">
+        <v>2</v>
+      </c>
+      <c r="I15" s="3">
+        <v>2</v>
+      </c>
+      <c r="J15" s="3">
+        <v>2</v>
+      </c>
+      <c r="K15" s="3">
+        <v>2</v>
+      </c>
+      <c r="L15" s="3">
+        <v>2</v>
+      </c>
+      <c r="M15" s="3">
+        <v>2</v>
+      </c>
+      <c r="N15" s="3">
+        <v>2</v>
+      </c>
+      <c r="O15" s="3">
+        <v>400</v>
+      </c>
     </row>
     <row r="16" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
+      <c r="A16" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1012</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F16" s="3">
+        <v>400</v>
+      </c>
+      <c r="G16" s="3">
+        <v>2</v>
+      </c>
+      <c r="H16" s="3">
+        <v>2</v>
+      </c>
+      <c r="I16" s="3">
+        <v>2</v>
+      </c>
+      <c r="J16" s="3">
+        <v>2</v>
+      </c>
+      <c r="K16" s="3">
+        <v>2</v>
+      </c>
+      <c r="L16" s="3">
+        <v>2</v>
+      </c>
+      <c r="M16" s="3">
+        <v>2</v>
+      </c>
+      <c r="N16" s="3">
+        <v>2</v>
+      </c>
+      <c r="O16" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1013</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="3">
+        <v>400</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2</v>
+      </c>
+      <c r="H17" s="3">
+        <v>2</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2</v>
+      </c>
+      <c r="K17" s="3">
+        <v>2</v>
+      </c>
+      <c r="L17" s="3">
+        <v>2</v>
+      </c>
+      <c r="M17" s="3">
+        <v>2</v>
+      </c>
+      <c r="N17" s="3">
+        <v>2</v>
+      </c>
+      <c r="O17" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1014</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>400</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2</v>
+      </c>
+      <c r="H18" s="3">
+        <v>2</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2</v>
+      </c>
+      <c r="K18" s="3">
+        <v>2</v>
+      </c>
+      <c r="L18" s="3">
+        <v>2</v>
+      </c>
+      <c r="M18" s="3">
+        <v>2</v>
+      </c>
+      <c r="N18" s="3">
+        <v>2</v>
+      </c>
+      <c r="O18" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1015</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F19" s="3">
+        <v>400</v>
+      </c>
+      <c r="G19" s="3">
+        <v>2</v>
+      </c>
+      <c r="H19" s="3">
+        <v>2</v>
+      </c>
+      <c r="I19" s="3">
+        <v>2</v>
+      </c>
+      <c r="J19" s="3">
+        <v>2</v>
+      </c>
+      <c r="K19" s="3">
+        <v>2</v>
+      </c>
+      <c r="L19" s="3">
+        <v>2</v>
+      </c>
+      <c r="M19" s="3">
+        <v>2</v>
+      </c>
+      <c r="N19" s="3">
+        <v>2</v>
+      </c>
+      <c r="O19" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1016</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>400</v>
+      </c>
+      <c r="G20" s="3">
+        <v>2</v>
+      </c>
+      <c r="H20" s="3">
+        <v>2</v>
+      </c>
+      <c r="I20" s="3">
+        <v>2</v>
+      </c>
+      <c r="J20" s="3">
+        <v>2</v>
+      </c>
+      <c r="K20" s="3">
+        <v>2</v>
+      </c>
+      <c r="L20" s="3">
+        <v>2</v>
+      </c>
+      <c r="M20" s="3">
+        <v>2</v>
+      </c>
+      <c r="N20" s="3">
+        <v>2</v>
+      </c>
+      <c r="O20" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2615,60 +3081,60 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
         <v>82</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>87</v>
-      </c>
-      <c r="C12" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/tools/luban/Datas/Enemys.xlsx
+++ b/tools/luban/Datas/Enemys.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15B9A19-F7C4-4718-8716-3327EF5569F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7CE98B-5EAF-4C44-A495-73FFFE75BE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enemy" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="130">
   <si>
     <t>##var</t>
   </si>
@@ -282,10 +282,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>敌人经验</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>玩家等级</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -302,14 +298,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>挂机需要多少分钟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挂机需要天数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>骷髅弓箭手4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -530,6 +518,22 @@
   </si>
   <si>
     <t>意识迷雾</t>
+  </si>
+  <si>
+    <t>三属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得飞升技能点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀敌人获得经验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂机一天获得经验呢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -959,13 +963,13 @@
         <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>20</v>
@@ -1093,13 +1097,13 @@
         <v>53</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>10</v>
@@ -1411,7 +1415,7 @@
         <v>36</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E10" s="3">
         <v>240</v>
@@ -1465,7 +1469,7 @@
         <v>37</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E11" s="3">
         <v>80</v>
@@ -1519,7 +1523,7 @@
         <v>38</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E12" s="3">
         <v>120</v>
@@ -1573,7 +1577,7 @@
         <v>39</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E13" s="3">
         <v>200</v>
@@ -1786,10 +1790,10 @@
         <v>7013</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E17" s="3">
         <v>50</v>
@@ -1840,10 +1844,10 @@
         <v>7014</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E18" s="3">
         <v>100</v>
@@ -2058,7 +2062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA639C1-B7A9-4558-AA8A-6FFF02A6BAEF}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:A20"/>
     </sheetView>
   </sheetViews>
@@ -2226,13 +2230,13 @@
     </row>
     <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B5" s="3">
         <v>1001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>46</v>
@@ -2273,13 +2277,13 @@
     </row>
     <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B6" s="3">
         <v>1002</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>46</v>
@@ -2320,13 +2324,13 @@
     </row>
     <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B7" s="3">
         <v>1003</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>46</v>
@@ -2367,13 +2371,13 @@
     </row>
     <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B8" s="3">
         <v>1004</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>44</v>
@@ -2414,13 +2418,13 @@
     </row>
     <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B9" s="3">
         <v>1005</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>45</v>
@@ -2461,16 +2465,16 @@
     </row>
     <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B10" s="3">
         <v>1006</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="E10" s="3">
         <v>10000</v>
@@ -2508,16 +2512,16 @@
     </row>
     <row r="11" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B11" s="3">
         <v>1007</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E11" s="3">
         <v>1000</v>
@@ -2555,16 +2559,16 @@
     </row>
     <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B12" s="3">
         <v>1008</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E12" s="3">
         <v>1000</v>
@@ -2602,16 +2606,16 @@
     </row>
     <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B13" s="3">
         <v>1009</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E13" s="3">
         <v>1000</v>
@@ -2649,16 +2653,16 @@
     </row>
     <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B14" s="3">
         <v>1010</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E14" s="3">
         <v>1000</v>
@@ -2696,16 +2700,16 @@
     </row>
     <row r="15" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B15" s="3">
         <v>1011</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E15" s="3">
         <v>1000</v>
@@ -2743,16 +2747,16 @@
     </row>
     <row r="16" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B16" s="3">
         <v>1012</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E16" s="3">
         <v>1000</v>
@@ -2790,16 +2794,16 @@
     </row>
     <row r="17" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B17" s="3">
         <v>1013</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E17" s="3">
         <v>1000</v>
@@ -2837,16 +2841,16 @@
     </row>
     <row r="18" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B18" s="3">
         <v>1014</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E18" s="3">
         <v>1000</v>
@@ -2884,16 +2888,16 @@
     </row>
     <row r="19" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B19" s="3">
         <v>1015</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E19" s="3">
         <v>1000</v>
@@ -2931,16 +2935,16 @@
     </row>
     <row r="20" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B20" s="3">
         <v>1016</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E20" s="3">
         <v>1000</v>
@@ -3021,8 +3025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4755CE-4DC2-4800-BADC-08EC8B6C27C4}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3081,60 +3085,60 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3145,47 +3149,50 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B0B6FF-1C2B-45C8-B2FD-5527B7888832}">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D92" sqref="D92"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13" customWidth="1"/>
+    <col min="6" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>60</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3193,30 +3200,34 @@
         <v>1</v>
       </c>
       <c r="C2" s="5">
-        <f xml:space="preserve"> (15 + (A2 ^ 3)) * (1.07 ^ (A2 - 1))</f>
-        <v>16</v>
+        <f xml:space="preserve"> (15 + (A2 ^ 3)) * (1.07 ^ (A2))</f>
+        <v>17.12</v>
       </c>
       <c r="D2" s="5">
-        <f xml:space="preserve"> (3 * B2 * 1.5) * (1 + H2 * 0.1)</f>
+        <f xml:space="preserve"> (3 * B2 * 1.5) * (1 + I2 * 0.1)</f>
         <v>4.5</v>
       </c>
       <c r="E2" s="5">
         <f>C2 / D2</f>
-        <v>3.5555555555555554</v>
+        <v>3.8044444444444445</v>
       </c>
       <c r="F2" s="5">
-        <f>((E2) /60) * 1.8</f>
-        <v>0.10666666666666666</v>
+        <f>((D2)*86400)*0.1</f>
+        <v>38880</v>
       </c>
       <c r="G2" s="5">
-        <f>F2 / 1440</f>
-        <v>7.4074074074074073E-5</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <f>A2</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="5">
+        <f>(G2*3)/40</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3224,30 +3235,34 @@
         <v>1</v>
       </c>
       <c r="C3" s="5">
-        <f t="shared" ref="C3:C66" si="0" xml:space="preserve"> (15 + (A3 ^ 3)) * (1.07 ^ (A3 - 1))</f>
-        <v>24.610000000000003</v>
+        <f t="shared" ref="C3:C66" si="0" xml:space="preserve"> (15 + (A3 ^ 3)) * (1.07 ^ (A3))</f>
+        <v>26.332699999999999</v>
       </c>
       <c r="D3" s="5">
-        <f t="shared" ref="D3:D66" si="1" xml:space="preserve"> (3 * B3 * 1.5) * (1 + H3 * 0.1)</f>
+        <f xml:space="preserve"> (3 * B3 * 1.5) * (1 + I3 * 0.1)</f>
         <v>4.5</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" ref="E3:E10" si="2">C3 / D3</f>
-        <v>5.4688888888888894</v>
+        <f t="shared" ref="E3:E10" si="1">C3 / D3</f>
+        <v>5.8517111111111113</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" ref="F3:F66" si="3">((E3) /60) * 1.8</f>
-        <v>0.16406666666666669</v>
+        <f t="shared" ref="F3:F66" si="2">((D3)*86400)*0.1</f>
+        <v>38880</v>
       </c>
       <c r="G3" s="5">
-        <f t="shared" ref="G3:G66" si="4">F3 / 1440</f>
-        <v>1.1393518518518521E-4</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ref="G3:G66" si="3">A3</f>
+        <v>2</v>
+      </c>
+      <c r="H3" s="5">
+        <f t="shared" ref="H3:H66" si="4">(G3*3)/40</f>
+        <v>0.15</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3257,29 +3272,33 @@
       </c>
       <c r="C4" s="5">
         <f t="shared" si="0"/>
-        <v>48.085799999999999</v>
+        <v>51.451806000000005</v>
       </c>
       <c r="D4" s="5">
+        <f xml:space="preserve"> (3 * B4 * 1.5) * (1 + I4 * 0.1)</f>
+        <v>9</v>
+      </c>
+      <c r="E4" s="5">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="E4" s="5">
+        <v>5.716867333333334</v>
+      </c>
+      <c r="F4" s="5">
         <f t="shared" si="2"/>
-        <v>5.3428666666666667</v>
-      </c>
-      <c r="F4" s="5">
+        <v>77760</v>
+      </c>
+      <c r="G4" s="5">
         <f t="shared" si="3"/>
-        <v>0.16028600000000001</v>
-      </c>
-      <c r="G4" s="5">
+        <v>3</v>
+      </c>
+      <c r="H4" s="5">
         <f t="shared" si="4"/>
-        <v>1.1130972222222223E-4</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3289,29 +3308,33 @@
       </c>
       <c r="C5" s="5">
         <f t="shared" si="0"/>
-        <v>96.778397000000012</v>
+        <v>103.55288479000001</v>
       </c>
       <c r="D5" s="5">
+        <f xml:space="preserve"> (3 * B5 * 1.5) * (1 + I5 * 0.1)</f>
+        <v>13.5</v>
+      </c>
+      <c r="E5" s="5">
         <f t="shared" si="1"/>
-        <v>13.5</v>
-      </c>
-      <c r="E5" s="5">
+        <v>7.6705840585185188</v>
+      </c>
+      <c r="F5" s="5">
         <f t="shared" si="2"/>
-        <v>7.1687701481481492</v>
-      </c>
-      <c r="F5" s="5">
+        <v>116640</v>
+      </c>
+      <c r="G5" s="5">
         <f t="shared" si="3"/>
-        <v>0.21506310444444446</v>
-      </c>
-      <c r="G5" s="5">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5">
         <f t="shared" si="4"/>
-        <v>1.4934937808641977E-4</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.3</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3321,29 +3344,33 @@
       </c>
       <c r="C6" s="5">
         <f t="shared" si="0"/>
-        <v>183.5114414</v>
+        <v>196.35724229800002</v>
       </c>
       <c r="D6" s="5">
+        <f xml:space="preserve"> (3 * B6 * 1.5) * (1 + I6 * 0.1)</f>
+        <v>18</v>
+      </c>
+      <c r="E6" s="5">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="E6" s="5">
+        <v>10.908735683222224</v>
+      </c>
+      <c r="F6" s="5">
         <f t="shared" si="2"/>
-        <v>10.195080077777778</v>
-      </c>
-      <c r="F6" s="5">
+        <v>155520</v>
+      </c>
+      <c r="G6" s="5">
         <f t="shared" si="3"/>
-        <v>0.30585240233333338</v>
-      </c>
-      <c r="G6" s="5">
+        <v>5</v>
+      </c>
+      <c r="H6" s="5">
         <f t="shared" si="4"/>
-        <v>2.123975016203704E-4</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.375</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3353,29 +3380,33 @@
       </c>
       <c r="C7" s="5">
         <f t="shared" si="0"/>
-        <v>323.98944979170005</v>
+        <v>346.66871127711903</v>
       </c>
       <c r="D7" s="5">
+        <f xml:space="preserve"> (3 * B7 * 1.5) * (1 + I7 * 0.1)</f>
+        <v>22.5</v>
+      </c>
+      <c r="E7" s="5">
         <f t="shared" si="1"/>
-        <v>22.5</v>
-      </c>
-      <c r="E7" s="5">
+        <v>15.407498278983068</v>
+      </c>
+      <c r="F7" s="5">
         <f t="shared" si="2"/>
-        <v>14.399531101853336</v>
-      </c>
-      <c r="F7" s="5">
+        <v>194400</v>
+      </c>
+      <c r="G7" s="5">
         <f t="shared" si="3"/>
-        <v>0.43198593305560007</v>
-      </c>
-      <c r="G7" s="5">
+        <v>6</v>
+      </c>
+      <c r="H7" s="5">
         <f t="shared" si="4"/>
-        <v>2.9999023128861118E-4</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.45</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3385,29 +3416,33 @@
       </c>
       <c r="C8" s="5">
         <f t="shared" si="0"/>
-        <v>537.26146596194201</v>
+        <v>574.869768579278</v>
       </c>
       <c r="D8" s="5">
+        <f xml:space="preserve"> (3 * B8 * 1.5) * (1 + I8 * 0.1)</f>
+        <v>27</v>
+      </c>
+      <c r="E8" s="5">
         <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="E8" s="5">
+        <v>21.291472910343629</v>
+      </c>
+      <c r="F8" s="5">
         <f t="shared" si="2"/>
-        <v>19.898572813405259</v>
-      </c>
-      <c r="F8" s="5">
+        <v>233280</v>
+      </c>
+      <c r="G8" s="5">
         <f t="shared" si="3"/>
-        <v>0.59695718440215773</v>
-      </c>
-      <c r="G8" s="5">
+        <v>7</v>
+      </c>
+      <c r="H8" s="5">
         <f t="shared" si="4"/>
-        <v>4.1455360027927622E-4</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3417,29 +3452,33 @@
       </c>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
-        <v>846.24683810413273</v>
+        <v>905.48411677142201</v>
       </c>
       <c r="D9" s="5">
+        <f xml:space="preserve"> (3 * B9 * 1.5) * (1 + I9 * 0.1)</f>
+        <v>31.5</v>
+      </c>
+      <c r="E9" s="5">
         <f t="shared" si="1"/>
-        <v>31.5</v>
-      </c>
-      <c r="E9" s="5">
+        <v>28.745527516553079</v>
+      </c>
+      <c r="F9" s="5">
         <f t="shared" si="2"/>
-        <v>26.864978987432785</v>
-      </c>
-      <c r="F9" s="5">
+        <v>272160</v>
+      </c>
+      <c r="G9" s="5">
         <f t="shared" si="3"/>
-        <v>0.80594936962298358</v>
-      </c>
-      <c r="G9" s="5">
+        <v>8</v>
+      </c>
+      <c r="H9" s="5">
         <f t="shared" si="4"/>
-        <v>5.5968706223818304E-4</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.6</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3449,29 +3488,33 @@
       </c>
       <c r="C10" s="5">
         <f t="shared" si="0"/>
-        <v>1278.3305177949487</v>
+        <v>1367.8136540405951</v>
       </c>
       <c r="D10" s="5">
+        <f xml:space="preserve"> (3 * B10 * 1.5) * (1 + I10 * 0.1)</f>
+        <v>36</v>
+      </c>
+      <c r="E10" s="5">
         <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="E10" s="5">
+        <v>37.994823723349867</v>
+      </c>
+      <c r="F10" s="5">
         <f t="shared" si="2"/>
-        <v>35.509181049859684</v>
-      </c>
-      <c r="F10" s="5">
+        <v>311040</v>
+      </c>
+      <c r="G10" s="5">
         <f t="shared" si="3"/>
-        <v>1.0652754314957906</v>
-      </c>
-      <c r="G10" s="5">
+        <v>9</v>
+      </c>
+      <c r="H10" s="5">
         <f t="shared" si="4"/>
-        <v>7.3977460520541021E-4</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3481,29 +3524,33 @@
       </c>
       <c r="C11" s="5">
         <f t="shared" si="0"/>
-        <v>1866.0361006064572</v>
+        <v>1996.658627648909</v>
       </c>
       <c r="D11" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B11 * 1.5) * (1 + I11 * 0.1)</f>
         <v>40.5</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ref="E11:E26" si="6">C11 / D11</f>
-        <v>46.074965447073019</v>
+        <v>49.300213028368127</v>
       </c>
       <c r="F11" s="5">
+        <f t="shared" si="2"/>
+        <v>349920</v>
+      </c>
+      <c r="G11" s="5">
         <f t="shared" si="3"/>
-        <v>1.3822489634121906</v>
-      </c>
-      <c r="G11" s="5">
+        <v>10</v>
+      </c>
+      <c r="H11" s="5">
         <f t="shared" si="4"/>
-        <v>9.5989511348068795E-4</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.75</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3513,29 +3560,33 @@
       </c>
       <c r="C12" s="5">
         <f t="shared" si="0"/>
-        <v>2647.7857269117553</v>
+        <v>2833.1307277955784</v>
       </c>
       <c r="D12" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B12 * 1.5) * (1 + I12 * 0.1)</f>
         <v>45</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" si="6"/>
-        <v>58.839682820261231</v>
+        <v>62.958460617679521</v>
       </c>
       <c r="F12" s="5">
+        <f t="shared" si="2"/>
+        <v>388800</v>
+      </c>
+      <c r="G12" s="5">
         <f t="shared" si="3"/>
-        <v>1.765190484607837</v>
-      </c>
-      <c r="G12" s="5">
+        <v>11</v>
+      </c>
+      <c r="H12" s="5">
         <f t="shared" si="4"/>
-        <v>1.2258267254221091E-3</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3545,29 +3596,33 @@
       </c>
       <c r="C13" s="5">
         <f t="shared" si="0"/>
-        <v>3668.7569528586132</v>
+        <v>3925.5699395587153</v>
       </c>
       <c r="D13" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B13 * 1.5) * (1 + I13 * 0.1)</f>
         <v>49.5</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" si="6"/>
-        <v>74.116302077951786</v>
+        <v>79.304443223408384</v>
       </c>
       <c r="F13" s="5">
+        <f t="shared" si="2"/>
+        <v>427680</v>
+      </c>
+      <c r="G13" s="5">
         <f t="shared" si="3"/>
-        <v>2.2234890623385537</v>
-      </c>
-      <c r="G13" s="5">
+        <v>12</v>
+      </c>
+      <c r="H13" s="5">
         <f t="shared" si="4"/>
-        <v>1.5440896266239955E-3</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.9</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3577,29 +3632,33 @@
       </c>
       <c r="C14" s="5">
         <f t="shared" si="0"/>
-        <v>4981.8477947813417</v>
+        <v>5330.5771404160359</v>
       </c>
       <c r="D14" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B14 * 1.5) * (1 + I14 * 0.1)</f>
         <v>54</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" si="6"/>
-        <v>92.256440644098916</v>
+        <v>98.714391489185857</v>
       </c>
       <c r="F14" s="5">
+        <f t="shared" si="2"/>
+        <v>466560</v>
+      </c>
+      <c r="G14" s="5">
         <f t="shared" si="3"/>
-        <v>2.7676932193229677</v>
-      </c>
-      <c r="G14" s="5">
+        <v>13</v>
+      </c>
+      <c r="H14" s="5">
         <f t="shared" si="4"/>
-        <v>1.9220091800853942E-3</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3609,29 +3668,33 @@
       </c>
       <c r="C15" s="5">
         <f t="shared" si="0"/>
-        <v>6648.7623555189166</v>
+        <v>7114.1757204052401</v>
       </c>
       <c r="D15" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B15 * 1.5) * (1 + I15 * 0.1)</f>
         <v>58.5</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" si="6"/>
-        <v>113.65405735929772</v>
+        <v>121.60984137444855</v>
       </c>
       <c r="F15" s="5">
+        <f t="shared" si="2"/>
+        <v>505440</v>
+      </c>
+      <c r="G15" s="5">
         <f t="shared" si="3"/>
-        <v>3.4096217207789317</v>
-      </c>
-      <c r="G15" s="5">
+        <v>14</v>
+      </c>
+      <c r="H15" s="5">
         <f t="shared" si="4"/>
-        <v>2.3677928616520358E-3</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.05</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3641,29 +3704,33 @@
       </c>
       <c r="C16" s="5">
         <f t="shared" si="0"/>
-        <v>8741.2307691822261</v>
+        <v>9353.1169230249834</v>
       </c>
       <c r="D16" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B16 * 1.5) * (1 + I16 * 0.1)</f>
         <v>63</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="6"/>
-        <v>138.74969474892421</v>
+        <v>148.46217338134895</v>
       </c>
       <c r="F16" s="5">
+        <f t="shared" si="2"/>
+        <v>544320</v>
+      </c>
+      <c r="G16" s="5">
         <f t="shared" si="3"/>
-        <v>4.1624908424677267</v>
-      </c>
-      <c r="G16" s="5">
+        <v>15</v>
+      </c>
+      <c r="H16" s="5">
         <f t="shared" si="4"/>
-        <v>2.8906186406025881E-3</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.125</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3673,29 +3740,33 @@
       </c>
       <c r="C17" s="5">
         <f t="shared" si="0"/>
-        <v>11342.37866388074</v>
+        <v>12136.34517035239</v>
       </c>
       <c r="D17" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B17 * 1.5) * (1 + I17 * 0.1)</f>
         <v>67.5</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" si="6"/>
-        <v>168.03523946489986</v>
+        <v>179.7977062274428</v>
       </c>
       <c r="F17" s="5">
+        <f t="shared" si="2"/>
+        <v>583200</v>
+      </c>
+      <c r="G17" s="5">
         <f t="shared" si="3"/>
-        <v>5.0410571839469958</v>
-      </c>
-      <c r="G17" s="5">
+        <v>16</v>
+      </c>
+      <c r="H17" s="5">
         <f t="shared" si="4"/>
-        <v>3.5007341555187469E-3</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.2</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3705,29 +3776,33 @@
       </c>
       <c r="C18" s="5">
         <f t="shared" si="0"/>
-        <v>14548.262952930329</v>
+        <v>15566.64135963545</v>
       </c>
       <c r="D18" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B18 * 1.5) * (1 + I18 * 0.1)</f>
         <v>72</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" si="6"/>
-        <v>202.0592076795879</v>
+        <v>216.20335221715902</v>
       </c>
       <c r="F18" s="5">
+        <f t="shared" si="2"/>
+        <v>622080</v>
+      </c>
+      <c r="G18" s="5">
         <f t="shared" si="3"/>
-        <v>6.061776230387637</v>
-      </c>
-      <c r="G18" s="5">
+        <v>17</v>
+      </c>
+      <c r="H18" s="5">
         <f t="shared" si="4"/>
-        <v>4.2095668266580811E-3</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3737,29 +3812,33 @@
       </c>
       <c r="C19" s="5">
         <f t="shared" si="0"/>
-        <v>18469.592538512272</v>
+        <v>19762.464016208134</v>
       </c>
       <c r="D19" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B19 * 1.5) * (1 + I19 * 0.1)</f>
         <v>76.5</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" si="6"/>
-        <v>241.4325822027748</v>
+        <v>258.33286295696905</v>
       </c>
       <c r="F19" s="5">
+        <f t="shared" si="2"/>
+        <v>660960</v>
+      </c>
+      <c r="G19" s="5">
         <f t="shared" si="3"/>
-        <v>7.2429774660832438</v>
-      </c>
-      <c r="G19" s="5">
+        <v>18</v>
+      </c>
+      <c r="H19" s="5">
         <f t="shared" si="4"/>
-        <v>5.0298454625578078E-3</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.35</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3769,29 +3848,33 @@
       </c>
       <c r="C20" s="5">
         <f t="shared" si="0"/>
-        <v>23233.654463385446</v>
+        <v>24860.010275822431</v>
       </c>
       <c r="D20" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B20 * 1.5) * (1 + I20 * 0.1)</f>
         <v>81</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="6"/>
-        <v>286.8352402887092</v>
+        <v>306.91370710891891</v>
       </c>
       <c r="F20" s="5">
+        <f t="shared" si="2"/>
+        <v>699840</v>
+      </c>
+      <c r="G20" s="5">
         <f t="shared" si="3"/>
-        <v>8.6050572086612771</v>
-      </c>
-      <c r="G20" s="5">
+        <v>19</v>
+      </c>
+      <c r="H20" s="5">
         <f t="shared" si="4"/>
-        <v>5.9757341726814428E-3</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.425</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3801,29 +3884,33 @@
       </c>
       <c r="C21" s="5">
         <f t="shared" si="0"/>
-        <v>28986.468193296008</v>
+        <v>31015.520966826727</v>
       </c>
       <c r="D21" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B21 * 1.5) * (1 + I21 * 0.1)</f>
         <v>85.5</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" si="6"/>
-        <v>339.0230198046317</v>
+        <v>362.75463119095588</v>
       </c>
       <c r="F21" s="5">
+        <f t="shared" si="2"/>
+        <v>738720</v>
+      </c>
+      <c r="G21" s="5">
         <f t="shared" si="3"/>
-        <v>10.17069059413895</v>
-      </c>
-      <c r="G21" s="5">
+        <v>20</v>
+      </c>
+      <c r="H21" s="5">
         <f t="shared" si="4"/>
-        <v>7.0629795792631596E-3</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.5</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3833,29 +3920,33 @@
       </c>
       <c r="C22" s="5">
         <f t="shared" si="0"/>
-        <v>35895.193074021801</v>
+        <v>38407.856589203329</v>
       </c>
       <c r="D22" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B22 * 1.5) * (1 + I22 * 0.1)</f>
         <v>90</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" si="6"/>
-        <v>398.83547860024225</v>
+        <v>426.75396210225921</v>
       </c>
       <c r="F22" s="5">
+        <f t="shared" si="2"/>
+        <v>777600</v>
+      </c>
+      <c r="G22" s="5">
         <f t="shared" si="3"/>
-        <v>11.965064358007268</v>
-      </c>
-      <c r="G22" s="5">
+        <v>21</v>
+      </c>
+      <c r="H22" s="5">
         <f t="shared" si="4"/>
-        <v>8.3090724708383811E-3</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.575</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3865,29 +3956,33 @@
       </c>
       <c r="C23" s="5">
         <f t="shared" si="0"/>
-        <v>44150.816603134444</v>
+        <v>47241.373765353856</v>
       </c>
       <c r="D23" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B23 * 1.5) * (1 + I23 * 0.1)</f>
         <v>94.5</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" si="6"/>
-        <v>467.20440849877718</v>
+        <v>499.90871709369162</v>
       </c>
       <c r="F23" s="5">
+        <f t="shared" si="2"/>
+        <v>816480</v>
+      </c>
+      <c r="G23" s="5">
         <f t="shared" si="3"/>
-        <v>14.016132254963317</v>
-      </c>
-      <c r="G23" s="5">
+        <v>22</v>
+      </c>
+      <c r="H23" s="5">
         <f t="shared" si="4"/>
-        <v>9.7334251770578584E-3</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.65</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3897,29 +3992,33 @@
       </c>
       <c r="C24" s="5">
         <f t="shared" si="0"/>
-        <v>53971.154010085404</v>
+        <v>57749.134790791381</v>
       </c>
       <c r="D24" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B24 * 1.5) * (1 + I24 * 0.1)</f>
         <v>99</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" si="6"/>
-        <v>545.16317181904446</v>
+        <v>583.32459384637752</v>
       </c>
       <c r="F24" s="5">
+        <f t="shared" si="2"/>
+        <v>855360</v>
+      </c>
+      <c r="G24" s="5">
         <f t="shared" si="3"/>
-        <v>16.354895154571334</v>
-      </c>
-      <c r="G24" s="5">
+        <v>23</v>
+      </c>
+      <c r="H24" s="5">
         <f t="shared" si="4"/>
-        <v>1.1357566079563427E-2</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.7250000000000001</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3929,29 +4028,33 @@
       </c>
       <c r="C25" s="5">
         <f t="shared" si="0"/>
-        <v>65604.192773745031</v>
+        <v>70196.486267907181</v>
       </c>
       <c r="D25" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B25 * 1.5) * (1 + I25 * 0.1)</f>
         <v>103.5</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" si="6"/>
-        <v>633.85693501202934</v>
+        <v>678.22692046287136</v>
       </c>
       <c r="F25" s="5">
+        <f t="shared" si="2"/>
+        <v>894240</v>
+      </c>
+      <c r="G25" s="5">
         <f t="shared" si="3"/>
-        <v>19.015708050360878</v>
-      </c>
-      <c r="G25" s="5">
+        <v>24</v>
+      </c>
+      <c r="H25" s="5">
         <f t="shared" si="4"/>
-        <v>1.320535281275061E-2</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.8</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3961,29 +4064,33 @@
       </c>
       <c r="C26" s="5">
         <f t="shared" si="0"/>
-        <v>79331.819150955154</v>
+        <v>84885.046491522022</v>
       </c>
       <c r="D26" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B26 * 1.5) * (1 + I26 * 0.1)</f>
         <v>108</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" si="6"/>
-        <v>734.55388102736254</v>
+        <v>785.972652699278</v>
       </c>
       <c r="F26" s="5">
+        <f t="shared" si="2"/>
+        <v>933120</v>
+      </c>
+      <c r="G26" s="5">
         <f t="shared" si="3"/>
-        <v>22.036616430820875</v>
-      </c>
-      <c r="G26" s="5">
+        <v>25</v>
+      </c>
+      <c r="H26" s="5">
         <f t="shared" si="4"/>
-        <v>1.5303205854736719E-2</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.875</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3993,29 +4100,33 @@
       </c>
       <c r="C27" s="5">
         <f t="shared" si="0"/>
-        <v>95473.967572401772</v>
+        <v>102157.1453024699</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B27 * 1.5) * (1 + I27 * 0.1)</f>
         <v>112.5</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" ref="E27:E90" si="8">C27 / D27</f>
-        <v>848.6574895324602</v>
+        <v>908.06351379973239</v>
       </c>
       <c r="F27" s="5">
+        <f t="shared" si="2"/>
+        <v>972000</v>
+      </c>
+      <c r="G27" s="5">
         <f t="shared" si="3"/>
-        <v>25.459724685973804</v>
-      </c>
-      <c r="G27" s="5">
+        <v>26</v>
+      </c>
+      <c r="H27" s="5">
         <f t="shared" si="4"/>
-        <v>1.7680364365259587E-2</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.95</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4025,29 +4136,33 @@
       </c>
       <c r="C28" s="5">
         <f t="shared" si="0"/>
-        <v>114393.23791530055</v>
+        <v>122400.76456937162</v>
       </c>
       <c r="D28" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B28 * 1.5) * (1 + I28 * 0.1)</f>
         <v>117</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" si="8"/>
-        <v>977.7199821820559</v>
+        <v>1046.1603809348001</v>
       </c>
       <c r="F28" s="5">
+        <f t="shared" si="2"/>
+        <v>1010880</v>
+      </c>
+      <c r="G28" s="5">
         <f t="shared" si="3"/>
-        <v>29.331599465461679</v>
-      </c>
-      <c r="G28" s="5">
+        <v>27</v>
+      </c>
+      <c r="H28" s="5">
         <f t="shared" si="4"/>
-        <v>2.0369166295459498E-2</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2.0249999999999999</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4057,29 +4172,33 @@
       </c>
       <c r="C29" s="5">
         <f t="shared" si="0"/>
-        <v>136500.03022110806</v>
+        <v>146055.03233658557</v>
       </c>
       <c r="D29" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B29 * 1.5) * (1 + I29 * 0.1)</f>
         <v>121.5</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" si="8"/>
-        <v>1123.4570388568563</v>
+        <v>1202.0990315768361</v>
       </c>
       <c r="F29" s="5">
+        <f t="shared" si="2"/>
+        <v>1049760</v>
+      </c>
+      <c r="G29" s="5">
         <f t="shared" si="3"/>
-        <v>33.703711165705691</v>
-      </c>
-      <c r="G29" s="5">
+        <v>28</v>
+      </c>
+      <c r="H29" s="5">
         <f t="shared" si="4"/>
-        <v>2.3405354976184508E-2</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2.1</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4089,29 +4208,33 @@
       </c>
       <c r="C30" s="5">
         <f t="shared" si="0"/>
-        <v>162258.25142905425</v>
+        <v>173616.32902908802</v>
       </c>
       <c r="D30" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B30 * 1.5) * (1 + I30 * 0.1)</f>
         <v>126</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" si="8"/>
-        <v>1287.7639002305893</v>
+        <v>1377.9073732467305</v>
       </c>
       <c r="F30" s="5">
+        <f t="shared" si="2"/>
+        <v>1088640</v>
+      </c>
+      <c r="G30" s="5">
         <f t="shared" si="3"/>
-        <v>38.63291700691768</v>
-      </c>
-      <c r="G30" s="5">
+        <v>29</v>
+      </c>
+      <c r="H30" s="5">
         <f t="shared" si="4"/>
-        <v>2.6828414588137277E-2</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2.1749999999999998</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4121,29 +4244,33 @@
       </c>
       <c r="C31" s="5">
         <f t="shared" si="0"/>
-        <v>192191.65418459324</v>
+        <v>205645.06997751477</v>
       </c>
       <c r="D31" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B31 * 1.5) * (1 + I31 * 0.1)</f>
         <v>130.5</v>
       </c>
       <c r="E31" s="5">
         <f t="shared" si="8"/>
-        <v>1472.7329822574195</v>
+        <v>1575.8242910154388</v>
       </c>
       <c r="F31" s="5">
+        <f t="shared" si="2"/>
+        <v>1127520</v>
+      </c>
+      <c r="G31" s="5">
         <f t="shared" si="3"/>
-        <v>44.181989467722588</v>
-      </c>
-      <c r="G31" s="5">
+        <v>30</v>
+      </c>
+      <c r="H31" s="5">
         <f t="shared" si="4"/>
-        <v>3.0681937130362907E-2</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2.25</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4153,29 +4280,33 @@
       </c>
       <c r="C32" s="5">
         <f t="shared" si="0"/>
-        <v>226890.87380158447</v>
+        <v>242773.23496769543</v>
       </c>
       <c r="D32" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B32 * 1.5) * (1 + I32 * 0.1)</f>
         <v>135</v>
       </c>
       <c r="E32" s="5">
         <f t="shared" si="8"/>
-        <v>1680.673139270996</v>
+        <v>1798.3202590199662</v>
       </c>
       <c r="F32" s="5">
+        <f t="shared" si="2"/>
+        <v>1166400</v>
+      </c>
+      <c r="G32" s="5">
         <f t="shared" si="3"/>
-        <v>50.420194178129883</v>
-      </c>
-      <c r="G32" s="5">
+        <v>31</v>
+      </c>
+      <c r="H32" s="5">
         <f t="shared" si="4"/>
-        <v>3.5014023734812418E-2</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2.3250000000000002</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4185,29 +4316,33 @@
       </c>
       <c r="C33" s="5">
         <f t="shared" si="0"/>
-        <v>267021.23605804064</v>
+        <v>285712.72258210345</v>
       </c>
       <c r="D33" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B33 * 1.5) * (1 + I33 * 0.1)</f>
         <v>139.5</v>
       </c>
       <c r="E33" s="5">
         <f t="shared" si="8"/>
-        <v>1914.1307244303989</v>
+        <v>2048.1198751405263</v>
       </c>
       <c r="F33" s="5">
+        <f t="shared" si="2"/>
+        <v>1205280</v>
+      </c>
+      <c r="G33" s="5">
         <f t="shared" si="3"/>
-        <v>57.423921732911971</v>
-      </c>
-      <c r="G33" s="5">
+        <v>32</v>
+      </c>
+      <c r="H33" s="5">
         <f t="shared" si="4"/>
-        <v>3.987772342563331E-2</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2.4</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4217,29 +4352,33 @@
       </c>
       <c r="C34" s="5">
         <f t="shared" si="0"/>
-        <v>313331.41574205481</v>
+        <v>335264.61484399869</v>
       </c>
       <c r="D34" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B34 * 1.5) * (1 + I34 * 0.1)</f>
         <v>144</v>
       </c>
       <c r="E34" s="5">
         <f t="shared" si="8"/>
-        <v>2175.9126093198252</v>
+        <v>2328.2264919722129</v>
       </c>
       <c r="F34" s="5">
+        <f t="shared" si="2"/>
+        <v>1244160</v>
+      </c>
+      <c r="G34" s="5">
         <f t="shared" si="3"/>
-        <v>65.277378279594757</v>
-      </c>
-      <c r="G34" s="5">
+        <v>33</v>
+      </c>
+      <c r="H34" s="5">
         <f t="shared" si="4"/>
-        <v>4.5331512694163023E-2</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2.4750000000000001</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4249,29 +4388,33 @@
       </c>
       <c r="C35" s="5">
         <f t="shared" si="0"/>
-        <v>366663.03379648377</v>
+        <v>392329.44616223761</v>
       </c>
       <c r="D35" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B35 * 1.5) * (1 + I35 * 0.1)</f>
         <v>148.5</v>
       </c>
       <c r="E35" s="5">
         <f t="shared" si="8"/>
-        <v>2469.1113386968605</v>
+        <v>2641.9491324056403</v>
       </c>
       <c r="F35" s="5">
+        <f t="shared" si="2"/>
+        <v>1283040</v>
+      </c>
+      <c r="G35" s="5">
         <f t="shared" si="3"/>
-        <v>74.073340160905815</v>
-      </c>
-      <c r="G35" s="5">
+        <v>34</v>
+      </c>
+      <c r="H35" s="5">
         <f t="shared" si="4"/>
-        <v>5.1439819556184596E-2</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4281,29 +4424,33 @@
       </c>
       <c r="C36" s="5">
         <f t="shared" si="0"/>
-        <v>427961.28960294952</v>
+        <v>457918.57987515599</v>
       </c>
       <c r="D36" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B36 * 1.5) * (1 + I36 * 0.1)</f>
         <v>153</v>
       </c>
       <c r="E36" s="5">
         <f t="shared" si="8"/>
-        <v>2797.132611783984</v>
+        <v>2992.9318946088629</v>
       </c>
       <c r="F36" s="5">
+        <f t="shared" si="2"/>
+        <v>1321920</v>
+      </c>
+      <c r="G36" s="5">
         <f t="shared" si="3"/>
-        <v>83.913978353519511</v>
-      </c>
-      <c r="G36" s="5">
+        <v>35</v>
+      </c>
+      <c r="H36" s="5">
         <f t="shared" si="4"/>
-        <v>5.8273596078832993E-2</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2.625</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4313,29 +4460,33 @@
       </c>
       <c r="C37" s="5">
         <f t="shared" si="0"/>
-        <v>498286.73446848692</v>
+        <v>533166.80588128103</v>
       </c>
       <c r="D37" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B37 * 1.5) * (1 + I37 * 0.1)</f>
         <v>157.5</v>
       </c>
       <c r="E37" s="5">
         <f t="shared" si="8"/>
-        <v>3163.7252982126151</v>
+        <v>3385.1860690874987</v>
       </c>
       <c r="F37" s="5">
+        <f t="shared" si="2"/>
+        <v>1360800</v>
+      </c>
+      <c r="G37" s="5">
         <f t="shared" si="3"/>
-        <v>94.911758946378455</v>
-      </c>
-      <c r="G37" s="5">
+        <v>36</v>
+      </c>
+      <c r="H37" s="5">
         <f t="shared" si="4"/>
-        <v>6.5910943712762821E-2</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2.7</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4345,29 +4496,33 @@
       </c>
       <c r="C38" s="5">
         <f t="shared" si="0"/>
-        <v>578828.30280886951</v>
+        <v>619346.28400549036</v>
       </c>
       <c r="D38" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B38 * 1.5) * (1 + I38 * 0.1)</f>
         <v>162</v>
       </c>
       <c r="E38" s="5">
         <f t="shared" si="8"/>
-        <v>3573.014214869565</v>
+        <v>3823.1252099104345</v>
       </c>
       <c r="F38" s="5">
+        <f t="shared" si="2"/>
+        <v>1399680</v>
+      </c>
+      <c r="G38" s="5">
         <f t="shared" si="3"/>
-        <v>107.19042644608695</v>
-      </c>
-      <c r="G38" s="5">
+        <v>37</v>
+      </c>
+      <c r="H38" s="5">
         <f t="shared" si="4"/>
-        <v>7.4437796143115936E-2</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2.7749999999999999</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4377,29 +4532,33 @@
       </c>
       <c r="C39" s="5">
         <f t="shared" si="0"/>
-        <v>670917.72894547542</v>
+        <v>717881.96997165878</v>
       </c>
       <c r="D39" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B39 * 1.5) * (1 + I39 * 0.1)</f>
         <v>166.5</v>
       </c>
       <c r="E39" s="5">
         <f t="shared" si="8"/>
-        <v>4029.5359095824351</v>
+        <v>4311.6034232532056</v>
       </c>
       <c r="F39" s="5">
+        <f t="shared" si="2"/>
+        <v>1438560</v>
+      </c>
+      <c r="G39" s="5">
         <f t="shared" si="3"/>
-        <v>120.88607728747306</v>
-      </c>
-      <c r="G39" s="5">
+        <v>38</v>
+      </c>
+      <c r="H39" s="5">
         <f t="shared" si="4"/>
-        <v>8.3948664782967405E-2</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2.85</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4409,29 +4568,33 @@
       </c>
       <c r="C40" s="5">
         <f t="shared" si="0"/>
-        <v>776045.48993930069</v>
+        <v>830368.67423505185</v>
       </c>
       <c r="D40" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B40 * 1.5) * (1 + I40 * 0.1)</f>
         <v>171</v>
       </c>
       <c r="E40" s="5">
         <f t="shared" si="8"/>
-        <v>4538.2777189432791</v>
+        <v>4855.9571592693092</v>
       </c>
       <c r="F40" s="5">
+        <f t="shared" si="2"/>
+        <v>1477440</v>
+      </c>
+      <c r="G40" s="5">
         <f t="shared" si="3"/>
-        <v>136.14833156829837</v>
-      </c>
-      <c r="G40" s="5">
+        <v>39</v>
+      </c>
+      <c r="H40" s="5">
         <f t="shared" si="4"/>
-        <v>9.4547452477984989E-2</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2.9249999999999998</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4441,29 +4604,33 @@
       </c>
       <c r="C41" s="5">
         <f t="shared" si="0"/>
-        <v>895878.42857647955</v>
+        <v>958589.91857683309</v>
       </c>
       <c r="D41" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B41 * 1.5) * (1 + I41 * 0.1)</f>
         <v>175.5</v>
       </c>
       <c r="E41" s="5">
         <f t="shared" si="8"/>
-        <v>5104.7203907491712</v>
+        <v>5462.050818101613</v>
       </c>
       <c r="F41" s="5">
+        <f t="shared" si="2"/>
+        <v>1516320</v>
+      </c>
+      <c r="G41" s="5">
         <f t="shared" si="3"/>
-        <v>153.14161172247515</v>
-      </c>
-      <c r="G41" s="5">
+        <v>40</v>
+      </c>
+      <c r="H41" s="5">
         <f t="shared" si="4"/>
-        <v>0.10634834147394108</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4473,29 +4640,33 @@
       </c>
       <c r="C42" s="5">
         <f t="shared" si="0"/>
-        <v>1032279.2256035706</v>
+        <v>1104538.7713958204</v>
       </c>
       <c r="D42" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B42 * 1.5) * (1 + I42 * 0.1)</f>
         <v>180</v>
       </c>
       <c r="E42" s="5">
         <f t="shared" si="8"/>
-        <v>5734.8845866865031</v>
+        <v>6136.3265077545575</v>
       </c>
       <c r="F42" s="5">
+        <f t="shared" si="2"/>
+        <v>1555200</v>
+      </c>
+      <c r="G42" s="5">
         <f t="shared" si="3"/>
-        <v>172.04653760059509</v>
-      </c>
-      <c r="G42" s="5">
+        <v>41</v>
+      </c>
+      <c r="H42" s="5">
         <f t="shared" si="4"/>
-        <v>0.11947676222263548</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3.0750000000000002</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4505,29 +4676,33 @@
       </c>
       <c r="C43" s="5">
         <f t="shared" si="0"/>
-        <v>1187327.9067068656</v>
+        <v>1270440.860176346</v>
       </c>
       <c r="D43" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B43 * 1.5) * (1 + I43 * 0.1)</f>
         <v>184.5</v>
       </c>
       <c r="E43" s="5">
         <f t="shared" si="8"/>
-        <v>6435.3816081672931</v>
+        <v>6885.8583207390029</v>
       </c>
       <c r="F43" s="5">
+        <f t="shared" si="2"/>
+        <v>1594080</v>
+      </c>
+      <c r="G43" s="5">
         <f t="shared" si="3"/>
-        <v>193.06144824501879</v>
-      </c>
-      <c r="G43" s="5">
+        <v>42</v>
+      </c>
+      <c r="H43" s="5">
         <f t="shared" si="4"/>
-        <v>0.13407045017015193</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3.15</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4537,29 +4712,33 @@
       </c>
       <c r="C44" s="5">
         <f t="shared" si="0"/>
-        <v>1363345.5876677516</v>
+        <v>1458779.7788044945</v>
       </c>
       <c r="D44" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B44 * 1.5) * (1 + I44 * 0.1)</f>
         <v>189</v>
       </c>
       <c r="E44" s="5">
         <f t="shared" si="8"/>
-        <v>7213.4687178187914</v>
+        <v>7718.411528066109</v>
       </c>
       <c r="F44" s="5">
+        <f t="shared" si="2"/>
+        <v>1632960</v>
+      </c>
+      <c r="G44" s="5">
         <f t="shared" si="3"/>
-        <v>216.40406153456374</v>
-      </c>
-      <c r="G44" s="5">
+        <v>43</v>
+      </c>
+      <c r="H44" s="5">
         <f t="shared" si="4"/>
-        <v>0.15028059828789148</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3.2250000000000001</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4569,29 +4748,33 @@
       </c>
       <c r="C45" s="5">
         <f t="shared" si="0"/>
-        <v>1562920.6807470149</v>
+        <v>1672325.1283993057</v>
       </c>
       <c r="D45" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B45 * 1.5) * (1 + I45 * 0.1)</f>
         <v>193.5</v>
       </c>
       <c r="E45" s="5">
         <f t="shared" si="8"/>
-        <v>8077.1094612248835</v>
+        <v>8642.5071235106243</v>
       </c>
       <c r="F45" s="5">
+        <f t="shared" si="2"/>
+        <v>1671840</v>
+      </c>
+      <c r="G45" s="5">
         <f t="shared" si="3"/>
-        <v>242.31328383674651</v>
-      </c>
-      <c r="G45" s="5">
+        <v>44</v>
+      </c>
+      <c r="H45" s="5">
         <f t="shared" si="4"/>
-        <v>0.1682731137755184</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3.3</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4601,29 +4784,33 @@
       </c>
       <c r="C46" s="5">
         <f t="shared" si="0"/>
-        <v>1788937.8068089148</v>
+        <v>1914163.4532855388</v>
       </c>
       <c r="D46" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B46 * 1.5) * (1 + I46 * 0.1)</f>
         <v>198</v>
       </c>
       <c r="E46" s="5">
         <f t="shared" si="8"/>
-        <v>9035.0394283278529</v>
+        <v>9667.4921883108018</v>
       </c>
       <c r="F46" s="5">
+        <f t="shared" si="2"/>
+        <v>1710720</v>
+      </c>
+      <c r="G46" s="5">
         <f t="shared" si="3"/>
-        <v>271.05118284983564</v>
-      </c>
-      <c r="G46" s="5">
+        <v>45</v>
+      </c>
+      <c r="H46" s="5">
         <f t="shared" si="4"/>
-        <v>0.18822998809016364</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3.375</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4633,29 +4820,33 @@
       </c>
       <c r="C47" s="5">
         <f t="shared" si="0"/>
-        <v>2044609.6811586625</v>
+        <v>2187732.3588397689</v>
       </c>
       <c r="D47" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B47 * 1.5) * (1 + I47 * 0.1)</f>
         <v>202.5</v>
       </c>
       <c r="E47" s="5">
         <f t="shared" si="8"/>
-        <v>10096.837931647717</v>
+        <v>10803.616586863056</v>
       </c>
       <c r="F47" s="5">
+        <f t="shared" si="2"/>
+        <v>1749600</v>
+      </c>
+      <c r="G47" s="5">
         <f t="shared" si="3"/>
-        <v>302.90513794943149</v>
-      </c>
-      <c r="G47" s="5">
+        <v>46</v>
+      </c>
+      <c r="H47" s="5">
         <f t="shared" si="4"/>
-        <v>0.21035079024266076</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3.45</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4665,29 +4856,33 @@
       </c>
       <c r="C48" s="5">
         <f t="shared" si="0"/>
-        <v>2333512.2667173827</v>
+        <v>2496858.1253875997</v>
       </c>
       <c r="D48" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B48 * 1.5) * (1 + I48 * 0.1)</f>
         <v>207</v>
       </c>
       <c r="E48" s="5">
         <f t="shared" si="8"/>
-        <v>11273.006119407646</v>
+        <v>12062.116547766182</v>
       </c>
       <c r="F48" s="5">
+        <f t="shared" si="2"/>
+        <v>1788480</v>
+      </c>
+      <c r="G48" s="5">
         <f t="shared" si="3"/>
-        <v>338.19018358222939</v>
-      </c>
-      <c r="G48" s="5">
+        <v>47</v>
+      </c>
+      <c r="H48" s="5">
         <f t="shared" si="4"/>
-        <v>0.23485429415432596</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3.5249999999999999</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4697,29 +4892,33 @@
       </c>
       <c r="C49" s="5">
         <f t="shared" si="0"/>
-        <v>2659623.5161958649</v>
+        <v>2845797.1623295755</v>
       </c>
       <c r="D49" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B49 * 1.5) * (1 + I49 * 0.1)</f>
         <v>211.5</v>
       </c>
       <c r="E49" s="5">
         <f t="shared" si="8"/>
-        <v>12575.052086032458</v>
+        <v>13455.30573205473</v>
       </c>
       <c r="F49" s="5">
+        <f t="shared" si="2"/>
+        <v>1827360</v>
+      </c>
+      <c r="G49" s="5">
         <f t="shared" si="3"/>
-        <v>377.25156258097371</v>
-      </c>
-      <c r="G49" s="5">
+        <v>48</v>
+      </c>
+      <c r="H49" s="5">
         <f t="shared" si="4"/>
-        <v>0.26198025179234286</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3.6</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4729,29 +4928,33 @@
       </c>
       <c r="C50" s="5">
         <f t="shared" si="0"/>
-        <v>3027366.0555692422</v>
+        <v>3239281.6794590885</v>
       </c>
       <c r="D50" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B50 * 1.5) * (1 + I50 * 0.1)</f>
         <v>216</v>
       </c>
       <c r="E50" s="5">
         <f t="shared" si="8"/>
-        <v>14015.583590598344</v>
+        <v>14996.674441940224</v>
       </c>
       <c r="F50" s="5">
+        <f t="shared" si="2"/>
+        <v>1866240</v>
+      </c>
+      <c r="G50" s="5">
         <f t="shared" si="3"/>
-        <v>420.4675077179503</v>
-      </c>
-      <c r="G50" s="5">
+        <v>49</v>
+      </c>
+      <c r="H50" s="5">
         <f t="shared" si="4"/>
-        <v>0.29199132480413215</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3.6749999999999998</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4761,29 +4964,33 @@
       </c>
       <c r="C51" s="5">
         <f t="shared" si="0"/>
-        <v>3441654.1946353852</v>
+        <v>3682569.9882598626</v>
       </c>
       <c r="D51" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B51 * 1.5) * (1 + I51 * 0.1)</f>
         <v>220.5</v>
       </c>
       <c r="E51" s="5">
         <f t="shared" si="8"/>
-        <v>15608.409045965465</v>
+        <v>16700.997679183052</v>
       </c>
       <c r="F51" s="5">
+        <f t="shared" si="2"/>
+        <v>1905120</v>
+      </c>
+      <c r="G51" s="5">
         <f t="shared" si="3"/>
-        <v>468.252271378964</v>
-      </c>
-      <c r="G51" s="5">
+        <v>50</v>
+      </c>
+      <c r="H51" s="5">
         <f t="shared" si="4"/>
-        <v>0.3251751884576139</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3.75</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4793,29 +5000,33 @@
       </c>
       <c r="C52" s="5">
         <f t="shared" si="0"/>
-        <v>3907945.6870174212</v>
+        <v>4181501.8851086413</v>
       </c>
       <c r="D52" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B52 * 1.5) * (1 + I52 * 0.1)</f>
         <v>225</v>
       </c>
       <c r="E52" s="5">
         <f t="shared" si="8"/>
-        <v>17368.647497855207</v>
+        <v>18584.452822705072</v>
       </c>
       <c r="F52" s="5">
+        <f t="shared" si="2"/>
+        <v>1944000</v>
+      </c>
+      <c r="G52" s="5">
         <f t="shared" si="3"/>
-        <v>521.05942493565624</v>
-      </c>
-      <c r="G52" s="5">
+        <v>51</v>
+      </c>
+      <c r="H52" s="5">
         <f t="shared" si="4"/>
-        <v>0.3618468228719835</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3.8250000000000002</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4825,29 +5036,33 @@
       </c>
       <c r="C53" s="5">
         <f t="shared" si="0"/>
-        <v>4432298.7019253802</v>
+        <v>4742559.6110601565</v>
       </c>
       <c r="D53" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B53 * 1.5) * (1 + I53 * 0.1)</f>
         <v>229.5</v>
       </c>
       <c r="E53" s="5">
         <f t="shared" si="8"/>
-        <v>19312.848374402529</v>
+        <v>20664.747760610702</v>
       </c>
       <c r="F53" s="5">
+        <f t="shared" si="2"/>
+        <v>1982880</v>
+      </c>
+      <c r="G53" s="5">
         <f t="shared" si="3"/>
-        <v>579.38545123207587</v>
-      </c>
-      <c r="G53" s="5">
+        <v>52</v>
+      </c>
+      <c r="H53" s="5">
         <f t="shared" si="4"/>
-        <v>0.40235100780005267</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3.9</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4857,29 +5072,33 @@
       </c>
       <c r="C54" s="5">
         <f t="shared" si="0"/>
-        <v>5021434.5136284158</v>
+        <v>5372934.9295824058</v>
       </c>
       <c r="D54" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B54 * 1.5) * (1 + I54 * 0.1)</f>
         <v>234</v>
       </c>
       <c r="E54" s="5">
         <f t="shared" si="8"/>
-        <v>21459.121853112887</v>
+        <v>22961.260382830795</v>
       </c>
       <c r="F54" s="5">
+        <f t="shared" si="2"/>
+        <v>2021760</v>
+      </c>
+      <c r="G54" s="5">
         <f t="shared" si="3"/>
-        <v>643.77365559338671</v>
-      </c>
-      <c r="G54" s="5">
+        <v>53</v>
+      </c>
+      <c r="H54" s="5">
         <f t="shared" si="4"/>
-        <v>0.44706503860651853</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3.9750000000000001</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4889,29 +5108,33 @@
       </c>
       <c r="C55" s="5">
         <f t="shared" si="0"/>
-        <v>5682806.4622391239</v>
+        <v>6080602.9145958619</v>
       </c>
       <c r="D55" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B55 * 1.5) * (1 + I55 * 0.1)</f>
         <v>238.5</v>
       </c>
       <c r="E55" s="5">
         <f t="shared" si="8"/>
-        <v>23827.28076410534</v>
+        <v>25495.190417592712</v>
       </c>
       <c r="F55" s="5">
+        <f t="shared" si="2"/>
+        <v>2060640</v>
+      </c>
+      <c r="G55" s="5">
         <f t="shared" si="3"/>
-        <v>714.81842292316026</v>
-      </c>
-      <c r="G55" s="5">
+        <v>54</v>
+      </c>
+      <c r="H55" s="5">
         <f t="shared" si="4"/>
-        <v>0.49640168258552797</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4.05</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4921,29 +5144,33 @@
       </c>
       <c r="C56" s="5">
         <f t="shared" si="0"/>
-        <v>6424675.7914363537</v>
+        <v>6874403.0968368985</v>
       </c>
       <c r="D56" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B56 * 1.5) * (1 + I56 * 0.1)</f>
         <v>243</v>
       </c>
       <c r="E56" s="5">
         <f t="shared" si="8"/>
-        <v>26438.995026487053</v>
+        <v>28289.724678341147</v>
       </c>
       <c r="F56" s="5">
+        <f t="shared" si="2"/>
+        <v>2099520</v>
+      </c>
+      <c r="G56" s="5">
         <f t="shared" si="3"/>
-        <v>793.16985079461165</v>
-      </c>
-      <c r="G56" s="5">
+        <v>55</v>
+      </c>
+      <c r="H56" s="5">
         <f t="shared" si="4"/>
-        <v>0.55081239638514701</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4.125</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4953,29 +5180,33 @@
       </c>
       <c r="C57" s="5">
         <f t="shared" si="0"/>
-        <v>7256195.025545774</v>
+        <v>7764128.677333978</v>
       </c>
       <c r="D57" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B57 * 1.5) * (1 + I57 * 0.1)</f>
         <v>247.5</v>
       </c>
       <c r="E57" s="5">
         <f t="shared" si="8"/>
-        <v>29317.959699174844</v>
+        <v>31370.216878117084</v>
       </c>
       <c r="F57" s="5">
+        <f t="shared" si="2"/>
+        <v>2138400</v>
+      </c>
+      <c r="G57" s="5">
         <f t="shared" si="3"/>
-        <v>879.53879097524532</v>
-      </c>
-      <c r="G57" s="5">
+        <v>56</v>
+      </c>
+      <c r="H57" s="5">
         <f t="shared" si="4"/>
-        <v>0.61079082706614263</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4.2</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4985,29 +5216,33 @@
       </c>
       <c r="C58" s="5">
         <f t="shared" si="0"/>
-        <v>8187499.6103858175</v>
+        <v>8760624.5831128247</v>
       </c>
       <c r="D58" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B58 * 1.5) * (1 + I58 * 0.1)</f>
         <v>252</v>
       </c>
       <c r="E58" s="5">
         <f t="shared" si="8"/>
-        <v>32490.07781899134</v>
+        <v>34764.383266320736</v>
       </c>
       <c r="F58" s="5">
+        <f t="shared" si="2"/>
+        <v>2177280</v>
+      </c>
+      <c r="G58" s="5">
         <f t="shared" si="3"/>
-        <v>974.70233456974029</v>
-      </c>
-      <c r="G58" s="5">
+        <v>57</v>
+      </c>
+      <c r="H58" s="5">
         <f t="shared" si="4"/>
-        <v>0.67687662122898629</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4.2750000000000004</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5017,29 +5252,33 @@
       </c>
       <c r="C59" s="5">
         <f t="shared" si="0"/>
-        <v>9229808.6099361591</v>
+        <v>9875895.2126316894</v>
       </c>
       <c r="D59" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B59 * 1.5) * (1 + I59 * 0.1)</f>
         <v>256.5</v>
       </c>
       <c r="E59" s="5">
         <f t="shared" si="8"/>
-        <v>35983.659297996724</v>
+        <v>38502.515448856488</v>
       </c>
       <c r="F59" s="5">
+        <f t="shared" si="2"/>
+        <v>2216160</v>
+      </c>
+      <c r="G59" s="5">
         <f t="shared" si="3"/>
-        <v>1079.5097789399017</v>
-      </c>
-      <c r="G59" s="5">
+        <v>58</v>
+      </c>
+      <c r="H59" s="5">
         <f t="shared" si="4"/>
-        <v>0.74965956870826511</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5049,29 +5288,33 @@
       </c>
       <c r="C60" s="5">
         <f t="shared" si="0"/>
-        <v>10395535.324702749</v>
+        <v>11123222.797431944</v>
       </c>
       <c r="D60" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B60 * 1.5) * (1 + I60 * 0.1)</f>
         <v>261</v>
       </c>
       <c r="E60" s="5">
         <f t="shared" si="8"/>
-        <v>39829.637259397503</v>
+        <v>42617.711867555343</v>
       </c>
       <c r="F60" s="5">
+        <f t="shared" si="2"/>
+        <v>2255040</v>
+      </c>
+      <c r="G60" s="5">
         <f t="shared" si="3"/>
-        <v>1194.8891177819251</v>
-      </c>
-      <c r="G60" s="5">
+        <v>59</v>
+      </c>
+      <c r="H60" s="5">
         <f t="shared" si="4"/>
-        <v>0.8297841095707813</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4.4249999999999998</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5081,29 +5324,33 @@
       </c>
       <c r="C61" s="5">
         <f t="shared" si="0"/>
-        <v>11698408.77818856</v>
+        <v>12517297.392661758</v>
       </c>
       <c r="D61" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B61 * 1.5) * (1 + I61 * 0.1)</f>
         <v>265.5</v>
       </c>
       <c r="E61" s="5">
         <f t="shared" si="8"/>
-        <v>44061.803307678194</v>
+        <v>47146.129539215661</v>
       </c>
       <c r="F61" s="5">
+        <f t="shared" si="2"/>
+        <v>2293920</v>
+      </c>
+      <c r="G61" s="5">
         <f t="shared" si="3"/>
-        <v>1321.8540992303458</v>
-      </c>
-      <c r="G61" s="5">
+        <v>60</v>
+      </c>
+      <c r="H61" s="5">
         <f t="shared" si="4"/>
-        <v>0.91795423557662903</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4.5</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5113,29 +5360,33 @@
       </c>
       <c r="C62" s="5">
         <f t="shared" si="0"/>
-        <v>13153607.10573177</v>
+        <v>14074359.603132995</v>
       </c>
       <c r="D62" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B62 * 1.5) * (1 + I62 * 0.1)</f>
         <v>270</v>
       </c>
       <c r="E62" s="5">
         <f t="shared" si="8"/>
-        <v>48717.063354562109</v>
+        <v>52127.25778938146</v>
       </c>
       <c r="F62" s="5">
+        <f t="shared" si="2"/>
+        <v>2332800</v>
+      </c>
+      <c r="G62" s="5">
         <f t="shared" si="3"/>
-        <v>1461.5119006368634</v>
-      </c>
-      <c r="G62" s="5">
+        <v>61</v>
+      </c>
+      <c r="H62" s="5">
         <f t="shared" si="4"/>
-        <v>1.0149388198867106</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4.5750000000000002</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5145,29 +5396,33 @@
       </c>
       <c r="C63" s="5">
         <f t="shared" si="0"/>
-        <v>14777903.975794848</v>
+        <v>15812357.254100485</v>
       </c>
       <c r="D63" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B63 * 1.5) * (1 + I63 * 0.1)</f>
         <v>274.5</v>
       </c>
       <c r="E63" s="5">
         <f t="shared" si="8"/>
-        <v>53835.715758815473</v>
+        <v>57604.215861932549</v>
       </c>
       <c r="F63" s="5">
+        <f t="shared" si="2"/>
+        <v>2371680</v>
+      </c>
+      <c r="G63" s="5">
         <f t="shared" si="3"/>
-        <v>1615.071472764464</v>
-      </c>
-      <c r="G63" s="5">
+        <v>62</v>
+      </c>
+      <c r="H63" s="5">
         <f t="shared" si="4"/>
-        <v>1.121577411641989</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5177,29 +5432,33 @@
       </c>
       <c r="C64" s="5">
         <f t="shared" si="0"/>
-        <v>16589829.278287491</v>
+        <v>17751117.327767622</v>
       </c>
       <c r="D64" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B64 * 1.5) * (1 + I64 * 0.1)</f>
         <v>279</v>
       </c>
       <c r="E64" s="5">
         <f t="shared" si="8"/>
-        <v>59461.753685618249</v>
+        <v>63624.07644361155</v>
       </c>
       <c r="F64" s="5">
+        <f t="shared" si="2"/>
+        <v>2410560</v>
+      </c>
+      <c r="G64" s="5">
         <f t="shared" si="3"/>
-        <v>1783.8526105685476</v>
-      </c>
-      <c r="G64" s="5">
+        <v>63</v>
+      </c>
+      <c r="H64" s="5">
         <f t="shared" si="4"/>
-        <v>1.2387865351170468</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4.7249999999999996</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5209,29 +5468,33 @@
       </c>
       <c r="C65" s="5">
         <f t="shared" si="0"/>
-        <v>18609845.428454667</v>
+        <v>19912534.608446494</v>
       </c>
       <c r="D65" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B65 * 1.5) * (1 + I65 * 0.1)</f>
         <v>283.5</v>
       </c>
       <c r="E65" s="5">
         <f t="shared" si="8"/>
-        <v>65643.193751162849</v>
+        <v>70238.217313744244</v>
       </c>
       <c r="F65" s="5">
+        <f t="shared" si="2"/>
+        <v>2449440</v>
+      </c>
+      <c r="G65" s="5">
         <f t="shared" si="3"/>
-        <v>1969.2958125348855</v>
-      </c>
-      <c r="G65" s="5">
+        <v>64</v>
+      </c>
+      <c r="H65" s="5">
         <f t="shared" si="4"/>
-        <v>1.3675665364825593</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4.8</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5241,29 +5504,33 @@
       </c>
       <c r="C66" s="5">
         <f t="shared" si="0"/>
-        <v>20860540.759095605</v>
+        <v>22320778.612232301</v>
       </c>
       <c r="D66" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> (3 * B66 * 1.5) * (1 + I66 * 0.1)</f>
         <v>288</v>
       </c>
       <c r="E66" s="5">
         <f t="shared" si="8"/>
-        <v>72432.433191304182</v>
+        <v>77502.703514695488</v>
       </c>
       <c r="F66" s="5">
+        <f t="shared" si="2"/>
+        <v>2488320</v>
+      </c>
+      <c r="G66" s="5">
         <f t="shared" si="3"/>
-        <v>2172.9729957391255</v>
-      </c>
-      <c r="G66" s="5">
+        <v>65</v>
+      </c>
+      <c r="H66" s="5">
         <f t="shared" si="4"/>
-        <v>1.5090090248188373</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4.875</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5272,30 +5539,34 @@
         <v>65</v>
       </c>
       <c r="C67" s="5">
-        <f t="shared" ref="C67:C101" si="9" xml:space="preserve"> (15 + (A67 ^ 3)) * (1.07 ^ (A67 - 1))</f>
-        <v>23366841.609312266</v>
+        <f t="shared" ref="C67:C101" si="9" xml:space="preserve"> (15 + (A67 ^ 3)) * (1.07 ^ (A67))</f>
+        <v>25002520.521964125</v>
       </c>
       <c r="D67" s="5">
-        <f t="shared" ref="D67:D101" si="10" xml:space="preserve"> (3 * B67 * 1.5) * (1 + H67 * 0.1)</f>
+        <f xml:space="preserve"> (3 * B67 * 1.5) * (1 + I67 * 0.1)</f>
         <v>292.5</v>
       </c>
       <c r="E67" s="5">
         <f t="shared" si="8"/>
-        <v>79886.637980554762</v>
+        <v>85478.702639193594</v>
       </c>
       <c r="F67" s="5">
-        <f t="shared" ref="F67:F101" si="11">((E67) /60) * 1.8</f>
-        <v>2396.5991394166431</v>
+        <f t="shared" ref="F67:F101" si="10">((D67)*86400)*0.1</f>
+        <v>2527200</v>
       </c>
       <c r="G67" s="5">
-        <f t="shared" ref="G67:G101" si="12">F67 / 1440</f>
-        <v>1.6643049579282243</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ref="G67:G101" si="11">A67</f>
+        <v>66</v>
+      </c>
+      <c r="H67" s="5">
+        <f t="shared" ref="H67:H101" si="12">(G67*3)/40</f>
+        <v>4.95</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5305,29 +5576,33 @@
       </c>
       <c r="C68" s="5">
         <f t="shared" si="9"/>
-        <v>26156244.865606274</v>
+        <v>27987182.006198712</v>
       </c>
       <c r="D68" s="5">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> (3 * B68 * 1.5) * (1 + I68 * 0.1)</f>
         <v>297</v>
       </c>
       <c r="E68" s="5">
         <f t="shared" si="8"/>
-        <v>88068.164530660855</v>
+        <v>94232.936047807103</v>
       </c>
       <c r="F68" s="5">
+        <f t="shared" si="10"/>
+        <v>2566080</v>
+      </c>
+      <c r="G68" s="5">
         <f t="shared" si="11"/>
-        <v>2642.044935919826</v>
-      </c>
-      <c r="G68" s="5">
+        <v>67</v>
+      </c>
+      <c r="H68" s="5">
         <f t="shared" si="12"/>
-        <v>1.8347534277221014</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5.0250000000000004</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5337,29 +5612,33 @@
       </c>
       <c r="C69" s="5">
         <f t="shared" si="9"/>
-        <v>29259072.872029092</v>
+        <v>31307207.973071128</v>
       </c>
       <c r="D69" s="5">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> (3 * B69 * 1.5) * (1 + I69 * 0.1)</f>
         <v>301.5</v>
       </c>
       <c r="E69" s="5">
         <f t="shared" si="8"/>
-        <v>97045.017817675267</v>
+        <v>103838.16906491254</v>
       </c>
       <c r="F69" s="5">
+        <f t="shared" si="10"/>
+        <v>2604960</v>
+      </c>
+      <c r="G69" s="5">
         <f t="shared" si="11"/>
-        <v>2911.3505345302583</v>
-      </c>
-      <c r="G69" s="5">
+        <v>68</v>
+      </c>
+      <c r="H69" s="5">
         <f t="shared" si="12"/>
-        <v>2.0217712045349017</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5369,29 +5648,33 @@
       </c>
       <c r="C70" s="5">
         <f t="shared" si="9"/>
-        <v>32708752.801410794</v>
+        <v>34998365.497509554</v>
       </c>
       <c r="D70" s="5">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> (3 * B70 * 1.5) * (1 + I70 * 0.1)</f>
         <v>306</v>
       </c>
       <c r="E70" s="5">
         <f t="shared" si="8"/>
-        <v>106891.34902421829</v>
+        <v>114373.74345591357</v>
       </c>
       <c r="F70" s="5">
+        <f t="shared" si="10"/>
+        <v>2643840</v>
+      </c>
+      <c r="G70" s="5">
         <f t="shared" si="11"/>
-        <v>3206.7404707265487</v>
-      </c>
-      <c r="G70" s="5">
+        <v>69</v>
+      </c>
+      <c r="H70" s="5">
         <f t="shared" si="12"/>
-        <v>2.2269031046712144</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5.1749999999999998</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5401,29 +5684,33 @@
       </c>
       <c r="C71" s="5">
         <f t="shared" si="9"/>
-        <v>36542122.770720676</v>
+        <v>39100071.364671119</v>
       </c>
       <c r="D71" s="5">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> (3 * B71 * 1.5) * (1 + I71 * 0.1)</f>
         <v>310.5</v>
       </c>
       <c r="E71" s="5">
         <f t="shared" si="8"/>
-        <v>117687.99604096836</v>
+        <v>125926.15576383613</v>
       </c>
       <c r="F71" s="5">
+        <f t="shared" si="10"/>
+        <v>2682720</v>
+      </c>
+      <c r="G71" s="5">
         <f t="shared" si="11"/>
-        <v>3530.6398812290504</v>
-      </c>
-      <c r="G71" s="5">
+        <v>70</v>
+      </c>
+      <c r="H71" s="5">
         <f t="shared" si="12"/>
-        <v>2.451833250853507</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5.25</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5433,29 +5720,33 @@
       </c>
       <c r="C72" s="5">
         <f t="shared" si="9"/>
-        <v>40799767.19173003</v>
+        <v>43655750.895151131</v>
       </c>
       <c r="D72" s="5">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> (3 * B72 * 1.5) * (1 + I72 * 0.1)</f>
         <v>315</v>
       </c>
       <c r="E72" s="5">
         <f t="shared" si="8"/>
-        <v>129523.0704499366</v>
+        <v>138589.68538143215</v>
       </c>
       <c r="F72" s="5">
+        <f t="shared" si="10"/>
+        <v>2721600</v>
+      </c>
+      <c r="G72" s="5">
         <f t="shared" si="11"/>
-        <v>3885.692113498098</v>
-      </c>
-      <c r="G72" s="5">
+        <v>71</v>
+      </c>
+      <c r="H72" s="5">
         <f t="shared" si="12"/>
-        <v>2.6983973010403459</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5.3250000000000002</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5465,29 +5756,33 @@
       </c>
       <c r="C73" s="5">
         <f t="shared" si="9"/>
-        <v>45526384.074855685</v>
+        <v>48713230.960095584</v>
       </c>
       <c r="D73" s="5">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> (3 * B73 * 1.5) * (1 + I73 * 0.1)</f>
         <v>319.5</v>
       </c>
       <c r="E73" s="5">
         <f t="shared" si="8"/>
-        <v>142492.59491347632</v>
+        <v>152467.07655741967</v>
       </c>
       <c r="F73" s="5">
+        <f t="shared" si="10"/>
+        <v>2760480</v>
+      </c>
+      <c r="G73" s="5">
         <f t="shared" si="11"/>
-        <v>4274.7778474042898</v>
-      </c>
-      <c r="G73" s="5">
+        <v>72</v>
+      </c>
+      <c r="H73" s="5">
         <f t="shared" si="12"/>
-        <v>2.9685957273640899</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5.4</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5497,29 +5792,33 @@
       </c>
       <c r="C74" s="5">
         <f t="shared" si="9"/>
-        <v>50771187.250994354</v>
+        <v>54325170.358563967</v>
       </c>
       <c r="D74" s="5">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> (3 * B74 * 1.5) * (1 + I74 * 0.1)</f>
         <v>324</v>
       </c>
       <c r="E74" s="5">
         <f t="shared" si="8"/>
-        <v>156701.19521911838</v>
+        <v>167670.2788844567</v>
       </c>
       <c r="F74" s="5">
+        <f t="shared" si="10"/>
+        <v>2799360</v>
+      </c>
+      <c r="G74" s="5">
         <f t="shared" si="11"/>
-        <v>4701.0358565735514</v>
-      </c>
-      <c r="G74" s="5">
+        <v>73</v>
+      </c>
+      <c r="H74" s="5">
         <f t="shared" si="12"/>
-        <v>3.2646082337316331</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5.4749999999999996</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5529,29 +5828,33 @@
       </c>
       <c r="C75" s="5">
         <f t="shared" si="9"/>
-        <v>56588346.7450855</v>
+        <v>60549531.017241485</v>
       </c>
       <c r="D75" s="5">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> (3 * B75 * 1.5) * (1 + I75 * 0.1)</f>
         <v>328.5</v>
       </c>
       <c r="E75" s="5">
         <f t="shared" si="8"/>
-        <v>172262.85158321308</v>
+        <v>184321.25119403802</v>
       </c>
       <c r="F75" s="5">
+        <f t="shared" si="10"/>
+        <v>2838240</v>
+      </c>
+      <c r="G75" s="5">
         <f t="shared" si="11"/>
-        <v>5167.885547496393</v>
-      </c>
-      <c r="G75" s="5">
+        <v>74</v>
+      </c>
+      <c r="H75" s="5">
         <f t="shared" si="12"/>
-        <v>3.5888094079836064</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5.55</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5561,29 +5864,33 @@
       </c>
       <c r="C76" s="5">
         <f t="shared" si="9"/>
-        <v>63037470.82799042</v>
+        <v>67450093.785949767</v>
       </c>
       <c r="D76" s="5">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> (3 * B76 * 1.5) * (1 + I76 * 0.1)</f>
         <v>333</v>
       </c>
       <c r="E76" s="5">
         <f t="shared" si="8"/>
-        <v>189301.71419816944</v>
+        <v>202552.83419204134</v>
       </c>
       <c r="F76" s="5">
+        <f t="shared" si="10"/>
+        <v>2877120</v>
+      </c>
+      <c r="G76" s="5">
         <f t="shared" si="11"/>
-        <v>5679.0514259450838</v>
-      </c>
-      <c r="G76" s="5">
+        <v>75</v>
+      </c>
+      <c r="H76" s="5">
         <f t="shared" si="12"/>
-        <v>3.9437857124618638</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5.625</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5593,29 +5900,33 @@
       </c>
       <c r="C77" s="5">
         <f t="shared" si="9"/>
-        <v>70184133.592139825</v>
+        <v>75097022.943589598</v>
       </c>
       <c r="D77" s="5">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> (3 * B77 * 1.5) * (1 + I77 * 0.1)</f>
         <v>337.5</v>
       </c>
       <c r="E77" s="5">
         <f t="shared" si="8"/>
-        <v>207952.98842115502</v>
+        <v>222509.69761063583</v>
       </c>
       <c r="F77" s="5">
+        <f t="shared" si="10"/>
+        <v>2916000</v>
+      </c>
+      <c r="G77" s="5">
         <f t="shared" si="11"/>
-        <v>6238.5896526346505</v>
-      </c>
-      <c r="G77" s="5">
+        <v>76</v>
+      </c>
+      <c r="H77" s="5">
         <f t="shared" si="12"/>
-        <v>4.3323539254407297</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5.7</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5625,29 +5936,33 @@
       </c>
       <c r="C78" s="5">
         <f t="shared" si="9"/>
-        <v>78100452.243553832</v>
+        <v>83567483.900602609</v>
       </c>
       <c r="D78" s="5">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> (3 * B78 * 1.5) * (1 + I78 * 0.1)</f>
         <v>342</v>
       </c>
       <c r="E78" s="5">
         <f t="shared" si="8"/>
-        <v>228363.89544898781</v>
+        <v>244349.36813041699</v>
       </c>
       <c r="F78" s="5">
+        <f t="shared" si="10"/>
+        <v>2954880</v>
+      </c>
+      <c r="G78" s="5">
         <f t="shared" si="11"/>
-        <v>6850.9168634696343</v>
-      </c>
-      <c r="G78" s="5">
+        <v>77</v>
+      </c>
+      <c r="H78" s="5">
         <f t="shared" si="12"/>
-        <v>4.7575811551872462</v>
-      </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5.7750000000000004</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5657,29 +5972,33 @@
       </c>
       <c r="C79" s="5">
         <f t="shared" si="9"/>
-        <v>86865718.680746123</v>
+        <v>92946318.988398343</v>
       </c>
       <c r="D79" s="5">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> (3 * B79 * 1.5) * (1 + I79 * 0.1)</f>
         <v>346.5</v>
       </c>
       <c r="E79" s="5">
         <f t="shared" si="8"/>
-        <v>250694.71480734812</v>
+        <v>268243.34484386246</v>
       </c>
       <c r="F79" s="5">
+        <f t="shared" si="10"/>
+        <v>2993760</v>
+      </c>
+      <c r="G79" s="5">
         <f t="shared" si="11"/>
-        <v>7520.8414442204439</v>
-      </c>
-      <c r="G79" s="5">
+        <v>78</v>
+      </c>
+      <c r="H79" s="5">
         <f t="shared" si="12"/>
-        <v>5.2228065584864192</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5.85</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5689,29 +6008,33 @@
       </c>
       <c r="C80" s="5">
         <f t="shared" si="9"/>
-        <v>96567090.342366323</v>
+        <v>103326786.66633198</v>
       </c>
       <c r="D80" s="5">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> (3 * B80 * 1.5) * (1 + I80 * 0.1)</f>
         <v>351</v>
       </c>
       <c r="E80" s="5">
         <f t="shared" si="8"/>
-        <v>275119.91550531716</v>
+        <v>294378.30959068937</v>
       </c>
       <c r="F80" s="5">
+        <f t="shared" si="10"/>
+        <v>3032640</v>
+      </c>
+      <c r="G80" s="5">
         <f t="shared" si="11"/>
-        <v>8253.5974651595134</v>
-      </c>
-      <c r="G80" s="5">
+        <v>79</v>
+      </c>
+      <c r="H80" s="5">
         <f t="shared" si="12"/>
-        <v>5.7316649063607734</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5.9249999999999998</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5721,29 +6044,33 @@
       </c>
       <c r="C81" s="5">
         <f t="shared" si="9"/>
-        <v>107300345.75312637</v>
+        <v>114811369.95584519</v>
       </c>
       <c r="D81" s="5">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> (3 * B81 * 1.5) * (1 + I81 * 0.1)</f>
         <v>355.5</v>
       </c>
       <c r="E81" s="5">
         <f t="shared" si="8"/>
-        <v>301829.38327180414</v>
+        <v>322957.44010083034</v>
       </c>
       <c r="F81" s="5">
+        <f t="shared" si="10"/>
+        <v>3071520</v>
+      </c>
+      <c r="G81" s="5">
         <f t="shared" si="11"/>
-        <v>9054.8814981541236</v>
-      </c>
-      <c r="G81" s="5">
+        <v>80</v>
+      </c>
+      <c r="H81" s="5">
         <f t="shared" si="12"/>
-        <v>6.2881121514959188</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5753,29 +6080,33 @@
       </c>
       <c r="C82" s="5">
         <f t="shared" si="9"/>
-        <v>119170710.68475272</v>
+        <v>127512660.43268541</v>
       </c>
       <c r="D82" s="5">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> (3 * B82 * 1.5) * (1 + I82 * 0.1)</f>
         <v>360</v>
       </c>
       <c r="E82" s="5">
         <f t="shared" si="8"/>
-        <v>331029.75190209091</v>
+        <v>354201.83453523723</v>
       </c>
       <c r="F82" s="5">
+        <f t="shared" si="10"/>
+        <v>3110400</v>
+      </c>
+      <c r="G82" s="5">
         <f t="shared" si="11"/>
-        <v>9930.8925570627271</v>
-      </c>
-      <c r="G82" s="5">
+        <v>81</v>
+      </c>
+      <c r="H82" s="5">
         <f t="shared" si="12"/>
-        <v>6.8964531646268936</v>
-      </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6.0750000000000002</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5785,29 +6116,33 @@
       </c>
       <c r="C83" s="5">
         <f t="shared" si="9"/>
-        <v>132293761.37884487</v>
+        <v>141554324.67536402</v>
       </c>
       <c r="D83" s="5">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> (3 * B83 * 1.5) * (1 + I83 * 0.1)</f>
         <v>364.5</v>
       </c>
       <c r="E83" s="5">
         <f t="shared" si="8"/>
-        <v>362945.84740423836</v>
+        <v>388352.05672253505</v>
       </c>
       <c r="F83" s="5">
+        <f t="shared" si="10"/>
+        <v>3149280</v>
+      </c>
+      <c r="G83" s="5">
         <f t="shared" si="11"/>
-        <v>10888.37542212715</v>
-      </c>
-      <c r="G83" s="5">
+        <v>82</v>
+      </c>
+      <c r="H83" s="5">
         <f t="shared" si="12"/>
-        <v>7.5613718209216323</v>
-      </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6.15</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5817,29 +6152,33 @@
       </c>
       <c r="C84" s="5">
         <f t="shared" si="9"/>
-        <v>146796411.85532108</v>
+        <v>157072160.68519354</v>
       </c>
       <c r="D84" s="5">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> (3 * B84 * 1.5) * (1 + I84 * 0.1)</f>
         <v>369</v>
       </c>
       <c r="E84" s="5">
         <f t="shared" si="8"/>
-        <v>397822.25435046363</v>
+        <v>425669.81215499603</v>
       </c>
       <c r="F84" s="5">
+        <f t="shared" si="10"/>
+        <v>3188160</v>
+      </c>
+      <c r="G84" s="5">
         <f t="shared" si="11"/>
-        <v>11934.66763051391</v>
-      </c>
-      <c r="G84" s="5">
+        <v>83</v>
+      </c>
+      <c r="H84" s="5">
         <f t="shared" si="12"/>
-        <v>8.2879636323013255</v>
-      </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6.2249999999999996</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5849,29 +6188,33 @@
       </c>
       <c r="C85" s="5">
         <f t="shared" si="9"/>
-        <v>162817992.95764482</v>
+        <v>174215252.46467996</v>
       </c>
       <c r="D85" s="5">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> (3 * B85 * 1.5) * (1 + I85 * 0.1)</f>
         <v>373.5</v>
       </c>
       <c r="E85" s="5">
         <f t="shared" si="8"/>
-        <v>435925.01461216819</v>
+        <v>466439.76563501998</v>
       </c>
       <c r="F85" s="5">
+        <f t="shared" si="10"/>
+        <v>3227040</v>
+      </c>
+      <c r="G85" s="5">
         <f t="shared" si="11"/>
-        <v>13077.750438365047</v>
-      </c>
-      <c r="G85" s="5">
+        <v>84</v>
+      </c>
+      <c r="H85" s="5">
         <f t="shared" si="12"/>
-        <v>9.0817711377535044</v>
-      </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6.3</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5881,29 +6224,33 @@
       </c>
       <c r="C86" s="5">
         <f t="shared" si="9"/>
-        <v>180511431.46863613</v>
+        <v>193147231.67144069</v>
       </c>
       <c r="D86" s="5">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> (3 * B86 * 1.5) * (1 + I86 * 0.1)</f>
         <v>378</v>
       </c>
       <c r="E86" s="5">
         <f t="shared" si="8"/>
-        <v>477543.46949374635</v>
+        <v>510971.51235830871</v>
       </c>
       <c r="F86" s="5">
+        <f t="shared" si="10"/>
+        <v>3265920</v>
+      </c>
+      <c r="G86" s="5">
         <f t="shared" si="11"/>
-        <v>14326.304084812391</v>
-      </c>
-      <c r="G86" s="5">
+        <v>85</v>
+      </c>
+      <c r="H86" s="5">
         <f t="shared" si="12"/>
-        <v>9.9488222811197158</v>
-      </c>
-      <c r="H86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6.375</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5913,29 +6260,33 @@
       </c>
       <c r="C87" s="5">
         <f t="shared" si="9"/>
-        <v>200044538.37314773</v>
+        <v>214047656.05926809</v>
       </c>
       <c r="D87" s="5">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> (3 * B87 * 1.5) * (1 + I87 * 0.1)</f>
         <v>382.5</v>
       </c>
       <c r="E87" s="5">
         <f t="shared" si="8"/>
-        <v>522992.25718469993</v>
+        <v>559601.71518762899</v>
       </c>
       <c r="F87" s="5">
+        <f t="shared" si="10"/>
+        <v>3304800</v>
+      </c>
+      <c r="G87" s="5">
         <f t="shared" si="11"/>
-        <v>15689.767715540998</v>
-      </c>
-      <c r="G87" s="5">
+        <v>86</v>
+      </c>
+      <c r="H87" s="5">
         <f t="shared" si="12"/>
-        <v>10.895672024681248</v>
-      </c>
-      <c r="H87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6.45</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5945,29 +6296,33 @@
       </c>
       <c r="C88" s="5">
         <f t="shared" si="9"/>
-        <v>221601416.15139991</v>
+        <v>237113515.28199792</v>
       </c>
       <c r="D88" s="5">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> (3 * B88 * 1.5) * (1 + I88 * 0.1)</f>
         <v>387</v>
       </c>
       <c r="E88" s="5">
         <f t="shared" si="8"/>
-        <v>572613.47842738999</v>
+        <v>612696.42191730731</v>
       </c>
       <c r="F88" s="5">
+        <f t="shared" si="10"/>
+        <v>3343680</v>
+      </c>
+      <c r="G88" s="5">
         <f t="shared" si="11"/>
-        <v>17178.404352821701</v>
-      </c>
-      <c r="G88" s="5">
+        <v>87</v>
+      </c>
+      <c r="H88" s="5">
         <f t="shared" si="12"/>
-        <v>11.929447467237292</v>
-      </c>
-      <c r="H88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6.5250000000000004</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5977,29 +6332,33 @@
       </c>
       <c r="C89" s="5">
         <f t="shared" si="9"/>
-        <v>245383995.86493143</v>
+        <v>262560875.57547665</v>
       </c>
       <c r="D89" s="5">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> (3 * B89 * 1.5) * (1 + I89 * 0.1)</f>
         <v>391.5</v>
       </c>
       <c r="E89" s="5">
         <f t="shared" si="8"/>
-        <v>626779.04435486952</v>
+        <v>670653.57745971042</v>
       </c>
       <c r="F89" s="5">
+        <f t="shared" si="10"/>
+        <v>3382560</v>
+      </c>
+      <c r="G89" s="5">
         <f t="shared" si="11"/>
-        <v>18803.371330646085</v>
-      </c>
-      <c r="G89" s="5">
+        <v>88</v>
+      </c>
+      <c r="H89" s="5">
         <f t="shared" si="12"/>
-        <v>13.057896757393115</v>
-      </c>
-      <c r="H89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6.6</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6009,29 +6368,33 @@
       </c>
       <c r="C90" s="5">
         <f t="shared" si="9"/>
-        <v>271613715.75202727</v>
+        <v>290626675.85466921</v>
       </c>
       <c r="D90" s="5">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> (3 * B90 * 1.5) * (1 + I90 * 0.1)</f>
         <v>396</v>
       </c>
       <c r="E90" s="5">
         <f t="shared" si="8"/>
-        <v>685893.22159602842</v>
+        <v>733905.7471077505</v>
       </c>
       <c r="F90" s="5">
+        <f t="shared" si="10"/>
+        <v>3421440</v>
+      </c>
+      <c r="G90" s="5">
         <f t="shared" si="11"/>
-        <v>20576.796647880852</v>
-      </c>
-      <c r="G90" s="5">
+        <v>89</v>
+      </c>
+      <c r="H90" s="5">
         <f t="shared" si="12"/>
-        <v>14.289442116583926</v>
-      </c>
-      <c r="H90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6.6749999999999998</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6041,29 +6404,33 @@
       </c>
       <c r="C91" s="5">
         <f t="shared" si="9"/>
-        <v>300533354.08774054</v>
+        <v>321570688.87388235</v>
       </c>
       <c r="D91" s="5">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> (3 * B91 * 1.5) * (1 + I91 * 0.1)</f>
         <v>400.5</v>
       </c>
       <c r="E91" s="5">
         <f t="shared" ref="E91:E99" si="14">C91 / D91</f>
-        <v>750395.39098062553</v>
+        <v>802923.06834926934</v>
       </c>
       <c r="F91" s="5">
+        <f t="shared" si="10"/>
+        <v>3460320</v>
+      </c>
+      <c r="G91" s="5">
         <f t="shared" si="11"/>
-        <v>22511.861729418764</v>
-      </c>
-      <c r="G91" s="5">
+        <v>90</v>
+      </c>
+      <c r="H91" s="5">
         <f t="shared" si="12"/>
-        <v>15.633237312096364</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6.75</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6073,29 +6440,33 @@
       </c>
       <c r="C92" s="5">
         <f t="shared" si="9"/>
-        <v>332409030.19240141</v>
+        <v>355677662.30586958</v>
       </c>
       <c r="D92" s="5">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> (3 * B92 * 1.5) * (1 + I92 * 0.1)</f>
         <v>405</v>
       </c>
       <c r="E92" s="5">
         <f t="shared" si="14"/>
-        <v>820763.03751210228</v>
+        <v>878216.45013794955</v>
       </c>
       <c r="F92" s="5">
+        <f t="shared" si="10"/>
+        <v>3499200</v>
+      </c>
+      <c r="G92" s="5">
         <f t="shared" si="11"/>
-        <v>24622.891125363069</v>
-      </c>
-      <c r="G92" s="5">
+        <v>91</v>
+      </c>
+      <c r="H92" s="5">
         <f t="shared" si="12"/>
-        <v>17.099229948168798</v>
-      </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6.8250000000000002</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6105,29 +6476,33 @@
       </c>
       <c r="C93" s="5">
         <f t="shared" si="9"/>
-        <v>367532388.69958776</v>
+        <v>393259655.90855885</v>
       </c>
       <c r="D93" s="5">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> (3 * B93 * 1.5) * (1 + I93 * 0.1)</f>
         <v>409.5</v>
       </c>
       <c r="E93" s="5">
         <f t="shared" si="14"/>
-        <v>897514.99071938405</v>
+        <v>960341.04006974073</v>
       </c>
       <c r="F93" s="5">
+        <f t="shared" si="10"/>
+        <v>3538080</v>
+      </c>
+      <c r="G93" s="5">
         <f t="shared" si="11"/>
-        <v>26925.449721581524</v>
-      </c>
-      <c r="G93" s="5">
+        <v>92</v>
+      </c>
+      <c r="H93" s="5">
         <f t="shared" si="12"/>
-        <v>18.698228973320504</v>
-      </c>
-      <c r="H93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6.9</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6137,29 +6512,33 @@
       </c>
       <c r="C94" s="5">
         <f t="shared" si="9"/>
-        <v>406222983.52835327</v>
+        <v>434658592.37533802</v>
       </c>
       <c r="D94" s="5">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> (3 * B94 * 1.5) * (1 + I94 * 0.1)</f>
         <v>414</v>
       </c>
       <c r="E94" s="5">
         <f t="shared" si="14"/>
-        <v>981214.9360588243</v>
+        <v>1049899.9815829422</v>
       </c>
       <c r="F94" s="5">
+        <f t="shared" si="10"/>
+        <v>3576960</v>
+      </c>
+      <c r="G94" s="5">
         <f t="shared" si="11"/>
-        <v>29436.448081764731</v>
-      </c>
-      <c r="G94" s="5">
+        <v>93</v>
+      </c>
+      <c r="H94" s="5">
         <f t="shared" si="12"/>
-        <v>20.441977834558841</v>
-      </c>
-      <c r="H94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6.9749999999999996</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6169,29 +6548,33 @@
       </c>
       <c r="C95" s="5">
         <f t="shared" si="9"/>
-        <v>448830879.45423681</v>
+        <v>480249041.01603335</v>
       </c>
       <c r="D95" s="5">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> (3 * B95 * 1.5) * (1 + I95 * 0.1)</f>
         <v>418.5</v>
       </c>
       <c r="E95" s="5">
         <f t="shared" si="14"/>
-        <v>1072475.2197233855</v>
+        <v>1147548.4851040223</v>
       </c>
       <c r="F95" s="5">
+        <f t="shared" si="10"/>
+        <v>3615840</v>
+      </c>
+      <c r="G95" s="5">
         <f t="shared" si="11"/>
-        <v>32174.256591701567</v>
-      </c>
-      <c r="G95" s="5">
+        <v>94</v>
+      </c>
+      <c r="H95" s="5">
         <f t="shared" si="12"/>
-        <v>22.3432337442372</v>
-      </c>
-      <c r="H95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7.05</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6201,29 +6584,33 @@
       </c>
       <c r="C96" s="5">
         <f t="shared" si="9"/>
-        <v>495739490.74913025</v>
+        <v>530441255.10156959</v>
       </c>
       <c r="D96" s="5">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> (3 * B96 * 1.5) * (1 + I96 * 0.1)</f>
         <v>423</v>
       </c>
       <c r="E96" s="5">
         <f t="shared" si="14"/>
-        <v>1171960.9710381329</v>
+        <v>1253998.2390108029</v>
       </c>
       <c r="F96" s="5">
+        <f t="shared" si="10"/>
+        <v>3654720</v>
+      </c>
+      <c r="G96" s="5">
         <f t="shared" si="11"/>
-        <v>35158.82913114399</v>
-      </c>
-      <c r="G96" s="5">
+        <v>95</v>
+      </c>
+      <c r="H96" s="5">
         <f t="shared" si="12"/>
-        <v>24.415853563294437</v>
-      </c>
-      <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7.125</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6233,29 +6620,33 @@
       </c>
       <c r="C97" s="5">
         <f t="shared" si="9"/>
-        <v>547368678.07225275</v>
+        <v>585684485.53731024</v>
       </c>
       <c r="D97" s="5">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> (3 * B97 * 1.5) * (1 + I97 * 0.1)</f>
         <v>427.5</v>
       </c>
       <c r="E97" s="5">
         <f t="shared" si="14"/>
-        <v>1280394.568590065</v>
+        <v>1370022.1883913691</v>
       </c>
       <c r="F97" s="5">
+        <f t="shared" si="10"/>
+        <v>3693600</v>
+      </c>
+      <c r="G97" s="5">
         <f t="shared" si="11"/>
-        <v>38411.837057701952</v>
-      </c>
-      <c r="G97" s="5">
+        <v>96</v>
+      </c>
+      <c r="H97" s="5">
         <f t="shared" si="12"/>
-        <v>26.674886845626357</v>
-      </c>
-      <c r="H97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7.2</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6265,29 +6656,33 @@
       </c>
       <c r="C98" s="5">
         <f t="shared" si="9"/>
-        <v>604178126.65493071</v>
+        <v>646470595.52077591</v>
       </c>
       <c r="D98" s="5">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> (3 * B98 * 1.5) * (1 + I98 * 0.1)</f>
         <v>432</v>
       </c>
       <c r="E98" s="5">
         <f t="shared" si="14"/>
-        <v>1398560.4783678951</v>
+        <v>1496459.7118536478</v>
       </c>
       <c r="F98" s="5">
+        <f t="shared" si="10"/>
+        <v>3732480</v>
+      </c>
+      <c r="G98" s="5">
         <f t="shared" si="11"/>
-        <v>41956.814351036854</v>
-      </c>
-      <c r="G98" s="5">
+        <v>97</v>
+      </c>
+      <c r="H98" s="5">
         <f t="shared" si="12"/>
-        <v>29.136676632664482</v>
-      </c>
-      <c r="H98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7.2750000000000004</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6297,29 +6692,33 @@
       </c>
       <c r="C99" s="5">
         <f t="shared" si="9"/>
-        <v>666671030.84331441</v>
+        <v>713338003.00234652</v>
       </c>
       <c r="D99" s="5">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> (3 * B99 * 1.5) * (1 + I99 * 0.1)</f>
         <v>436.5</v>
       </c>
       <c r="E99" s="5">
         <f t="shared" si="14"/>
-        <v>1527310.4944864018</v>
+        <v>1634222.2291004502</v>
       </c>
       <c r="F99" s="5">
+        <f t="shared" si="10"/>
+        <v>3771360</v>
+      </c>
+      <c r="G99" s="5">
         <f t="shared" si="11"/>
-        <v>45819.314834592056</v>
-      </c>
-      <c r="G99" s="5">
+        <v>98</v>
+      </c>
+      <c r="H99" s="5">
         <f t="shared" si="12"/>
-        <v>31.818968635133373</v>
-      </c>
-      <c r="H99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7.35</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6329,29 +6728,33 @@
       </c>
       <c r="C100" s="5">
         <f t="shared" si="9"/>
-        <v>735398112.25927854</v>
+        <v>786875980.11742806</v>
       </c>
       <c r="D100" s="5">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> (3 * B100 * 1.5) * (1 + I100 * 0.1)</f>
         <v>441</v>
       </c>
       <c r="E100" s="5">
         <f>C100 / D100</f>
-        <v>1667569.4155539195</v>
+        <v>1784299.274642694</v>
       </c>
       <c r="F100" s="5">
+        <f t="shared" si="10"/>
+        <v>3810240</v>
+      </c>
+      <c r="G100" s="5">
         <f t="shared" si="11"/>
-        <v>50027.082466617583</v>
-      </c>
-      <c r="G100" s="5">
+        <v>99</v>
+      </c>
+      <c r="H100" s="5">
         <f t="shared" si="12"/>
-        <v>34.741029490706651</v>
-      </c>
-      <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7.4249999999999998</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6361,29 +6764,33 @@
       </c>
       <c r="C101" s="5">
         <f t="shared" si="9"/>
-        <v>810962001.22551036</v>
+        <v>867729341.31129611</v>
       </c>
       <c r="D101" s="5">
-        <f t="shared" si="10"/>
+        <f xml:space="preserve"> (3 * B101 * 1.5) * (1 + I101 * 0.1)</f>
         <v>445.5</v>
       </c>
       <c r="E101" s="5">
         <f>C101 / D101</f>
-        <v>1820341.1924253879</v>
+        <v>1947765.0758951653</v>
       </c>
       <c r="F101" s="5">
+        <f t="shared" si="10"/>
+        <v>3849120</v>
+      </c>
+      <c r="G101" s="5">
         <f t="shared" si="11"/>
-        <v>54610.23577276164</v>
-      </c>
-      <c r="G101" s="5">
+        <v>100</v>
+      </c>
+      <c r="H101" s="5">
         <f t="shared" si="12"/>
-        <v>37.923774842195584</v>
-      </c>
-      <c r="H101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7.5</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D102" s="5"/>
     </row>
   </sheetData>

--- a/tools/luban/Datas/Enemys.xlsx
+++ b/tools/luban/Datas/Enemys.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7CE98B-5EAF-4C44-A495-73FFFE75BE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CE5ADF-CC5D-4FC2-8896-C370D2DF45B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enemy" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="144">
   <si>
     <t>##var</t>
   </si>
@@ -534,6 +534,56 @@
   <si>
     <t>挂机一天获得经验呢</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ent2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>树精1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>树精2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ent3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄鼠狼1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gnoll1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄鼠狼2</t>
+  </si>
+  <si>
+    <t>Gnoll2</t>
+  </si>
+  <si>
+    <t>黄鼠狼3</t>
+  </si>
+  <si>
+    <t>Gnoll3</t>
+  </si>
+  <si>
+    <t>萨提尔2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Satry2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨提尔3</t>
+  </si>
+  <si>
+    <t>Satry3</t>
   </si>
 </sst>
 </file>
@@ -916,12 +966,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="I25" sqref="E25:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1894,143 +1944,381 @@
     </row>
     <row r="19" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
+      <c r="B19" s="3">
+        <v>7015</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="3">
+        <v>100</v>
+      </c>
+      <c r="F19" s="3">
+        <v>360</v>
+      </c>
+      <c r="G19" s="3">
+        <v>125</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I19" s="3">
+        <v>40</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0</v>
+      </c>
+      <c r="P19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>0</v>
+      </c>
+      <c r="R19" s="3">
+        <v>600</v>
+      </c>
     </row>
     <row r="20" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
+      <c r="B20" s="3">
+        <v>7016</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>360</v>
+      </c>
+      <c r="G20" s="3">
+        <v>125</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I20" s="3">
+        <v>40</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>600</v>
+      </c>
     </row>
     <row r="21" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
+      <c r="B21" s="3">
+        <v>7017</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" s="3">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>360</v>
+      </c>
+      <c r="G21" s="3">
+        <v>125</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I21" s="3">
+        <v>40</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
+        <v>600</v>
+      </c>
     </row>
     <row r="22" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
+      <c r="B22" s="3">
+        <v>7018</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
+        <v>360</v>
+      </c>
+      <c r="G22" s="3">
+        <v>125</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I22" s="3">
+        <v>40</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>600</v>
+      </c>
     </row>
     <row r="23" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
+      <c r="B23" s="3">
+        <v>7019</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="3">
+        <v>100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>360</v>
+      </c>
+      <c r="G23" s="3">
+        <v>125</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I23" s="3">
+        <v>40</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>600</v>
+      </c>
     </row>
     <row r="24" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
+      <c r="B24" s="3">
+        <v>7020</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
+        <v>360</v>
+      </c>
+      <c r="G24" s="3">
+        <v>125</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I24" s="3">
+        <v>40</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>600</v>
+      </c>
     </row>
     <row r="25" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
+      <c r="B25" s="3">
+        <v>7021</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" s="3">
+        <v>100</v>
+      </c>
+      <c r="F25" s="3">
+        <v>360</v>
+      </c>
+      <c r="G25" s="3">
+        <v>125</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I25" s="3">
+        <v>40</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>600</v>
+      </c>
     </row>
     <row r="26" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
@@ -2051,6 +2339,246 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
+    </row>
+    <row r="27" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+    </row>
+    <row r="28" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+    </row>
+    <row r="29" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+    </row>
+    <row r="30" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+    </row>
+    <row r="31" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+    </row>
+    <row r="32" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+    </row>
+    <row r="33" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+    </row>
+    <row r="34" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+    </row>
+    <row r="35" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+    </row>
+    <row r="36" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+    </row>
+    <row r="37" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+    </row>
+    <row r="38" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3151,7 +3679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B0B6FF-1C2B-45C8-B2FD-5527B7888832}">
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
@@ -3204,7 +3732,7 @@
         <v>17.12</v>
       </c>
       <c r="D2" s="5">
-        <f xml:space="preserve"> (3 * B2 * 1.5) * (1 + I2 * 0.1)</f>
+        <f t="shared" ref="D2:D33" si="0" xml:space="preserve"> (3 * B2 * 1.5) * (1 + I2 * 0.1)</f>
         <v>4.5</v>
       </c>
       <c r="E2" s="5">
@@ -3235,27 +3763,27 @@
         <v>1</v>
       </c>
       <c r="C3" s="5">
-        <f t="shared" ref="C3:C66" si="0" xml:space="preserve"> (15 + (A3 ^ 3)) * (1.07 ^ (A3))</f>
+        <f t="shared" ref="C3:C66" si="1" xml:space="preserve"> (15 + (A3 ^ 3)) * (1.07 ^ (A3))</f>
         <v>26.332699999999999</v>
       </c>
       <c r="D3" s="5">
-        <f xml:space="preserve"> (3 * B3 * 1.5) * (1 + I3 * 0.1)</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" ref="E3:E10" si="1">C3 / D3</f>
+        <f t="shared" ref="E3:E10" si="2">C3 / D3</f>
         <v>5.8517111111111113</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" ref="F3:F66" si="2">((D3)*86400)*0.1</f>
+        <f t="shared" ref="F3:F66" si="3">((D3)*86400)*0.1</f>
         <v>38880</v>
       </c>
       <c r="G3" s="5">
-        <f t="shared" ref="G3:G66" si="3">A3</f>
+        <f t="shared" ref="G3:G66" si="4">A3</f>
         <v>2</v>
       </c>
       <c r="H3" s="5">
-        <f t="shared" ref="H3:H66" si="4">(G3*3)/40</f>
+        <f t="shared" ref="H3:H66" si="5">(G3*3)/40</f>
         <v>0.15</v>
       </c>
       <c r="I3">
@@ -3271,27 +3799,27 @@
         <v>2</v>
       </c>
       <c r="C4" s="5">
+        <f t="shared" si="1"/>
+        <v>51.451806000000005</v>
+      </c>
+      <c r="D4" s="5">
         <f t="shared" si="0"/>
-        <v>51.451806000000005</v>
-      </c>
-      <c r="D4" s="5">
-        <f xml:space="preserve"> (3 * B4 * 1.5) * (1 + I4 * 0.1)</f>
         <v>9</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.716867333333334</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>77760</v>
       </c>
       <c r="G4" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="H4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.22500000000000001</v>
       </c>
       <c r="I4">
@@ -3303,31 +3831,31 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:B26" si="5">A5-1</f>
+        <f t="shared" ref="B5:B26" si="6">A5-1</f>
         <v>3</v>
       </c>
       <c r="C5" s="5">
+        <f t="shared" si="1"/>
+        <v>103.55288479000001</v>
+      </c>
+      <c r="D5" s="5">
         <f t="shared" si="0"/>
-        <v>103.55288479000001</v>
-      </c>
-      <c r="D5" s="5">
-        <f xml:space="preserve"> (3 * B5 * 1.5) * (1 + I5 * 0.1)</f>
         <v>13.5</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.6705840585185188</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>116640</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="H5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
       <c r="I5">
@@ -3339,31 +3867,31 @@
         <v>5</v>
       </c>
       <c r="B6">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" si="1"/>
+        <v>196.35724229800002</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="2"/>
+        <v>10.908735683222224</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="3"/>
+        <v>155520</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="H6" s="5">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="C6" s="5">
-        <f t="shared" si="0"/>
-        <v>196.35724229800002</v>
-      </c>
-      <c r="D6" s="5">
-        <f xml:space="preserve"> (3 * B6 * 1.5) * (1 + I6 * 0.1)</f>
-        <v>18</v>
-      </c>
-      <c r="E6" s="5">
-        <f t="shared" si="1"/>
-        <v>10.908735683222224</v>
-      </c>
-      <c r="F6" s="5">
-        <f t="shared" si="2"/>
-        <v>155520</v>
-      </c>
-      <c r="G6" s="5">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="H6" s="5">
-        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="I6">
@@ -3375,31 +3903,31 @@
         <v>6</v>
       </c>
       <c r="B7">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" si="1"/>
+        <v>346.66871127711903</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="2"/>
+        <v>15.407498278983068</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="3"/>
+        <v>194400</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="H7" s="5">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="C7" s="5">
-        <f t="shared" si="0"/>
-        <v>346.66871127711903</v>
-      </c>
-      <c r="D7" s="5">
-        <f xml:space="preserve"> (3 * B7 * 1.5) * (1 + I7 * 0.1)</f>
-        <v>22.5</v>
-      </c>
-      <c r="E7" s="5">
-        <f t="shared" si="1"/>
-        <v>15.407498278983068</v>
-      </c>
-      <c r="F7" s="5">
-        <f t="shared" si="2"/>
-        <v>194400</v>
-      </c>
-      <c r="G7" s="5">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="H7" s="5">
-        <f t="shared" si="4"/>
         <v>0.45</v>
       </c>
       <c r="I7">
@@ -3411,31 +3939,31 @@
         <v>7</v>
       </c>
       <c r="B8">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" si="1"/>
+        <v>574.869768579278</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="2"/>
+        <v>21.291472910343629</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="3"/>
+        <v>233280</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="H8" s="5">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="C8" s="5">
-        <f t="shared" si="0"/>
-        <v>574.869768579278</v>
-      </c>
-      <c r="D8" s="5">
-        <f xml:space="preserve"> (3 * B8 * 1.5) * (1 + I8 * 0.1)</f>
-        <v>27</v>
-      </c>
-      <c r="E8" s="5">
-        <f t="shared" si="1"/>
-        <v>21.291472910343629</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" si="2"/>
-        <v>233280</v>
-      </c>
-      <c r="G8" s="5">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="H8" s="5">
-        <f t="shared" si="4"/>
         <v>0.52500000000000002</v>
       </c>
       <c r="I8">
@@ -3447,31 +3975,31 @@
         <v>8</v>
       </c>
       <c r="B9">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="5">
+        <f t="shared" si="1"/>
+        <v>905.48411677142201</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>31.5</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="2"/>
+        <v>28.745527516553079</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="3"/>
+        <v>272160</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="H9" s="5">
         <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="C9" s="5">
-        <f t="shared" si="0"/>
-        <v>905.48411677142201</v>
-      </c>
-      <c r="D9" s="5">
-        <f xml:space="preserve"> (3 * B9 * 1.5) * (1 + I9 * 0.1)</f>
-        <v>31.5</v>
-      </c>
-      <c r="E9" s="5">
-        <f t="shared" si="1"/>
-        <v>28.745527516553079</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" si="2"/>
-        <v>272160</v>
-      </c>
-      <c r="G9" s="5">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="H9" s="5">
-        <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="I9">
@@ -3483,31 +4011,31 @@
         <v>9</v>
       </c>
       <c r="B10">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" si="1"/>
+        <v>1367.8136540405951</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="2"/>
+        <v>37.994823723349867</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="3"/>
+        <v>311040</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="H10" s="5">
         <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="C10" s="5">
-        <f t="shared" si="0"/>
-        <v>1367.8136540405951</v>
-      </c>
-      <c r="D10" s="5">
-        <f xml:space="preserve"> (3 * B10 * 1.5) * (1 + I10 * 0.1)</f>
-        <v>36</v>
-      </c>
-      <c r="E10" s="5">
-        <f t="shared" si="1"/>
-        <v>37.994823723349867</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" si="2"/>
-        <v>311040</v>
-      </c>
-      <c r="G10" s="5">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="H10" s="5">
-        <f t="shared" si="4"/>
         <v>0.67500000000000004</v>
       </c>
       <c r="I10">
@@ -3519,31 +4047,31 @@
         <v>10</v>
       </c>
       <c r="B11">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="5">
+        <f t="shared" si="1"/>
+        <v>1996.658627648909</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>40.5</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" ref="E11:E26" si="7">C11 / D11</f>
+        <v>49.300213028368127</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="3"/>
+        <v>349920</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H11" s="5">
         <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="C11" s="5">
-        <f t="shared" si="0"/>
-        <v>1996.658627648909</v>
-      </c>
-      <c r="D11" s="5">
-        <f xml:space="preserve"> (3 * B11 * 1.5) * (1 + I11 * 0.1)</f>
-        <v>40.5</v>
-      </c>
-      <c r="E11" s="5">
-        <f t="shared" ref="E11:E26" si="6">C11 / D11</f>
-        <v>49.300213028368127</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" si="2"/>
-        <v>349920</v>
-      </c>
-      <c r="G11" s="5">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="H11" s="5">
-        <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
       <c r="I11">
@@ -3555,31 +4083,31 @@
         <v>11</v>
       </c>
       <c r="B12">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" si="1"/>
+        <v>2833.1307277955784</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="7"/>
+        <v>62.958460617679521</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="3"/>
+        <v>388800</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="H12" s="5">
         <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="C12" s="5">
-        <f t="shared" si="0"/>
-        <v>2833.1307277955784</v>
-      </c>
-      <c r="D12" s="5">
-        <f xml:space="preserve"> (3 * B12 * 1.5) * (1 + I12 * 0.1)</f>
-        <v>45</v>
-      </c>
-      <c r="E12" s="5">
-        <f t="shared" si="6"/>
-        <v>62.958460617679521</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" si="2"/>
-        <v>388800</v>
-      </c>
-      <c r="G12" s="5">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="H12" s="5">
-        <f t="shared" si="4"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="I12">
@@ -3591,31 +4119,31 @@
         <v>12</v>
       </c>
       <c r="B13">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="5">
+        <f t="shared" si="1"/>
+        <v>3925.5699395587153</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>49.5</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="7"/>
+        <v>79.304443223408384</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="3"/>
+        <v>427680</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="H13" s="5">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="C13" s="5">
-        <f t="shared" si="0"/>
-        <v>3925.5699395587153</v>
-      </c>
-      <c r="D13" s="5">
-        <f xml:space="preserve"> (3 * B13 * 1.5) * (1 + I13 * 0.1)</f>
-        <v>49.5</v>
-      </c>
-      <c r="E13" s="5">
-        <f t="shared" si="6"/>
-        <v>79.304443223408384</v>
-      </c>
-      <c r="F13" s="5">
-        <f t="shared" si="2"/>
-        <v>427680</v>
-      </c>
-      <c r="G13" s="5">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="H13" s="5">
-        <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
       <c r="I13">
@@ -3627,31 +4155,31 @@
         <v>13</v>
       </c>
       <c r="B14">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="5">
+        <f t="shared" si="1"/>
+        <v>5330.5771404160359</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="7"/>
+        <v>98.714391489185857</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="3"/>
+        <v>466560</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="H14" s="5">
         <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="C14" s="5">
-        <f t="shared" si="0"/>
-        <v>5330.5771404160359</v>
-      </c>
-      <c r="D14" s="5">
-        <f xml:space="preserve"> (3 * B14 * 1.5) * (1 + I14 * 0.1)</f>
-        <v>54</v>
-      </c>
-      <c r="E14" s="5">
-        <f t="shared" si="6"/>
-        <v>98.714391489185857</v>
-      </c>
-      <c r="F14" s="5">
-        <f t="shared" si="2"/>
-        <v>466560</v>
-      </c>
-      <c r="G14" s="5">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="H14" s="5">
-        <f t="shared" si="4"/>
         <v>0.97499999999999998</v>
       </c>
       <c r="I14">
@@ -3663,31 +4191,31 @@
         <v>14</v>
       </c>
       <c r="B15">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="5">
+        <f t="shared" si="1"/>
+        <v>7114.1757204052401</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="0"/>
+        <v>58.5</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="7"/>
+        <v>121.60984137444855</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="3"/>
+        <v>505440</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="H15" s="5">
         <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-      <c r="C15" s="5">
-        <f t="shared" si="0"/>
-        <v>7114.1757204052401</v>
-      </c>
-      <c r="D15" s="5">
-        <f xml:space="preserve"> (3 * B15 * 1.5) * (1 + I15 * 0.1)</f>
-        <v>58.5</v>
-      </c>
-      <c r="E15" s="5">
-        <f t="shared" si="6"/>
-        <v>121.60984137444855</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" si="2"/>
-        <v>505440</v>
-      </c>
-      <c r="G15" s="5">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="H15" s="5">
-        <f t="shared" si="4"/>
         <v>1.05</v>
       </c>
       <c r="I15">
@@ -3699,31 +4227,31 @@
         <v>15</v>
       </c>
       <c r="B16">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="5">
+        <f t="shared" si="1"/>
+        <v>9353.1169230249834</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="7"/>
+        <v>148.46217338134895</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="3"/>
+        <v>544320</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="H16" s="5">
         <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="C16" s="5">
-        <f t="shared" si="0"/>
-        <v>9353.1169230249834</v>
-      </c>
-      <c r="D16" s="5">
-        <f xml:space="preserve"> (3 * B16 * 1.5) * (1 + I16 * 0.1)</f>
-        <v>63</v>
-      </c>
-      <c r="E16" s="5">
-        <f t="shared" si="6"/>
-        <v>148.46217338134895</v>
-      </c>
-      <c r="F16" s="5">
-        <f t="shared" si="2"/>
-        <v>544320</v>
-      </c>
-      <c r="G16" s="5">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="H16" s="5">
-        <f t="shared" si="4"/>
         <v>1.125</v>
       </c>
       <c r="I16">
@@ -3735,31 +4263,31 @@
         <v>16</v>
       </c>
       <c r="B17">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="5">
+        <f t="shared" si="1"/>
+        <v>12136.34517035239</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="0"/>
+        <v>67.5</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="7"/>
+        <v>179.7977062274428</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="3"/>
+        <v>583200</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="H17" s="5">
         <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="C17" s="5">
-        <f t="shared" si="0"/>
-        <v>12136.34517035239</v>
-      </c>
-      <c r="D17" s="5">
-        <f xml:space="preserve"> (3 * B17 * 1.5) * (1 + I17 * 0.1)</f>
-        <v>67.5</v>
-      </c>
-      <c r="E17" s="5">
-        <f t="shared" si="6"/>
-        <v>179.7977062274428</v>
-      </c>
-      <c r="F17" s="5">
-        <f t="shared" si="2"/>
-        <v>583200</v>
-      </c>
-      <c r="G17" s="5">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="H17" s="5">
-        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
       <c r="I17">
@@ -3771,31 +4299,31 @@
         <v>17</v>
       </c>
       <c r="B18">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="C18" s="5">
+        <f t="shared" si="1"/>
+        <v>15566.64135963545</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="7"/>
+        <v>216.20335221715902</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="3"/>
+        <v>622080</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="H18" s="5">
         <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-      <c r="C18" s="5">
-        <f t="shared" si="0"/>
-        <v>15566.64135963545</v>
-      </c>
-      <c r="D18" s="5">
-        <f xml:space="preserve"> (3 * B18 * 1.5) * (1 + I18 * 0.1)</f>
-        <v>72</v>
-      </c>
-      <c r="E18" s="5">
-        <f t="shared" si="6"/>
-        <v>216.20335221715902</v>
-      </c>
-      <c r="F18" s="5">
-        <f t="shared" si="2"/>
-        <v>622080</v>
-      </c>
-      <c r="G18" s="5">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="H18" s="5">
-        <f t="shared" si="4"/>
         <v>1.2749999999999999</v>
       </c>
       <c r="I18">
@@ -3807,31 +4335,31 @@
         <v>18</v>
       </c>
       <c r="B19">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="C19" s="5">
+        <f t="shared" si="1"/>
+        <v>19762.464016208134</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="0"/>
+        <v>76.5</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="7"/>
+        <v>258.33286295696905</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="3"/>
+        <v>660960</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="H19" s="5">
         <f t="shared" si="5"/>
-        <v>17</v>
-      </c>
-      <c r="C19" s="5">
-        <f t="shared" si="0"/>
-        <v>19762.464016208134</v>
-      </c>
-      <c r="D19" s="5">
-        <f xml:space="preserve"> (3 * B19 * 1.5) * (1 + I19 * 0.1)</f>
-        <v>76.5</v>
-      </c>
-      <c r="E19" s="5">
-        <f t="shared" si="6"/>
-        <v>258.33286295696905</v>
-      </c>
-      <c r="F19" s="5">
-        <f t="shared" si="2"/>
-        <v>660960</v>
-      </c>
-      <c r="G19" s="5">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="H19" s="5">
-        <f t="shared" si="4"/>
         <v>1.35</v>
       </c>
       <c r="I19">
@@ -3843,31 +4371,31 @@
         <v>19</v>
       </c>
       <c r="B20">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="C20" s="5">
+        <f t="shared" si="1"/>
+        <v>24860.010275822431</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="7"/>
+        <v>306.91370710891891</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="3"/>
+        <v>699840</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="H20" s="5">
         <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="C20" s="5">
-        <f t="shared" si="0"/>
-        <v>24860.010275822431</v>
-      </c>
-      <c r="D20" s="5">
-        <f xml:space="preserve"> (3 * B20 * 1.5) * (1 + I20 * 0.1)</f>
-        <v>81</v>
-      </c>
-      <c r="E20" s="5">
-        <f t="shared" si="6"/>
-        <v>306.91370710891891</v>
-      </c>
-      <c r="F20" s="5">
-        <f t="shared" si="2"/>
-        <v>699840</v>
-      </c>
-      <c r="G20" s="5">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="H20" s="5">
-        <f t="shared" si="4"/>
         <v>1.425</v>
       </c>
       <c r="I20">
@@ -3879,31 +4407,31 @@
         <v>20</v>
       </c>
       <c r="B21">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="C21" s="5">
+        <f t="shared" si="1"/>
+        <v>31015.520966826727</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" si="0"/>
+        <v>85.5</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="7"/>
+        <v>362.75463119095588</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="3"/>
+        <v>738720</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="H21" s="5">
         <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-      <c r="C21" s="5">
-        <f t="shared" si="0"/>
-        <v>31015.520966826727</v>
-      </c>
-      <c r="D21" s="5">
-        <f xml:space="preserve"> (3 * B21 * 1.5) * (1 + I21 * 0.1)</f>
-        <v>85.5</v>
-      </c>
-      <c r="E21" s="5">
-        <f t="shared" si="6"/>
-        <v>362.75463119095588</v>
-      </c>
-      <c r="F21" s="5">
-        <f t="shared" si="2"/>
-        <v>738720</v>
-      </c>
-      <c r="G21" s="5">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="H21" s="5">
-        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="I21">
@@ -3915,31 +4443,31 @@
         <v>21</v>
       </c>
       <c r="B22">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="C22" s="5">
+        <f t="shared" si="1"/>
+        <v>38407.856589203329</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="7"/>
+        <v>426.75396210225921</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="3"/>
+        <v>777600</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="H22" s="5">
         <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="C22" s="5">
-        <f t="shared" si="0"/>
-        <v>38407.856589203329</v>
-      </c>
-      <c r="D22" s="5">
-        <f xml:space="preserve"> (3 * B22 * 1.5) * (1 + I22 * 0.1)</f>
-        <v>90</v>
-      </c>
-      <c r="E22" s="5">
-        <f t="shared" si="6"/>
-        <v>426.75396210225921</v>
-      </c>
-      <c r="F22" s="5">
-        <f t="shared" si="2"/>
-        <v>777600</v>
-      </c>
-      <c r="G22" s="5">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="H22" s="5">
-        <f t="shared" si="4"/>
         <v>1.575</v>
       </c>
       <c r="I22">
@@ -3951,31 +4479,31 @@
         <v>22</v>
       </c>
       <c r="B23">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="C23" s="5">
+        <f t="shared" si="1"/>
+        <v>47241.373765353856</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" si="0"/>
+        <v>94.5</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="7"/>
+        <v>499.90871709369162</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="3"/>
+        <v>816480</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="H23" s="5">
         <f t="shared" si="5"/>
-        <v>21</v>
-      </c>
-      <c r="C23" s="5">
-        <f t="shared" si="0"/>
-        <v>47241.373765353856</v>
-      </c>
-      <c r="D23" s="5">
-        <f xml:space="preserve"> (3 * B23 * 1.5) * (1 + I23 * 0.1)</f>
-        <v>94.5</v>
-      </c>
-      <c r="E23" s="5">
-        <f t="shared" si="6"/>
-        <v>499.90871709369162</v>
-      </c>
-      <c r="F23" s="5">
-        <f t="shared" si="2"/>
-        <v>816480</v>
-      </c>
-      <c r="G23" s="5">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="H23" s="5">
-        <f t="shared" si="4"/>
         <v>1.65</v>
       </c>
       <c r="I23">
@@ -3987,31 +4515,31 @@
         <v>23</v>
       </c>
       <c r="B24">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="C24" s="5">
+        <f t="shared" si="1"/>
+        <v>57749.134790791381</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="7"/>
+        <v>583.32459384637752</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="3"/>
+        <v>855360</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="H24" s="5">
         <f t="shared" si="5"/>
-        <v>22</v>
-      </c>
-      <c r="C24" s="5">
-        <f t="shared" si="0"/>
-        <v>57749.134790791381</v>
-      </c>
-      <c r="D24" s="5">
-        <f xml:space="preserve"> (3 * B24 * 1.5) * (1 + I24 * 0.1)</f>
-        <v>99</v>
-      </c>
-      <c r="E24" s="5">
-        <f t="shared" si="6"/>
-        <v>583.32459384637752</v>
-      </c>
-      <c r="F24" s="5">
-        <f t="shared" si="2"/>
-        <v>855360</v>
-      </c>
-      <c r="G24" s="5">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="H24" s="5">
-        <f t="shared" si="4"/>
         <v>1.7250000000000001</v>
       </c>
       <c r="I24">
@@ -4023,31 +4551,31 @@
         <v>24</v>
       </c>
       <c r="B25">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="C25" s="5">
+        <f t="shared" si="1"/>
+        <v>70196.486267907181</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" si="0"/>
+        <v>103.5</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="7"/>
+        <v>678.22692046287136</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="3"/>
+        <v>894240</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="H25" s="5">
         <f t="shared" si="5"/>
-        <v>23</v>
-      </c>
-      <c r="C25" s="5">
-        <f t="shared" si="0"/>
-        <v>70196.486267907181</v>
-      </c>
-      <c r="D25" s="5">
-        <f xml:space="preserve"> (3 * B25 * 1.5) * (1 + I25 * 0.1)</f>
-        <v>103.5</v>
-      </c>
-      <c r="E25" s="5">
-        <f t="shared" si="6"/>
-        <v>678.22692046287136</v>
-      </c>
-      <c r="F25" s="5">
-        <f t="shared" si="2"/>
-        <v>894240</v>
-      </c>
-      <c r="G25" s="5">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="H25" s="5">
-        <f t="shared" si="4"/>
         <v>1.8</v>
       </c>
       <c r="I25">
@@ -4059,31 +4587,31 @@
         <v>25</v>
       </c>
       <c r="B26">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="C26" s="5">
+        <f t="shared" si="1"/>
+        <v>84885.046491522022</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="7"/>
+        <v>785.972652699278</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="3"/>
+        <v>933120</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="H26" s="5">
         <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
-      <c r="C26" s="5">
-        <f t="shared" si="0"/>
-        <v>84885.046491522022</v>
-      </c>
-      <c r="D26" s="5">
-        <f xml:space="preserve"> (3 * B26 * 1.5) * (1 + I26 * 0.1)</f>
-        <v>108</v>
-      </c>
-      <c r="E26" s="5">
-        <f t="shared" si="6"/>
-        <v>785.972652699278</v>
-      </c>
-      <c r="F26" s="5">
-        <f t="shared" si="2"/>
-        <v>933120</v>
-      </c>
-      <c r="G26" s="5">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="H26" s="5">
-        <f t="shared" si="4"/>
         <v>1.875</v>
       </c>
       <c r="I26">
@@ -4095,31 +4623,31 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <f t="shared" ref="B27:B90" si="7">A27-1</f>
+        <f t="shared" ref="B27:B90" si="8">A27-1</f>
         <v>25</v>
       </c>
       <c r="C27" s="5">
+        <f t="shared" si="1"/>
+        <v>102157.1453024699</v>
+      </c>
+      <c r="D27" s="5">
         <f t="shared" si="0"/>
-        <v>102157.1453024699</v>
-      </c>
-      <c r="D27" s="5">
-        <f xml:space="preserve"> (3 * B27 * 1.5) * (1 + I27 * 0.1)</f>
         <v>112.5</v>
       </c>
       <c r="E27" s="5">
-        <f t="shared" ref="E27:E90" si="8">C27 / D27</f>
+        <f t="shared" ref="E27:E90" si="9">C27 / D27</f>
         <v>908.06351379973239</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>972000</v>
       </c>
       <c r="G27" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="H27" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.95</v>
       </c>
       <c r="I27">
@@ -4131,31 +4659,31 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="C28" s="5">
+        <f t="shared" si="1"/>
+        <v>122400.76456937162</v>
+      </c>
+      <c r="D28" s="5">
         <f t="shared" si="0"/>
-        <v>122400.76456937162</v>
-      </c>
-      <c r="D28" s="5">
-        <f xml:space="preserve"> (3 * B28 * 1.5) * (1 + I28 * 0.1)</f>
         <v>117</v>
       </c>
       <c r="E28" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1046.1603809348001</v>
       </c>
       <c r="F28" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1010880</v>
       </c>
       <c r="G28" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="H28" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0249999999999999</v>
       </c>
       <c r="I28">
@@ -4167,31 +4695,31 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="C29" s="5">
+        <f t="shared" si="1"/>
+        <v>146055.03233658557</v>
+      </c>
+      <c r="D29" s="5">
         <f t="shared" si="0"/>
-        <v>146055.03233658557</v>
-      </c>
-      <c r="D29" s="5">
-        <f xml:space="preserve"> (3 * B29 * 1.5) * (1 + I29 * 0.1)</f>
         <v>121.5</v>
       </c>
       <c r="E29" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1202.0990315768361</v>
       </c>
       <c r="F29" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1049760</v>
       </c>
       <c r="G29" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="H29" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.1</v>
       </c>
       <c r="I29">
@@ -4203,31 +4731,31 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="C30" s="5">
+        <f t="shared" si="1"/>
+        <v>173616.32902908802</v>
+      </c>
+      <c r="D30" s="5">
         <f t="shared" si="0"/>
-        <v>173616.32902908802</v>
-      </c>
-      <c r="D30" s="5">
-        <f xml:space="preserve"> (3 * B30 * 1.5) * (1 + I30 * 0.1)</f>
         <v>126</v>
       </c>
       <c r="E30" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1377.9073732467305</v>
       </c>
       <c r="F30" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1088640</v>
       </c>
       <c r="G30" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="H30" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.1749999999999998</v>
       </c>
       <c r="I30">
@@ -4239,31 +4767,31 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
       <c r="C31" s="5">
+        <f t="shared" si="1"/>
+        <v>205645.06997751477</v>
+      </c>
+      <c r="D31" s="5">
         <f t="shared" si="0"/>
-        <v>205645.06997751477</v>
-      </c>
-      <c r="D31" s="5">
-        <f xml:space="preserve"> (3 * B31 * 1.5) * (1 + I31 * 0.1)</f>
         <v>130.5</v>
       </c>
       <c r="E31" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1575.8242910154388</v>
       </c>
       <c r="F31" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1127520</v>
       </c>
       <c r="G31" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="H31" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.25</v>
       </c>
       <c r="I31">
@@ -4275,31 +4803,31 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="C32" s="5">
+        <f t="shared" si="1"/>
+        <v>242773.23496769543</v>
+      </c>
+      <c r="D32" s="5">
         <f t="shared" si="0"/>
-        <v>242773.23496769543</v>
-      </c>
-      <c r="D32" s="5">
-        <f xml:space="preserve"> (3 * B32 * 1.5) * (1 + I32 * 0.1)</f>
         <v>135</v>
       </c>
       <c r="E32" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1798.3202590199662</v>
       </c>
       <c r="F32" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1166400</v>
       </c>
       <c r="G32" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="H32" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.3250000000000002</v>
       </c>
       <c r="I32">
@@ -4311,31 +4839,31 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="C33" s="5">
+        <f t="shared" si="1"/>
+        <v>285712.72258210345</v>
+      </c>
+      <c r="D33" s="5">
         <f t="shared" si="0"/>
-        <v>285712.72258210345</v>
-      </c>
-      <c r="D33" s="5">
-        <f xml:space="preserve"> (3 * B33 * 1.5) * (1 + I33 * 0.1)</f>
         <v>139.5</v>
       </c>
       <c r="E33" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2048.1198751405263</v>
       </c>
       <c r="F33" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1205280</v>
       </c>
       <c r="G33" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="H33" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.4</v>
       </c>
       <c r="I33">
@@ -4347,31 +4875,31 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="C34" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>335264.61484399869</v>
       </c>
       <c r="D34" s="5">
-        <f xml:space="preserve"> (3 * B34 * 1.5) * (1 + I34 * 0.1)</f>
+        <f t="shared" ref="D34:D65" si="10" xml:space="preserve"> (3 * B34 * 1.5) * (1 + I34 * 0.1)</f>
         <v>144</v>
       </c>
       <c r="E34" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2328.2264919722129</v>
       </c>
       <c r="F34" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1244160</v>
       </c>
       <c r="G34" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="H34" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.4750000000000001</v>
       </c>
       <c r="I34">
@@ -4383,31 +4911,31 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>33</v>
       </c>
       <c r="C35" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>392329.44616223761</v>
       </c>
       <c r="D35" s="5">
-        <f xml:space="preserve"> (3 * B35 * 1.5) * (1 + I35 * 0.1)</f>
+        <f t="shared" si="10"/>
         <v>148.5</v>
       </c>
       <c r="E35" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2641.9491324056403</v>
       </c>
       <c r="F35" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1283040</v>
       </c>
       <c r="G35" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="H35" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="I35">
@@ -4419,31 +4947,31 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
       <c r="C36" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>457918.57987515599</v>
       </c>
       <c r="D36" s="5">
-        <f xml:space="preserve"> (3 * B36 * 1.5) * (1 + I36 * 0.1)</f>
+        <f t="shared" si="10"/>
         <v>153</v>
       </c>
       <c r="E36" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2992.9318946088629</v>
       </c>
       <c r="F36" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1321920</v>
       </c>
       <c r="G36" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="H36" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.625</v>
       </c>
       <c r="I36">
@@ -4455,31 +4983,31 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="C37" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>533166.80588128103</v>
       </c>
       <c r="D37" s="5">
-        <f xml:space="preserve"> (3 * B37 * 1.5) * (1 + I37 * 0.1)</f>
+        <f t="shared" si="10"/>
         <v>157.5</v>
       </c>
       <c r="E37" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3385.1860690874987</v>
       </c>
       <c r="F37" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1360800</v>
       </c>
       <c r="G37" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="H37" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.7</v>
       </c>
       <c r="I37">
@@ -4491,31 +5019,31 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="C38" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>619346.28400549036</v>
       </c>
       <c r="D38" s="5">
-        <f xml:space="preserve"> (3 * B38 * 1.5) * (1 + I38 * 0.1)</f>
+        <f t="shared" si="10"/>
         <v>162</v>
       </c>
       <c r="E38" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3823.1252099104345</v>
       </c>
       <c r="F38" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1399680</v>
       </c>
       <c r="G38" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="H38" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.7749999999999999</v>
       </c>
       <c r="I38">
@@ -4527,31 +5055,31 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>37</v>
       </c>
       <c r="C39" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>717881.96997165878</v>
       </c>
       <c r="D39" s="5">
-        <f xml:space="preserve"> (3 * B39 * 1.5) * (1 + I39 * 0.1)</f>
+        <f t="shared" si="10"/>
         <v>166.5</v>
       </c>
       <c r="E39" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4311.6034232532056</v>
       </c>
       <c r="F39" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1438560</v>
       </c>
       <c r="G39" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="H39" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.85</v>
       </c>
       <c r="I39">
@@ -4563,31 +5091,31 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>38</v>
       </c>
       <c r="C40" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>830368.67423505185</v>
       </c>
       <c r="D40" s="5">
-        <f xml:space="preserve"> (3 * B40 * 1.5) * (1 + I40 * 0.1)</f>
+        <f t="shared" si="10"/>
         <v>171</v>
       </c>
       <c r="E40" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4855.9571592693092</v>
       </c>
       <c r="F40" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1477440</v>
       </c>
       <c r="G40" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="H40" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.9249999999999998</v>
       </c>
       <c r="I40">
@@ -4599,31 +5127,31 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>39</v>
       </c>
       <c r="C41" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>958589.91857683309</v>
       </c>
       <c r="D41" s="5">
-        <f xml:space="preserve"> (3 * B41 * 1.5) * (1 + I41 * 0.1)</f>
+        <f t="shared" si="10"/>
         <v>175.5</v>
       </c>
       <c r="E41" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5462.050818101613</v>
       </c>
       <c r="F41" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1516320</v>
       </c>
       <c r="G41" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="H41" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="I41">
@@ -4635,31 +5163,31 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="C42" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1104538.7713958204</v>
       </c>
       <c r="D42" s="5">
-        <f xml:space="preserve"> (3 * B42 * 1.5) * (1 + I42 * 0.1)</f>
+        <f t="shared" si="10"/>
         <v>180</v>
       </c>
       <c r="E42" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6136.3265077545575</v>
       </c>
       <c r="F42" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1555200</v>
       </c>
       <c r="G42" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="H42" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.0750000000000002</v>
       </c>
       <c r="I42">
@@ -4671,31 +5199,31 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41</v>
       </c>
       <c r="C43" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1270440.860176346</v>
       </c>
       <c r="D43" s="5">
-        <f xml:space="preserve"> (3 * B43 * 1.5) * (1 + I43 * 0.1)</f>
+        <f t="shared" si="10"/>
         <v>184.5</v>
       </c>
       <c r="E43" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6885.8583207390029</v>
       </c>
       <c r="F43" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1594080</v>
       </c>
       <c r="G43" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="H43" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.15</v>
       </c>
       <c r="I43">
@@ -4707,31 +5235,31 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
       <c r="C44" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1458779.7788044945</v>
       </c>
       <c r="D44" s="5">
-        <f xml:space="preserve"> (3 * B44 * 1.5) * (1 + I44 * 0.1)</f>
+        <f t="shared" si="10"/>
         <v>189</v>
       </c>
       <c r="E44" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7718.411528066109</v>
       </c>
       <c r="F44" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1632960</v>
       </c>
       <c r="G44" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="H44" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.2250000000000001</v>
       </c>
       <c r="I44">
@@ -4743,31 +5271,31 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43</v>
       </c>
       <c r="C45" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1672325.1283993057</v>
       </c>
       <c r="D45" s="5">
-        <f xml:space="preserve"> (3 * B45 * 1.5) * (1 + I45 * 0.1)</f>
+        <f t="shared" si="10"/>
         <v>193.5</v>
       </c>
       <c r="E45" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8642.5071235106243</v>
       </c>
       <c r="F45" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1671840</v>
       </c>
       <c r="G45" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="H45" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3</v>
       </c>
       <c r="I45">
@@ -4779,31 +5307,31 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44</v>
       </c>
       <c r="C46" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1914163.4532855388</v>
       </c>
       <c r="D46" s="5">
-        <f xml:space="preserve"> (3 * B46 * 1.5) * (1 + I46 * 0.1)</f>
+        <f t="shared" si="10"/>
         <v>198</v>
       </c>
       <c r="E46" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9667.4921883108018</v>
       </c>
       <c r="F46" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1710720</v>
       </c>
       <c r="G46" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="H46" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.375</v>
       </c>
       <c r="I46">
@@ -4815,31 +5343,31 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
       <c r="C47" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2187732.3588397689</v>
       </c>
       <c r="D47" s="5">
-        <f xml:space="preserve"> (3 * B47 * 1.5) * (1 + I47 * 0.1)</f>
+        <f t="shared" si="10"/>
         <v>202.5</v>
       </c>
       <c r="E47" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10803.616586863056</v>
       </c>
       <c r="F47" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1749600</v>
       </c>
       <c r="G47" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="H47" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.45</v>
       </c>
       <c r="I47">
@@ -4851,31 +5379,31 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>46</v>
       </c>
       <c r="C48" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2496858.1253875997</v>
       </c>
       <c r="D48" s="5">
-        <f xml:space="preserve"> (3 * B48 * 1.5) * (1 + I48 * 0.1)</f>
+        <f t="shared" si="10"/>
         <v>207</v>
       </c>
       <c r="E48" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>12062.116547766182</v>
       </c>
       <c r="F48" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1788480</v>
       </c>
       <c r="G48" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="H48" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.5249999999999999</v>
       </c>
       <c r="I48">
@@ -4887,31 +5415,31 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>47</v>
       </c>
       <c r="C49" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2845797.1623295755</v>
       </c>
       <c r="D49" s="5">
-        <f xml:space="preserve"> (3 * B49 * 1.5) * (1 + I49 * 0.1)</f>
+        <f t="shared" si="10"/>
         <v>211.5</v>
       </c>
       <c r="E49" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>13455.30573205473</v>
       </c>
       <c r="F49" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1827360</v>
       </c>
       <c r="G49" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="H49" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.6</v>
       </c>
       <c r="I49">
@@ -4923,31 +5451,31 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>48</v>
       </c>
       <c r="C50" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3239281.6794590885</v>
       </c>
       <c r="D50" s="5">
-        <f xml:space="preserve"> (3 * B50 * 1.5) * (1 + I50 * 0.1)</f>
+        <f t="shared" si="10"/>
         <v>216</v>
       </c>
       <c r="E50" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>14996.674441940224</v>
       </c>
       <c r="F50" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1866240</v>
       </c>
       <c r="G50" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
       <c r="H50" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.6749999999999998</v>
       </c>
       <c r="I50">
@@ -4959,31 +5487,31 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>49</v>
       </c>
       <c r="C51" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3682569.9882598626</v>
       </c>
       <c r="D51" s="5">
-        <f xml:space="preserve"> (3 * B51 * 1.5) * (1 + I51 * 0.1)</f>
+        <f t="shared" si="10"/>
         <v>220.5</v>
       </c>
       <c r="E51" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16700.997679183052</v>
       </c>
       <c r="F51" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1905120</v>
       </c>
       <c r="G51" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="H51" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.75</v>
       </c>
       <c r="I51">
@@ -4995,31 +5523,31 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="C52" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4181501.8851086413</v>
       </c>
       <c r="D52" s="5">
-        <f xml:space="preserve"> (3 * B52 * 1.5) * (1 + I52 * 0.1)</f>
+        <f t="shared" si="10"/>
         <v>225</v>
       </c>
       <c r="E52" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>18584.452822705072</v>
       </c>
       <c r="F52" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1944000</v>
       </c>
       <c r="G52" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
       <c r="H52" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.8250000000000002</v>
       </c>
       <c r="I52">
@@ -5031,31 +5559,31 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>51</v>
       </c>
       <c r="C53" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4742559.6110601565</v>
       </c>
       <c r="D53" s="5">
-        <f xml:space="preserve"> (3 * B53 * 1.5) * (1 + I53 * 0.1)</f>
+        <f t="shared" si="10"/>
         <v>229.5</v>
       </c>
       <c r="E53" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>20664.747760610702</v>
       </c>
       <c r="F53" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1982880</v>
       </c>
       <c r="G53" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="H53" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.9</v>
       </c>
       <c r="I53">
@@ -5067,31 +5595,31 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>52</v>
       </c>
       <c r="C54" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5372934.9295824058</v>
       </c>
       <c r="D54" s="5">
-        <f xml:space="preserve"> (3 * B54 * 1.5) * (1 + I54 * 0.1)</f>
+        <f t="shared" si="10"/>
         <v>234</v>
       </c>
       <c r="E54" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>22961.260382830795</v>
       </c>
       <c r="F54" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2021760</v>
       </c>
       <c r="G54" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="H54" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.9750000000000001</v>
       </c>
       <c r="I54">
@@ -5103,31 +5631,31 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>53</v>
       </c>
       <c r="C55" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6080602.9145958619</v>
       </c>
       <c r="D55" s="5">
-        <f xml:space="preserve"> (3 * B55 * 1.5) * (1 + I55 * 0.1)</f>
+        <f t="shared" si="10"/>
         <v>238.5</v>
       </c>
       <c r="E55" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25495.190417592712</v>
       </c>
       <c r="F55" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2060640</v>
       </c>
       <c r="G55" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="H55" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.05</v>
       </c>
       <c r="I55">
@@ -5139,31 +5667,31 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>54</v>
       </c>
       <c r="C56" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6874403.0968368985</v>
       </c>
       <c r="D56" s="5">
-        <f xml:space="preserve"> (3 * B56 * 1.5) * (1 + I56 * 0.1)</f>
+        <f t="shared" si="10"/>
         <v>243</v>
       </c>
       <c r="E56" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>28289.724678341147</v>
       </c>
       <c r="F56" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2099520</v>
       </c>
       <c r="G56" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="H56" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.125</v>
       </c>
       <c r="I56">
@@ -5175,31 +5703,31 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>55</v>
       </c>
       <c r="C57" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7764128.677333978</v>
       </c>
       <c r="D57" s="5">
-        <f xml:space="preserve"> (3 * B57 * 1.5) * (1 + I57 * 0.1)</f>
+        <f t="shared" si="10"/>
         <v>247.5</v>
       </c>
       <c r="E57" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>31370.216878117084</v>
       </c>
       <c r="F57" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2138400</v>
       </c>
       <c r="G57" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="H57" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.2</v>
       </c>
       <c r="I57">
@@ -5211,31 +5739,31 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>56</v>
       </c>
       <c r="C58" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8760624.5831128247</v>
       </c>
       <c r="D58" s="5">
-        <f xml:space="preserve"> (3 * B58 * 1.5) * (1 + I58 * 0.1)</f>
+        <f t="shared" si="10"/>
         <v>252</v>
       </c>
       <c r="E58" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>34764.383266320736</v>
       </c>
       <c r="F58" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2177280</v>
       </c>
       <c r="G58" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="H58" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.2750000000000004</v>
       </c>
       <c r="I58">
@@ -5247,31 +5775,31 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>57</v>
       </c>
       <c r="C59" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9875895.2126316894</v>
       </c>
       <c r="D59" s="5">
-        <f xml:space="preserve"> (3 * B59 * 1.5) * (1 + I59 * 0.1)</f>
+        <f t="shared" si="10"/>
         <v>256.5</v>
       </c>
       <c r="E59" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>38502.515448856488</v>
       </c>
       <c r="F59" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2216160</v>
       </c>
       <c r="G59" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="H59" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.3499999999999996</v>
       </c>
       <c r="I59">
@@ -5283,31 +5811,31 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>58</v>
       </c>
       <c r="C60" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11123222.797431944</v>
       </c>
       <c r="D60" s="5">
-        <f xml:space="preserve"> (3 * B60 * 1.5) * (1 + I60 * 0.1)</f>
+        <f t="shared" si="10"/>
         <v>261</v>
       </c>
       <c r="E60" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>42617.711867555343</v>
       </c>
       <c r="F60" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2255040</v>
       </c>
       <c r="G60" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="H60" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.4249999999999998</v>
       </c>
       <c r="I60">
@@ -5319,31 +5847,31 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>59</v>
       </c>
       <c r="C61" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12517297.392661758</v>
       </c>
       <c r="D61" s="5">
-        <f xml:space="preserve"> (3 * B61 * 1.5) * (1 + I61 * 0.1)</f>
+        <f t="shared" si="10"/>
         <v>265.5</v>
       </c>
       <c r="E61" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>47146.129539215661</v>
       </c>
       <c r="F61" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2293920</v>
       </c>
       <c r="G61" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="H61" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
       <c r="I61">
@@ -5355,31 +5883,31 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="C62" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14074359.603132995</v>
       </c>
       <c r="D62" s="5">
-        <f xml:space="preserve"> (3 * B62 * 1.5) * (1 + I62 * 0.1)</f>
+        <f t="shared" si="10"/>
         <v>270</v>
       </c>
       <c r="E62" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>52127.25778938146</v>
       </c>
       <c r="F62" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2332800</v>
       </c>
       <c r="G62" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="H62" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.5750000000000002</v>
       </c>
       <c r="I62">
@@ -5391,31 +5919,31 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>61</v>
       </c>
       <c r="C63" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15812357.254100485</v>
       </c>
       <c r="D63" s="5">
-        <f xml:space="preserve"> (3 * B63 * 1.5) * (1 + I63 * 0.1)</f>
+        <f t="shared" si="10"/>
         <v>274.5</v>
       </c>
       <c r="E63" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>57604.215861932549</v>
       </c>
       <c r="F63" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2371680</v>
       </c>
       <c r="G63" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="H63" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.6500000000000004</v>
       </c>
       <c r="I63">
@@ -5427,31 +5955,31 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>62</v>
       </c>
       <c r="C64" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17751117.327767622</v>
       </c>
       <c r="D64" s="5">
-        <f xml:space="preserve"> (3 * B64 * 1.5) * (1 + I64 * 0.1)</f>
+        <f t="shared" si="10"/>
         <v>279</v>
       </c>
       <c r="E64" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>63624.07644361155</v>
       </c>
       <c r="F64" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2410560</v>
       </c>
       <c r="G64" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="H64" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.7249999999999996</v>
       </c>
       <c r="I64">
@@ -5463,31 +5991,31 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>63</v>
       </c>
       <c r="C65" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19912534.608446494</v>
       </c>
       <c r="D65" s="5">
-        <f xml:space="preserve"> (3 * B65 * 1.5) * (1 + I65 * 0.1)</f>
+        <f t="shared" si="10"/>
         <v>283.5</v>
       </c>
       <c r="E65" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>70238.217313744244</v>
       </c>
       <c r="F65" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2449440</v>
       </c>
       <c r="G65" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="H65" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.8</v>
       </c>
       <c r="I65">
@@ -5499,31 +6027,31 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="C66" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22320778.612232301</v>
       </c>
       <c r="D66" s="5">
-        <f xml:space="preserve"> (3 * B66 * 1.5) * (1 + I66 * 0.1)</f>
+        <f t="shared" ref="D66:D101" si="11" xml:space="preserve"> (3 * B66 * 1.5) * (1 + I66 * 0.1)</f>
         <v>288</v>
       </c>
       <c r="E66" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>77502.703514695488</v>
       </c>
       <c r="F66" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2488320</v>
       </c>
       <c r="G66" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="H66" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.875</v>
       </c>
       <c r="I66">
@@ -5535,31 +6063,31 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>65</v>
       </c>
       <c r="C67" s="5">
-        <f t="shared" ref="C67:C101" si="9" xml:space="preserve"> (15 + (A67 ^ 3)) * (1.07 ^ (A67))</f>
+        <f t="shared" ref="C67:C101" si="12" xml:space="preserve"> (15 + (A67 ^ 3)) * (1.07 ^ (A67))</f>
         <v>25002520.521964125</v>
       </c>
       <c r="D67" s="5">
-        <f xml:space="preserve"> (3 * B67 * 1.5) * (1 + I67 * 0.1)</f>
+        <f t="shared" si="11"/>
         <v>292.5</v>
       </c>
       <c r="E67" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>85478.702639193594</v>
       </c>
       <c r="F67" s="5">
-        <f t="shared" ref="F67:F101" si="10">((D67)*86400)*0.1</f>
+        <f t="shared" ref="F67:F101" si="13">((D67)*86400)*0.1</f>
         <v>2527200</v>
       </c>
       <c r="G67" s="5">
-        <f t="shared" ref="G67:G101" si="11">A67</f>
+        <f t="shared" ref="G67:G101" si="14">A67</f>
         <v>66</v>
       </c>
       <c r="H67" s="5">
-        <f t="shared" ref="H67:H101" si="12">(G67*3)/40</f>
+        <f t="shared" ref="H67:H101" si="15">(G67*3)/40</f>
         <v>4.95</v>
       </c>
       <c r="I67">
@@ -5571,31 +6099,31 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>66</v>
       </c>
       <c r="C68" s="5">
+        <f t="shared" si="12"/>
+        <v>27987182.006198712</v>
+      </c>
+      <c r="D68" s="5">
+        <f t="shared" si="11"/>
+        <v>297</v>
+      </c>
+      <c r="E68" s="5">
         <f t="shared" si="9"/>
-        <v>27987182.006198712</v>
-      </c>
-      <c r="D68" s="5">
-        <f xml:space="preserve"> (3 * B68 * 1.5) * (1 + I68 * 0.1)</f>
-        <v>297</v>
-      </c>
-      <c r="E68" s="5">
-        <f t="shared" si="8"/>
         <v>94232.936047807103</v>
       </c>
       <c r="F68" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2566080</v>
       </c>
       <c r="G68" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>67</v>
       </c>
       <c r="H68" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5.0250000000000004</v>
       </c>
       <c r="I68">
@@ -5607,31 +6135,31 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>67</v>
       </c>
       <c r="C69" s="5">
+        <f t="shared" si="12"/>
+        <v>31307207.973071128</v>
+      </c>
+      <c r="D69" s="5">
+        <f t="shared" si="11"/>
+        <v>301.5</v>
+      </c>
+      <c r="E69" s="5">
         <f t="shared" si="9"/>
-        <v>31307207.973071128</v>
-      </c>
-      <c r="D69" s="5">
-        <f xml:space="preserve"> (3 * B69 * 1.5) * (1 + I69 * 0.1)</f>
-        <v>301.5</v>
-      </c>
-      <c r="E69" s="5">
-        <f t="shared" si="8"/>
         <v>103838.16906491254</v>
       </c>
       <c r="F69" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2604960</v>
       </c>
       <c r="G69" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>68</v>
       </c>
       <c r="H69" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5.0999999999999996</v>
       </c>
       <c r="I69">
@@ -5643,31 +6171,31 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>68</v>
       </c>
       <c r="C70" s="5">
+        <f t="shared" si="12"/>
+        <v>34998365.497509554</v>
+      </c>
+      <c r="D70" s="5">
+        <f t="shared" si="11"/>
+        <v>306</v>
+      </c>
+      <c r="E70" s="5">
         <f t="shared" si="9"/>
-        <v>34998365.497509554</v>
-      </c>
-      <c r="D70" s="5">
-        <f xml:space="preserve"> (3 * B70 * 1.5) * (1 + I70 * 0.1)</f>
-        <v>306</v>
-      </c>
-      <c r="E70" s="5">
-        <f t="shared" si="8"/>
         <v>114373.74345591357</v>
       </c>
       <c r="F70" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2643840</v>
       </c>
       <c r="G70" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>69</v>
       </c>
       <c r="H70" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5.1749999999999998</v>
       </c>
       <c r="I70">
@@ -5679,31 +6207,31 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>69</v>
       </c>
       <c r="C71" s="5">
+        <f t="shared" si="12"/>
+        <v>39100071.364671119</v>
+      </c>
+      <c r="D71" s="5">
+        <f t="shared" si="11"/>
+        <v>310.5</v>
+      </c>
+      <c r="E71" s="5">
         <f t="shared" si="9"/>
-        <v>39100071.364671119</v>
-      </c>
-      <c r="D71" s="5">
-        <f xml:space="preserve"> (3 * B71 * 1.5) * (1 + I71 * 0.1)</f>
-        <v>310.5</v>
-      </c>
-      <c r="E71" s="5">
-        <f t="shared" si="8"/>
         <v>125926.15576383613</v>
       </c>
       <c r="F71" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2682720</v>
       </c>
       <c r="G71" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>70</v>
       </c>
       <c r="H71" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5.25</v>
       </c>
       <c r="I71">
@@ -5715,31 +6243,31 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>70</v>
       </c>
       <c r="C72" s="5">
+        <f t="shared" si="12"/>
+        <v>43655750.895151131</v>
+      </c>
+      <c r="D72" s="5">
+        <f t="shared" si="11"/>
+        <v>315</v>
+      </c>
+      <c r="E72" s="5">
         <f t="shared" si="9"/>
-        <v>43655750.895151131</v>
-      </c>
-      <c r="D72" s="5">
-        <f xml:space="preserve"> (3 * B72 * 1.5) * (1 + I72 * 0.1)</f>
-        <v>315</v>
-      </c>
-      <c r="E72" s="5">
-        <f t="shared" si="8"/>
         <v>138589.68538143215</v>
       </c>
       <c r="F72" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2721600</v>
       </c>
       <c r="G72" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71</v>
       </c>
       <c r="H72" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5.3250000000000002</v>
       </c>
       <c r="I72">
@@ -5751,31 +6279,31 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>71</v>
       </c>
       <c r="C73" s="5">
+        <f t="shared" si="12"/>
+        <v>48713230.960095584</v>
+      </c>
+      <c r="D73" s="5">
+        <f t="shared" si="11"/>
+        <v>319.5</v>
+      </c>
+      <c r="E73" s="5">
         <f t="shared" si="9"/>
-        <v>48713230.960095584</v>
-      </c>
-      <c r="D73" s="5">
-        <f xml:space="preserve"> (3 * B73 * 1.5) * (1 + I73 * 0.1)</f>
-        <v>319.5</v>
-      </c>
-      <c r="E73" s="5">
-        <f t="shared" si="8"/>
         <v>152467.07655741967</v>
       </c>
       <c r="F73" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2760480</v>
       </c>
       <c r="G73" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>72</v>
       </c>
       <c r="H73" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5.4</v>
       </c>
       <c r="I73">
@@ -5787,31 +6315,31 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>72</v>
       </c>
       <c r="C74" s="5">
+        <f t="shared" si="12"/>
+        <v>54325170.358563967</v>
+      </c>
+      <c r="D74" s="5">
+        <f t="shared" si="11"/>
+        <v>324</v>
+      </c>
+      <c r="E74" s="5">
         <f t="shared" si="9"/>
-        <v>54325170.358563967</v>
-      </c>
-      <c r="D74" s="5">
-        <f xml:space="preserve"> (3 * B74 * 1.5) * (1 + I74 * 0.1)</f>
-        <v>324</v>
-      </c>
-      <c r="E74" s="5">
-        <f t="shared" si="8"/>
         <v>167670.2788844567</v>
       </c>
       <c r="F74" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2799360</v>
       </c>
       <c r="G74" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>73</v>
       </c>
       <c r="H74" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5.4749999999999996</v>
       </c>
       <c r="I74">
@@ -5823,31 +6351,31 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>73</v>
       </c>
       <c r="C75" s="5">
+        <f t="shared" si="12"/>
+        <v>60549531.017241485</v>
+      </c>
+      <c r="D75" s="5">
+        <f t="shared" si="11"/>
+        <v>328.5</v>
+      </c>
+      <c r="E75" s="5">
         <f t="shared" si="9"/>
-        <v>60549531.017241485</v>
-      </c>
-      <c r="D75" s="5">
-        <f xml:space="preserve"> (3 * B75 * 1.5) * (1 + I75 * 0.1)</f>
-        <v>328.5</v>
-      </c>
-      <c r="E75" s="5">
-        <f t="shared" si="8"/>
         <v>184321.25119403802</v>
       </c>
       <c r="F75" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2838240</v>
       </c>
       <c r="G75" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>74</v>
       </c>
       <c r="H75" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5.55</v>
       </c>
       <c r="I75">
@@ -5859,31 +6387,31 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>74</v>
       </c>
       <c r="C76" s="5">
+        <f t="shared" si="12"/>
+        <v>67450093.785949767</v>
+      </c>
+      <c r="D76" s="5">
+        <f t="shared" si="11"/>
+        <v>333</v>
+      </c>
+      <c r="E76" s="5">
         <f t="shared" si="9"/>
-        <v>67450093.785949767</v>
-      </c>
-      <c r="D76" s="5">
-        <f xml:space="preserve"> (3 * B76 * 1.5) * (1 + I76 * 0.1)</f>
-        <v>333</v>
-      </c>
-      <c r="E76" s="5">
-        <f t="shared" si="8"/>
         <v>202552.83419204134</v>
       </c>
       <c r="F76" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2877120</v>
       </c>
       <c r="G76" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>75</v>
       </c>
       <c r="H76" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5.625</v>
       </c>
       <c r="I76">
@@ -5895,31 +6423,31 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>75</v>
       </c>
       <c r="C77" s="5">
+        <f t="shared" si="12"/>
+        <v>75097022.943589598</v>
+      </c>
+      <c r="D77" s="5">
+        <f t="shared" si="11"/>
+        <v>337.5</v>
+      </c>
+      <c r="E77" s="5">
         <f t="shared" si="9"/>
-        <v>75097022.943589598</v>
-      </c>
-      <c r="D77" s="5">
-        <f xml:space="preserve"> (3 * B77 * 1.5) * (1 + I77 * 0.1)</f>
-        <v>337.5</v>
-      </c>
-      <c r="E77" s="5">
-        <f t="shared" si="8"/>
         <v>222509.69761063583</v>
       </c>
       <c r="F77" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2916000</v>
       </c>
       <c r="G77" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>76</v>
       </c>
       <c r="H77" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5.7</v>
       </c>
       <c r="I77">
@@ -5931,31 +6459,31 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>76</v>
       </c>
       <c r="C78" s="5">
+        <f t="shared" si="12"/>
+        <v>83567483.900602609</v>
+      </c>
+      <c r="D78" s="5">
+        <f t="shared" si="11"/>
+        <v>342</v>
+      </c>
+      <c r="E78" s="5">
         <f t="shared" si="9"/>
-        <v>83567483.900602609</v>
-      </c>
-      <c r="D78" s="5">
-        <f xml:space="preserve"> (3 * B78 * 1.5) * (1 + I78 * 0.1)</f>
-        <v>342</v>
-      </c>
-      <c r="E78" s="5">
-        <f t="shared" si="8"/>
         <v>244349.36813041699</v>
       </c>
       <c r="F78" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2954880</v>
       </c>
       <c r="G78" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>77</v>
       </c>
       <c r="H78" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5.7750000000000004</v>
       </c>
       <c r="I78">
@@ -5967,31 +6495,31 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>77</v>
       </c>
       <c r="C79" s="5">
+        <f t="shared" si="12"/>
+        <v>92946318.988398343</v>
+      </c>
+      <c r="D79" s="5">
+        <f t="shared" si="11"/>
+        <v>346.5</v>
+      </c>
+      <c r="E79" s="5">
         <f t="shared" si="9"/>
-        <v>92946318.988398343</v>
-      </c>
-      <c r="D79" s="5">
-        <f xml:space="preserve"> (3 * B79 * 1.5) * (1 + I79 * 0.1)</f>
-        <v>346.5</v>
-      </c>
-      <c r="E79" s="5">
-        <f t="shared" si="8"/>
         <v>268243.34484386246</v>
       </c>
       <c r="F79" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2993760</v>
       </c>
       <c r="G79" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>78</v>
       </c>
       <c r="H79" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5.85</v>
       </c>
       <c r="I79">
@@ -6003,31 +6531,31 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>78</v>
       </c>
       <c r="C80" s="5">
+        <f t="shared" si="12"/>
+        <v>103326786.66633198</v>
+      </c>
+      <c r="D80" s="5">
+        <f t="shared" si="11"/>
+        <v>351</v>
+      </c>
+      <c r="E80" s="5">
         <f t="shared" si="9"/>
-        <v>103326786.66633198</v>
-      </c>
-      <c r="D80" s="5">
-        <f xml:space="preserve"> (3 * B80 * 1.5) * (1 + I80 * 0.1)</f>
-        <v>351</v>
-      </c>
-      <c r="E80" s="5">
-        <f t="shared" si="8"/>
         <v>294378.30959068937</v>
       </c>
       <c r="F80" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3032640</v>
       </c>
       <c r="G80" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>79</v>
       </c>
       <c r="H80" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5.9249999999999998</v>
       </c>
       <c r="I80">
@@ -6039,31 +6567,31 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>79</v>
       </c>
       <c r="C81" s="5">
+        <f t="shared" si="12"/>
+        <v>114811369.95584519</v>
+      </c>
+      <c r="D81" s="5">
+        <f t="shared" si="11"/>
+        <v>355.5</v>
+      </c>
+      <c r="E81" s="5">
         <f t="shared" si="9"/>
-        <v>114811369.95584519</v>
-      </c>
-      <c r="D81" s="5">
-        <f xml:space="preserve"> (3 * B81 * 1.5) * (1 + I81 * 0.1)</f>
-        <v>355.5</v>
-      </c>
-      <c r="E81" s="5">
-        <f t="shared" si="8"/>
         <v>322957.44010083034</v>
       </c>
       <c r="F81" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3071520</v>
       </c>
       <c r="G81" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>80</v>
       </c>
       <c r="H81" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="I81">
@@ -6075,31 +6603,31 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
       <c r="C82" s="5">
+        <f t="shared" si="12"/>
+        <v>127512660.43268541</v>
+      </c>
+      <c r="D82" s="5">
+        <f t="shared" si="11"/>
+        <v>360</v>
+      </c>
+      <c r="E82" s="5">
         <f t="shared" si="9"/>
-        <v>127512660.43268541</v>
-      </c>
-      <c r="D82" s="5">
-        <f xml:space="preserve"> (3 * B82 * 1.5) * (1 + I82 * 0.1)</f>
-        <v>360</v>
-      </c>
-      <c r="E82" s="5">
-        <f t="shared" si="8"/>
         <v>354201.83453523723</v>
       </c>
       <c r="F82" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3110400</v>
       </c>
       <c r="G82" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>81</v>
       </c>
       <c r="H82" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>6.0750000000000002</v>
       </c>
       <c r="I82">
@@ -6111,31 +6639,31 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>81</v>
       </c>
       <c r="C83" s="5">
+        <f t="shared" si="12"/>
+        <v>141554324.67536402</v>
+      </c>
+      <c r="D83" s="5">
+        <f t="shared" si="11"/>
+        <v>364.5</v>
+      </c>
+      <c r="E83" s="5">
         <f t="shared" si="9"/>
-        <v>141554324.67536402</v>
-      </c>
-      <c r="D83" s="5">
-        <f xml:space="preserve"> (3 * B83 * 1.5) * (1 + I83 * 0.1)</f>
-        <v>364.5</v>
-      </c>
-      <c r="E83" s="5">
-        <f t="shared" si="8"/>
         <v>388352.05672253505</v>
       </c>
       <c r="F83" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3149280</v>
       </c>
       <c r="G83" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>82</v>
       </c>
       <c r="H83" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>6.15</v>
       </c>
       <c r="I83">
@@ -6147,31 +6675,31 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>82</v>
       </c>
       <c r="C84" s="5">
+        <f t="shared" si="12"/>
+        <v>157072160.68519354</v>
+      </c>
+      <c r="D84" s="5">
+        <f t="shared" si="11"/>
+        <v>369</v>
+      </c>
+      <c r="E84" s="5">
         <f t="shared" si="9"/>
-        <v>157072160.68519354</v>
-      </c>
-      <c r="D84" s="5">
-        <f xml:space="preserve"> (3 * B84 * 1.5) * (1 + I84 * 0.1)</f>
-        <v>369</v>
-      </c>
-      <c r="E84" s="5">
-        <f t="shared" si="8"/>
         <v>425669.81215499603</v>
       </c>
       <c r="F84" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3188160</v>
       </c>
       <c r="G84" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>83</v>
       </c>
       <c r="H84" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>6.2249999999999996</v>
       </c>
       <c r="I84">
@@ -6183,31 +6711,31 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>83</v>
       </c>
       <c r="C85" s="5">
+        <f t="shared" si="12"/>
+        <v>174215252.46467996</v>
+      </c>
+      <c r="D85" s="5">
+        <f t="shared" si="11"/>
+        <v>373.5</v>
+      </c>
+      <c r="E85" s="5">
         <f t="shared" si="9"/>
-        <v>174215252.46467996</v>
-      </c>
-      <c r="D85" s="5">
-        <f xml:space="preserve"> (3 * B85 * 1.5) * (1 + I85 * 0.1)</f>
-        <v>373.5</v>
-      </c>
-      <c r="E85" s="5">
-        <f t="shared" si="8"/>
         <v>466439.76563501998</v>
       </c>
       <c r="F85" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3227040</v>
       </c>
       <c r="G85" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>84</v>
       </c>
       <c r="H85" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>6.3</v>
       </c>
       <c r="I85">
@@ -6219,31 +6747,31 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>84</v>
       </c>
       <c r="C86" s="5">
+        <f t="shared" si="12"/>
+        <v>193147231.67144069</v>
+      </c>
+      <c r="D86" s="5">
+        <f t="shared" si="11"/>
+        <v>378</v>
+      </c>
+      <c r="E86" s="5">
         <f t="shared" si="9"/>
-        <v>193147231.67144069</v>
-      </c>
-      <c r="D86" s="5">
-        <f xml:space="preserve"> (3 * B86 * 1.5) * (1 + I86 * 0.1)</f>
-        <v>378</v>
-      </c>
-      <c r="E86" s="5">
-        <f t="shared" si="8"/>
         <v>510971.51235830871</v>
       </c>
       <c r="F86" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3265920</v>
       </c>
       <c r="G86" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>85</v>
       </c>
       <c r="H86" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>6.375</v>
       </c>
       <c r="I86">
@@ -6255,31 +6783,31 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>85</v>
       </c>
       <c r="C87" s="5">
+        <f t="shared" si="12"/>
+        <v>214047656.05926809</v>
+      </c>
+      <c r="D87" s="5">
+        <f t="shared" si="11"/>
+        <v>382.5</v>
+      </c>
+      <c r="E87" s="5">
         <f t="shared" si="9"/>
-        <v>214047656.05926809</v>
-      </c>
-      <c r="D87" s="5">
-        <f xml:space="preserve"> (3 * B87 * 1.5) * (1 + I87 * 0.1)</f>
-        <v>382.5</v>
-      </c>
-      <c r="E87" s="5">
-        <f t="shared" si="8"/>
         <v>559601.71518762899</v>
       </c>
       <c r="F87" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3304800</v>
       </c>
       <c r="G87" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>86</v>
       </c>
       <c r="H87" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>6.45</v>
       </c>
       <c r="I87">
@@ -6291,31 +6819,31 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>86</v>
       </c>
       <c r="C88" s="5">
+        <f t="shared" si="12"/>
+        <v>237113515.28199792</v>
+      </c>
+      <c r="D88" s="5">
+        <f t="shared" si="11"/>
+        <v>387</v>
+      </c>
+      <c r="E88" s="5">
         <f t="shared" si="9"/>
-        <v>237113515.28199792</v>
-      </c>
-      <c r="D88" s="5">
-        <f xml:space="preserve"> (3 * B88 * 1.5) * (1 + I88 * 0.1)</f>
-        <v>387</v>
-      </c>
-      <c r="E88" s="5">
-        <f t="shared" si="8"/>
         <v>612696.42191730731</v>
       </c>
       <c r="F88" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3343680</v>
       </c>
       <c r="G88" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>87</v>
       </c>
       <c r="H88" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>6.5250000000000004</v>
       </c>
       <c r="I88">
@@ -6327,31 +6855,31 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>87</v>
       </c>
       <c r="C89" s="5">
+        <f t="shared" si="12"/>
+        <v>262560875.57547665</v>
+      </c>
+      <c r="D89" s="5">
+        <f t="shared" si="11"/>
+        <v>391.5</v>
+      </c>
+      <c r="E89" s="5">
         <f t="shared" si="9"/>
-        <v>262560875.57547665</v>
-      </c>
-      <c r="D89" s="5">
-        <f xml:space="preserve"> (3 * B89 * 1.5) * (1 + I89 * 0.1)</f>
-        <v>391.5</v>
-      </c>
-      <c r="E89" s="5">
-        <f t="shared" si="8"/>
         <v>670653.57745971042</v>
       </c>
       <c r="F89" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3382560</v>
       </c>
       <c r="G89" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>88</v>
       </c>
       <c r="H89" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>6.6</v>
       </c>
       <c r="I89">
@@ -6363,31 +6891,31 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>88</v>
       </c>
       <c r="C90" s="5">
+        <f t="shared" si="12"/>
+        <v>290626675.85466921</v>
+      </c>
+      <c r="D90" s="5">
+        <f t="shared" si="11"/>
+        <v>396</v>
+      </c>
+      <c r="E90" s="5">
         <f t="shared" si="9"/>
-        <v>290626675.85466921</v>
-      </c>
-      <c r="D90" s="5">
-        <f xml:space="preserve"> (3 * B90 * 1.5) * (1 + I90 * 0.1)</f>
-        <v>396</v>
-      </c>
-      <c r="E90" s="5">
-        <f t="shared" si="8"/>
         <v>733905.7471077505</v>
       </c>
       <c r="F90" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3421440</v>
       </c>
       <c r="G90" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>89</v>
       </c>
       <c r="H90" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>6.6749999999999998</v>
       </c>
       <c r="I90">
@@ -6399,31 +6927,31 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <f t="shared" ref="B91:B99" si="13">A91-1</f>
+        <f t="shared" ref="B91:B99" si="16">A91-1</f>
         <v>89</v>
       </c>
       <c r="C91" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>321570688.87388235</v>
       </c>
       <c r="D91" s="5">
-        <f xml:space="preserve"> (3 * B91 * 1.5) * (1 + I91 * 0.1)</f>
+        <f t="shared" si="11"/>
         <v>400.5</v>
       </c>
       <c r="E91" s="5">
-        <f t="shared" ref="E91:E99" si="14">C91 / D91</f>
+        <f t="shared" ref="E91:E99" si="17">C91 / D91</f>
         <v>802923.06834926934</v>
       </c>
       <c r="F91" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3460320</v>
       </c>
       <c r="G91" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>90</v>
       </c>
       <c r="H91" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>6.75</v>
       </c>
       <c r="I91">
@@ -6435,31 +6963,31 @@
         <v>91</v>
       </c>
       <c r="B92">
+        <f t="shared" si="16"/>
+        <v>90</v>
+      </c>
+      <c r="C92" s="5">
+        <f t="shared" si="12"/>
+        <v>355677662.30586958</v>
+      </c>
+      <c r="D92" s="5">
+        <f t="shared" si="11"/>
+        <v>405</v>
+      </c>
+      <c r="E92" s="5">
+        <f t="shared" si="17"/>
+        <v>878216.45013794955</v>
+      </c>
+      <c r="F92" s="5">
         <f t="shared" si="13"/>
-        <v>90</v>
-      </c>
-      <c r="C92" s="5">
-        <f t="shared" si="9"/>
-        <v>355677662.30586958</v>
-      </c>
-      <c r="D92" s="5">
-        <f xml:space="preserve"> (3 * B92 * 1.5) * (1 + I92 * 0.1)</f>
-        <v>405</v>
-      </c>
-      <c r="E92" s="5">
+        <v>3499200</v>
+      </c>
+      <c r="G92" s="5">
         <f t="shared" si="14"/>
-        <v>878216.45013794955</v>
-      </c>
-      <c r="F92" s="5">
-        <f t="shared" si="10"/>
-        <v>3499200</v>
-      </c>
-      <c r="G92" s="5">
-        <f t="shared" si="11"/>
         <v>91</v>
       </c>
       <c r="H92" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>6.8250000000000002</v>
       </c>
       <c r="I92">
@@ -6471,31 +6999,31 @@
         <v>92</v>
       </c>
       <c r="B93">
+        <f t="shared" si="16"/>
+        <v>91</v>
+      </c>
+      <c r="C93" s="5">
+        <f t="shared" si="12"/>
+        <v>393259655.90855885</v>
+      </c>
+      <c r="D93" s="5">
+        <f t="shared" si="11"/>
+        <v>409.5</v>
+      </c>
+      <c r="E93" s="5">
+        <f t="shared" si="17"/>
+        <v>960341.04006974073</v>
+      </c>
+      <c r="F93" s="5">
         <f t="shared" si="13"/>
-        <v>91</v>
-      </c>
-      <c r="C93" s="5">
-        <f t="shared" si="9"/>
-        <v>393259655.90855885</v>
-      </c>
-      <c r="D93" s="5">
-        <f xml:space="preserve"> (3 * B93 * 1.5) * (1 + I93 * 0.1)</f>
-        <v>409.5</v>
-      </c>
-      <c r="E93" s="5">
+        <v>3538080</v>
+      </c>
+      <c r="G93" s="5">
         <f t="shared" si="14"/>
-        <v>960341.04006974073</v>
-      </c>
-      <c r="F93" s="5">
-        <f t="shared" si="10"/>
-        <v>3538080</v>
-      </c>
-      <c r="G93" s="5">
-        <f t="shared" si="11"/>
         <v>92</v>
       </c>
       <c r="H93" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>6.9</v>
       </c>
       <c r="I93">
@@ -6507,31 +7035,31 @@
         <v>93</v>
       </c>
       <c r="B94">
+        <f t="shared" si="16"/>
+        <v>92</v>
+      </c>
+      <c r="C94" s="5">
+        <f t="shared" si="12"/>
+        <v>434658592.37533802</v>
+      </c>
+      <c r="D94" s="5">
+        <f t="shared" si="11"/>
+        <v>414</v>
+      </c>
+      <c r="E94" s="5">
+        <f t="shared" si="17"/>
+        <v>1049899.9815829422</v>
+      </c>
+      <c r="F94" s="5">
         <f t="shared" si="13"/>
-        <v>92</v>
-      </c>
-      <c r="C94" s="5">
-        <f t="shared" si="9"/>
-        <v>434658592.37533802</v>
-      </c>
-      <c r="D94" s="5">
-        <f xml:space="preserve"> (3 * B94 * 1.5) * (1 + I94 * 0.1)</f>
-        <v>414</v>
-      </c>
-      <c r="E94" s="5">
+        <v>3576960</v>
+      </c>
+      <c r="G94" s="5">
         <f t="shared" si="14"/>
-        <v>1049899.9815829422</v>
-      </c>
-      <c r="F94" s="5">
-        <f t="shared" si="10"/>
-        <v>3576960</v>
-      </c>
-      <c r="G94" s="5">
-        <f t="shared" si="11"/>
         <v>93</v>
       </c>
       <c r="H94" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>6.9749999999999996</v>
       </c>
       <c r="I94">
@@ -6543,31 +7071,31 @@
         <v>94</v>
       </c>
       <c r="B95">
+        <f t="shared" si="16"/>
+        <v>93</v>
+      </c>
+      <c r="C95" s="5">
+        <f t="shared" si="12"/>
+        <v>480249041.01603335</v>
+      </c>
+      <c r="D95" s="5">
+        <f t="shared" si="11"/>
+        <v>418.5</v>
+      </c>
+      <c r="E95" s="5">
+        <f t="shared" si="17"/>
+        <v>1147548.4851040223</v>
+      </c>
+      <c r="F95" s="5">
         <f t="shared" si="13"/>
-        <v>93</v>
-      </c>
-      <c r="C95" s="5">
-        <f t="shared" si="9"/>
-        <v>480249041.01603335</v>
-      </c>
-      <c r="D95" s="5">
-        <f xml:space="preserve"> (3 * B95 * 1.5) * (1 + I95 * 0.1)</f>
-        <v>418.5</v>
-      </c>
-      <c r="E95" s="5">
+        <v>3615840</v>
+      </c>
+      <c r="G95" s="5">
         <f t="shared" si="14"/>
-        <v>1147548.4851040223</v>
-      </c>
-      <c r="F95" s="5">
-        <f t="shared" si="10"/>
-        <v>3615840</v>
-      </c>
-      <c r="G95" s="5">
-        <f t="shared" si="11"/>
         <v>94</v>
       </c>
       <c r="H95" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>7.05</v>
       </c>
       <c r="I95">
@@ -6579,31 +7107,31 @@
         <v>95</v>
       </c>
       <c r="B96">
+        <f t="shared" si="16"/>
+        <v>94</v>
+      </c>
+      <c r="C96" s="5">
+        <f t="shared" si="12"/>
+        <v>530441255.10156959</v>
+      </c>
+      <c r="D96" s="5">
+        <f t="shared" si="11"/>
+        <v>423</v>
+      </c>
+      <c r="E96" s="5">
+        <f t="shared" si="17"/>
+        <v>1253998.2390108029</v>
+      </c>
+      <c r="F96" s="5">
         <f t="shared" si="13"/>
-        <v>94</v>
-      </c>
-      <c r="C96" s="5">
-        <f t="shared" si="9"/>
-        <v>530441255.10156959</v>
-      </c>
-      <c r="D96" s="5">
-        <f xml:space="preserve"> (3 * B96 * 1.5) * (1 + I96 * 0.1)</f>
-        <v>423</v>
-      </c>
-      <c r="E96" s="5">
+        <v>3654720</v>
+      </c>
+      <c r="G96" s="5">
         <f t="shared" si="14"/>
-        <v>1253998.2390108029</v>
-      </c>
-      <c r="F96" s="5">
-        <f t="shared" si="10"/>
-        <v>3654720</v>
-      </c>
-      <c r="G96" s="5">
-        <f t="shared" si="11"/>
         <v>95</v>
       </c>
       <c r="H96" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>7.125</v>
       </c>
       <c r="I96">
@@ -6615,31 +7143,31 @@
         <v>96</v>
       </c>
       <c r="B97">
+        <f t="shared" si="16"/>
+        <v>95</v>
+      </c>
+      <c r="C97" s="5">
+        <f t="shared" si="12"/>
+        <v>585684485.53731024</v>
+      </c>
+      <c r="D97" s="5">
+        <f t="shared" si="11"/>
+        <v>427.5</v>
+      </c>
+      <c r="E97" s="5">
+        <f t="shared" si="17"/>
+        <v>1370022.1883913691</v>
+      </c>
+      <c r="F97" s="5">
         <f t="shared" si="13"/>
-        <v>95</v>
-      </c>
-      <c r="C97" s="5">
-        <f t="shared" si="9"/>
-        <v>585684485.53731024</v>
-      </c>
-      <c r="D97" s="5">
-        <f xml:space="preserve"> (3 * B97 * 1.5) * (1 + I97 * 0.1)</f>
-        <v>427.5</v>
-      </c>
-      <c r="E97" s="5">
+        <v>3693600</v>
+      </c>
+      <c r="G97" s="5">
         <f t="shared" si="14"/>
-        <v>1370022.1883913691</v>
-      </c>
-      <c r="F97" s="5">
-        <f t="shared" si="10"/>
-        <v>3693600</v>
-      </c>
-      <c r="G97" s="5">
-        <f t="shared" si="11"/>
         <v>96</v>
       </c>
       <c r="H97" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>7.2</v>
       </c>
       <c r="I97">
@@ -6651,31 +7179,31 @@
         <v>97</v>
       </c>
       <c r="B98">
+        <f t="shared" si="16"/>
+        <v>96</v>
+      </c>
+      <c r="C98" s="5">
+        <f t="shared" si="12"/>
+        <v>646470595.52077591</v>
+      </c>
+      <c r="D98" s="5">
+        <f t="shared" si="11"/>
+        <v>432</v>
+      </c>
+      <c r="E98" s="5">
+        <f t="shared" si="17"/>
+        <v>1496459.7118536478</v>
+      </c>
+      <c r="F98" s="5">
         <f t="shared" si="13"/>
-        <v>96</v>
-      </c>
-      <c r="C98" s="5">
-        <f t="shared" si="9"/>
-        <v>646470595.52077591</v>
-      </c>
-      <c r="D98" s="5">
-        <f xml:space="preserve"> (3 * B98 * 1.5) * (1 + I98 * 0.1)</f>
-        <v>432</v>
-      </c>
-      <c r="E98" s="5">
+        <v>3732480</v>
+      </c>
+      <c r="G98" s="5">
         <f t="shared" si="14"/>
-        <v>1496459.7118536478</v>
-      </c>
-      <c r="F98" s="5">
-        <f t="shared" si="10"/>
-        <v>3732480</v>
-      </c>
-      <c r="G98" s="5">
-        <f t="shared" si="11"/>
         <v>97</v>
       </c>
       <c r="H98" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>7.2750000000000004</v>
       </c>
       <c r="I98">
@@ -6687,31 +7215,31 @@
         <v>98</v>
       </c>
       <c r="B99">
+        <f t="shared" si="16"/>
+        <v>97</v>
+      </c>
+      <c r="C99" s="5">
+        <f t="shared" si="12"/>
+        <v>713338003.00234652</v>
+      </c>
+      <c r="D99" s="5">
+        <f t="shared" si="11"/>
+        <v>436.5</v>
+      </c>
+      <c r="E99" s="5">
+        <f t="shared" si="17"/>
+        <v>1634222.2291004502</v>
+      </c>
+      <c r="F99" s="5">
         <f t="shared" si="13"/>
-        <v>97</v>
-      </c>
-      <c r="C99" s="5">
-        <f t="shared" si="9"/>
-        <v>713338003.00234652</v>
-      </c>
-      <c r="D99" s="5">
-        <f xml:space="preserve"> (3 * B99 * 1.5) * (1 + I99 * 0.1)</f>
-        <v>436.5</v>
-      </c>
-      <c r="E99" s="5">
+        <v>3771360</v>
+      </c>
+      <c r="G99" s="5">
         <f t="shared" si="14"/>
-        <v>1634222.2291004502</v>
-      </c>
-      <c r="F99" s="5">
-        <f t="shared" si="10"/>
-        <v>3771360</v>
-      </c>
-      <c r="G99" s="5">
-        <f t="shared" si="11"/>
         <v>98</v>
       </c>
       <c r="H99" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>7.35</v>
       </c>
       <c r="I99">
@@ -6727,11 +7255,11 @@
         <v>98</v>
       </c>
       <c r="C100" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>786875980.11742806</v>
       </c>
       <c r="D100" s="5">
-        <f xml:space="preserve"> (3 * B100 * 1.5) * (1 + I100 * 0.1)</f>
+        <f t="shared" si="11"/>
         <v>441</v>
       </c>
       <c r="E100" s="5">
@@ -6739,15 +7267,15 @@
         <v>1784299.274642694</v>
       </c>
       <c r="F100" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3810240</v>
       </c>
       <c r="G100" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>99</v>
       </c>
       <c r="H100" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>7.4249999999999998</v>
       </c>
       <c r="I100">
@@ -6763,11 +7291,11 @@
         <v>99</v>
       </c>
       <c r="C101" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>867729341.31129611</v>
       </c>
       <c r="D101" s="5">
-        <f xml:space="preserve"> (3 * B101 * 1.5) * (1 + I101 * 0.1)</f>
+        <f t="shared" si="11"/>
         <v>445.5</v>
       </c>
       <c r="E101" s="5">
@@ -6775,15 +7303,15 @@
         <v>1947765.0758951653</v>
       </c>
       <c r="F101" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3849120</v>
       </c>
       <c r="G101" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="H101" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>7.5</v>
       </c>
       <c r="I101">

--- a/tools/luban/Datas/Enemys.xlsx
+++ b/tools/luban/Datas/Enemys.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CE5ADF-CC5D-4FC2-8896-C370D2DF45B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67934AF5-3A5B-436E-BC42-AD83B3894210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enemy" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="145">
   <si>
     <t>##var</t>
   </si>
@@ -298,23 +298,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>骷髅弓箭手4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨人骷髅4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨人骷髅5</t>
-  </si>
-  <si>
-    <t>巨人骷髅6</t>
-  </si>
-  <si>
-    <t>巨人骷髅7</t>
-  </si>
-  <si>
     <t>Mummy3</t>
   </si>
   <si>
@@ -382,10 +365,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>吸血鬼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Goblin2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -437,36 +416,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Vampire2</t>
-  </si>
-  <si>
     <t>Vampire3</t>
   </si>
   <si>
-    <t>Vampire4</t>
-  </si>
-  <si>
-    <t>Vampire5</t>
-  </si>
-  <si>
-    <t>Vampire6</t>
-  </si>
-  <si>
-    <t>Vampire7</t>
-  </si>
-  <si>
-    <t>Vampire8</t>
-  </si>
-  <si>
-    <t>Vampire9</t>
-  </si>
-  <si>
-    <t>Vampire10</t>
-  </si>
-  <si>
-    <t>Vampire11</t>
-  </si>
-  <si>
     <t>幻境之门</t>
   </si>
   <si>
@@ -584,6 +536,68 @@
   </si>
   <si>
     <t>Satry3</t>
+  </si>
+  <si>
+    <t>射谁谁死·骷髅王</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸血撒娇·血族公主</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>就吃一口·风度男爵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扑通·木乃西</t>
+  </si>
+  <si>
+    <t>Vampire1</t>
+  </si>
+  <si>
+    <t>超级飞猪·重量级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨灰级·骷髅上将</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>枝繁叶茂·灌木</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡飞蛋打·从不失手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>咩咩咩·洋洋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>山的那边·绿精灵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨感</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘包装·尼罗尼罗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>月黑风高·注意时机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五毛一条·括号删除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>射谁谁跑·五星上将</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -968,10 +982,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I25" sqref="E25:I25"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1013,13 +1027,13 @@
         <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>20</v>
@@ -1147,13 +1161,13 @@
         <v>53</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>10</v>
@@ -1465,7 +1479,7 @@
         <v>36</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E10" s="3">
         <v>240</v>
@@ -1519,7 +1533,7 @@
         <v>37</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E11" s="3">
         <v>80</v>
@@ -1573,7 +1587,7 @@
         <v>38</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E12" s="3">
         <v>120</v>
@@ -1627,7 +1641,7 @@
         <v>39</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E13" s="3">
         <v>200</v>
@@ -1840,10 +1854,10 @@
         <v>7013</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E17" s="3">
         <v>50</v>
@@ -1894,10 +1908,10 @@
         <v>7014</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E18" s="3">
         <v>100</v>
@@ -1948,10 +1962,10 @@
         <v>7015</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="E19" s="3">
         <v>100</v>
@@ -2002,10 +2016,10 @@
         <v>7016</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
@@ -2056,10 +2070,10 @@
         <v>7017</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="E21" s="3">
         <v>100</v>
@@ -2110,10 +2124,10 @@
         <v>7018</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
@@ -2164,10 +2178,10 @@
         <v>7019</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="E23" s="3">
         <v>100</v>
@@ -2218,10 +2232,10 @@
         <v>7020</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
@@ -2272,10 +2286,10 @@
         <v>7021</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="E25" s="3">
         <v>100</v>
@@ -2588,15 +2602,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA639C1-B7A9-4558-AA8A-6FFF02A6BAEF}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A20"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="5" width="17.625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2607,43 +2625,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2654,13 +2678,13 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>29</v>
@@ -2689,8 +2713,14 @@
       <c r="O2" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="P2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2708,8 +2738,10 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -2720,67 +2752,73 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B5" s="3">
         <v>1001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>46</v>
+        <v>129</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1200</v>
       </c>
       <c r="E5" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="3">
         <v>1000</v>
       </c>
-      <c r="F5" s="3">
+      <c r="H5" s="3">
         <v>400</v>
       </c>
-      <c r="G5" s="3">
-        <v>2</v>
-      </c>
-      <c r="H5" s="3">
-        <v>2</v>
-      </c>
       <c r="I5" s="3">
         <v>2</v>
       </c>
@@ -2800,33 +2838,39 @@
         <v>2</v>
       </c>
       <c r="O5" s="3">
+        <v>2</v>
+      </c>
+      <c r="P5" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B6" s="3">
         <v>1002</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>46</v>
+        <v>132</v>
+      </c>
+      <c r="D6" s="3">
+        <v>360</v>
       </c>
       <c r="E6" s="3">
+        <v>125</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="3">
         <v>2000</v>
       </c>
-      <c r="F6" s="3">
+      <c r="H6" s="3">
         <v>500</v>
-      </c>
-      <c r="G6" s="3">
-        <v>20</v>
-      </c>
-      <c r="H6" s="3">
-        <v>20</v>
       </c>
       <c r="I6" s="3">
         <v>20</v>
@@ -2847,33 +2891,39 @@
         <v>20</v>
       </c>
       <c r="O6" s="3">
+        <v>20</v>
+      </c>
+      <c r="P6" s="3">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B7" s="3">
         <v>1003</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="3">
+        <v>360</v>
+      </c>
+      <c r="E7" s="3">
+        <v>125</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="3">
+      <c r="G7" s="3">
         <v>3000</v>
       </c>
-      <c r="F7" s="3">
+      <c r="H7" s="3">
         <v>700</v>
-      </c>
-      <c r="G7" s="3">
-        <v>30</v>
-      </c>
-      <c r="H7" s="3">
-        <v>30</v>
       </c>
       <c r="I7" s="3">
         <v>30</v>
@@ -2894,33 +2944,39 @@
         <v>30</v>
       </c>
       <c r="O7" s="3">
+        <v>30</v>
+      </c>
+      <c r="P7" s="3">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B8" s="3">
         <v>1004</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>44</v>
+        <v>135</v>
+      </c>
+      <c r="D8" s="3">
+        <v>360</v>
       </c>
       <c r="E8" s="3">
+        <v>125</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="3">
         <v>4000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>800</v>
-      </c>
-      <c r="G8" s="3">
-        <v>40</v>
-      </c>
-      <c r="H8" s="3">
-        <v>40</v>
       </c>
       <c r="I8" s="3">
         <v>40</v>
@@ -2941,33 +2997,39 @@
         <v>40</v>
       </c>
       <c r="O8" s="3">
+        <v>40</v>
+      </c>
+      <c r="P8" s="3">
+        <v>40</v>
+      </c>
+      <c r="Q8" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B9" s="3">
         <v>1005</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>45</v>
+        <v>136</v>
+      </c>
+      <c r="D9" s="3">
+        <v>360</v>
       </c>
       <c r="E9" s="3">
+        <v>125</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" s="3">
         <v>6000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1000</v>
-      </c>
-      <c r="G9" s="3">
-        <v>60</v>
-      </c>
-      <c r="H9" s="3">
-        <v>60</v>
       </c>
       <c r="I9" s="3">
         <v>60</v>
@@ -2988,33 +3050,39 @@
         <v>60</v>
       </c>
       <c r="O9" s="3">
+        <v>60</v>
+      </c>
+      <c r="P9" s="3">
+        <v>60</v>
+      </c>
+      <c r="Q9" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B10" s="3">
         <v>1006</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
+      </c>
+      <c r="D10" s="3">
+        <v>360</v>
       </c>
       <c r="E10" s="3">
+        <v>125</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G10" s="3">
         <v>10000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>2000</v>
-      </c>
-      <c r="G10" s="3">
-        <v>100</v>
-      </c>
-      <c r="H10" s="3">
-        <v>100</v>
       </c>
       <c r="I10" s="3">
         <v>100</v>
@@ -3035,34 +3103,40 @@
         <v>100</v>
       </c>
       <c r="O10" s="3">
+        <v>100</v>
+      </c>
+      <c r="P10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B11" s="3">
         <v>1007</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>101</v>
+        <v>130</v>
+      </c>
+      <c r="D11" s="3">
+        <v>360</v>
       </c>
       <c r="E11" s="3">
+        <v>125</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="3">
         <v>1000</v>
       </c>
-      <c r="F11" s="3">
+      <c r="H11" s="3">
         <v>400</v>
       </c>
-      <c r="G11" s="3">
-        <v>2</v>
-      </c>
-      <c r="H11" s="3">
-        <v>2</v>
-      </c>
       <c r="I11" s="3">
         <v>2</v>
       </c>
@@ -3082,34 +3156,40 @@
         <v>2</v>
       </c>
       <c r="O11" s="3">
+        <v>2</v>
+      </c>
+      <c r="P11" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B12" s="3">
         <v>1008</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>102</v>
+        <v>131</v>
+      </c>
+      <c r="D12" s="3">
+        <v>360</v>
       </c>
       <c r="E12" s="3">
+        <v>125</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="3">
         <v>1000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>400</v>
       </c>
-      <c r="G12" s="3">
-        <v>2</v>
-      </c>
-      <c r="H12" s="3">
-        <v>2</v>
-      </c>
       <c r="I12" s="3">
         <v>2</v>
       </c>
@@ -3129,34 +3209,40 @@
         <v>2</v>
       </c>
       <c r="O12" s="3">
+        <v>2</v>
+      </c>
+      <c r="P12" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B13" s="3">
         <v>1009</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>103</v>
+        <v>137</v>
+      </c>
+      <c r="D13" s="3">
+        <v>360</v>
       </c>
       <c r="E13" s="3">
+        <v>125</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" s="3">
         <v>1000</v>
       </c>
-      <c r="F13" s="3">
+      <c r="H13" s="3">
         <v>400</v>
       </c>
-      <c r="G13" s="3">
-        <v>2</v>
-      </c>
-      <c r="H13" s="3">
-        <v>2</v>
-      </c>
       <c r="I13" s="3">
         <v>2</v>
       </c>
@@ -3176,34 +3262,40 @@
         <v>2</v>
       </c>
       <c r="O13" s="3">
+        <v>2</v>
+      </c>
+      <c r="P13" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B14" s="3">
         <v>1010</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>104</v>
+        <v>138</v>
+      </c>
+      <c r="D14" s="3">
+        <v>360</v>
       </c>
       <c r="E14" s="3">
+        <v>125</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" s="3">
         <v>1000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>400</v>
       </c>
-      <c r="G14" s="3">
-        <v>2</v>
-      </c>
-      <c r="H14" s="3">
-        <v>2</v>
-      </c>
       <c r="I14" s="3">
         <v>2</v>
       </c>
@@ -3223,34 +3315,40 @@
         <v>2</v>
       </c>
       <c r="O14" s="3">
+        <v>2</v>
+      </c>
+      <c r="P14" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B15" s="3">
         <v>1011</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>105</v>
+        <v>139</v>
+      </c>
+      <c r="D15" s="3">
+        <v>360</v>
       </c>
       <c r="E15" s="3">
+        <v>125</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="3">
         <v>1000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>400</v>
       </c>
-      <c r="G15" s="3">
-        <v>2</v>
-      </c>
-      <c r="H15" s="3">
-        <v>2</v>
-      </c>
       <c r="I15" s="3">
         <v>2</v>
       </c>
@@ -3270,34 +3368,40 @@
         <v>2</v>
       </c>
       <c r="O15" s="3">
+        <v>2</v>
+      </c>
+      <c r="P15" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B16" s="3">
         <v>1012</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>106</v>
+        <v>140</v>
+      </c>
+      <c r="D16" s="3">
+        <v>360</v>
       </c>
       <c r="E16" s="3">
+        <v>125</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="3">
         <v>1000</v>
       </c>
-      <c r="F16" s="3">
+      <c r="H16" s="3">
         <v>400</v>
       </c>
-      <c r="G16" s="3">
-        <v>2</v>
-      </c>
-      <c r="H16" s="3">
-        <v>2</v>
-      </c>
       <c r="I16" s="3">
         <v>2</v>
       </c>
@@ -3317,34 +3421,40 @@
         <v>2</v>
       </c>
       <c r="O16" s="3">
+        <v>2</v>
+      </c>
+      <c r="P16" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B17" s="3">
         <v>1013</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>107</v>
+        <v>141</v>
+      </c>
+      <c r="D17" s="3">
+        <v>360</v>
       </c>
       <c r="E17" s="3">
+        <v>125</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
-        <v>2</v>
-      </c>
-      <c r="H17" s="3">
-        <v>2</v>
-      </c>
       <c r="I17" s="3">
         <v>2</v>
       </c>
@@ -3364,34 +3474,40 @@
         <v>2</v>
       </c>
       <c r="O17" s="3">
+        <v>2</v>
+      </c>
+      <c r="P17" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B18" s="3">
         <v>1014</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>108</v>
+        <v>143</v>
+      </c>
+      <c r="D18" s="3">
+        <v>360</v>
       </c>
       <c r="E18" s="3">
+        <v>125</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" s="3">
         <v>1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>400</v>
       </c>
-      <c r="G18" s="3">
-        <v>2</v>
-      </c>
-      <c r="H18" s="3">
-        <v>2</v>
-      </c>
       <c r="I18" s="3">
         <v>2</v>
       </c>
@@ -3411,34 +3527,40 @@
         <v>2</v>
       </c>
       <c r="O18" s="3">
+        <v>2</v>
+      </c>
+      <c r="P18" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B19" s="3">
         <v>1015</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>109</v>
+        <v>142</v>
+      </c>
+      <c r="D19" s="3">
+        <v>360</v>
       </c>
       <c r="E19" s="3">
+        <v>125</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" s="3">
         <v>1000</v>
       </c>
-      <c r="F19" s="3">
+      <c r="H19" s="3">
         <v>400</v>
       </c>
-      <c r="G19" s="3">
-        <v>2</v>
-      </c>
-      <c r="H19" s="3">
-        <v>2</v>
-      </c>
       <c r="I19" s="3">
         <v>2</v>
       </c>
@@ -3458,34 +3580,40 @@
         <v>2</v>
       </c>
       <c r="O19" s="3">
+        <v>2</v>
+      </c>
+      <c r="P19" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B20" s="3">
         <v>1016</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>110</v>
+        <v>144</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1200</v>
       </c>
       <c r="E20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
-        <v>2</v>
-      </c>
-      <c r="H20" s="3">
-        <v>2</v>
-      </c>
       <c r="I20" s="3">
         <v>2</v>
       </c>
@@ -3505,10 +3633,16 @@
         <v>2</v>
       </c>
       <c r="O20" s="3">
+        <v>2</v>
+      </c>
+      <c r="P20" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3524,8 +3658,10 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+    </row>
+    <row r="22" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3541,6 +3677,8 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3613,60 +3751,60 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" t="s">
         <v>74</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>79</v>
-      </c>
-      <c r="C12" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -3702,19 +3840,19 @@
         <v>60</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>63</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>64</v>

--- a/tools/luban/Datas/Enemys.xlsx
+++ b/tools/luban/Datas/Enemys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67934AF5-3A5B-436E-BC42-AD83B3894210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE6FF2A-79A1-4944-9664-8DFD1F0A976A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -985,7 +985,7 @@
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:G4"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -993,20 +993,19 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="15.125" customWidth="1"/>
-    <col min="7" max="7" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="6.875" customWidth="1"/>
+    <col min="5" max="5" width="8.125" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="7" width="8.75" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.25" customWidth="1"/>
+    <col min="10" max="10" width="9.625" customWidth="1"/>
+    <col min="11" max="11" width="9.125" customWidth="1"/>
+    <col min="12" max="12" width="9.25" customWidth="1"/>
+    <col min="13" max="14" width="9.75" customWidth="1"/>
+    <col min="15" max="15" width="11.25" customWidth="1"/>
+    <col min="16" max="16" width="9.375" customWidth="1"/>
+    <col min="17" max="17" width="9.875" customWidth="1"/>
     <col min="18" max="18" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1224,19 +1223,19 @@
         <v>0.2</v>
       </c>
       <c r="I5" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J5" s="3">
         <v>0.1</v>
       </c>
       <c r="K5" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="3">
         <v>0</v>
@@ -1287,10 +1286,10 @@
         <v>0.1</v>
       </c>
       <c r="L6" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="3">
         <v>0</v>
@@ -1332,7 +1331,7 @@
         <v>0.2</v>
       </c>
       <c r="I7" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J7" s="3">
         <v>0.1</v>
@@ -1344,7 +1343,7 @@
         <v>0.1</v>
       </c>
       <c r="M7" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="3">
         <v>0</v>
@@ -1374,7 +1373,7 @@
         <v>47</v>
       </c>
       <c r="E8" s="3">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="F8" s="3">
         <v>360</v>
@@ -1398,10 +1397,10 @@
         <v>0.1</v>
       </c>
       <c r="M8" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -1413,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="R8" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="18" x14ac:dyDescent="0.35">
@@ -1428,7 +1427,7 @@
         <v>48</v>
       </c>
       <c r="E9" s="3">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="F9" s="3">
         <v>360</v>
@@ -1440,7 +1439,7 @@
         <v>0.2</v>
       </c>
       <c r="I9" s="3">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="J9" s="3">
         <v>0.1</v>
@@ -1455,10 +1454,10 @@
         <v>0.1</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
@@ -1467,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="18" x14ac:dyDescent="0.35">
@@ -1482,7 +1481,7 @@
         <v>65</v>
       </c>
       <c r="E10" s="3">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="F10" s="3">
         <v>360</v>
@@ -1494,7 +1493,7 @@
         <v>0.2</v>
       </c>
       <c r="I10" s="3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J10" s="3">
         <v>0.1</v>
@@ -1509,19 +1508,19 @@
         <v>0.1</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P10" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
       </c>
       <c r="R10" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="18" x14ac:dyDescent="0.35">
@@ -1536,7 +1535,7 @@
         <v>86</v>
       </c>
       <c r="E11" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F11" s="3">
         <v>1200</v>
@@ -1545,22 +1544,22 @@
         <v>1200</v>
       </c>
       <c r="H11" s="3">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I11" s="3">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J11" s="3">
         <v>0.1</v>
       </c>
       <c r="K11" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="3">
         <v>0</v>
@@ -1575,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="18" x14ac:dyDescent="0.35">
@@ -1590,7 +1589,7 @@
         <v>93</v>
       </c>
       <c r="E12" s="3">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F12" s="3">
         <v>1200</v>
@@ -1599,10 +1598,10 @@
         <v>1200</v>
       </c>
       <c r="H12" s="3">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I12" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J12" s="3">
         <v>0.1</v>
@@ -1611,10 +1610,10 @@
         <v>0.1</v>
       </c>
       <c r="L12" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="3">
         <v>0</v>
@@ -1629,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="18" x14ac:dyDescent="0.35">
@@ -1644,7 +1643,7 @@
         <v>94</v>
       </c>
       <c r="E13" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F13" s="3">
         <v>1200</v>
@@ -1653,10 +1652,10 @@
         <v>1200</v>
       </c>
       <c r="H13" s="3">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I13" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J13" s="3">
         <v>0.1</v>
@@ -1668,7 +1667,7 @@
         <v>0.1</v>
       </c>
       <c r="M13" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="3">
         <v>0</v>
@@ -1683,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="R13" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="18" x14ac:dyDescent="0.35">
@@ -1698,7 +1697,7 @@
         <v>44</v>
       </c>
       <c r="E14" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F14" s="3">
         <v>360</v>
@@ -1710,7 +1709,7 @@
         <v>0.2</v>
       </c>
       <c r="I14" s="3">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="J14" s="3">
         <v>0.1</v>
@@ -1722,7 +1721,7 @@
         <v>0.1</v>
       </c>
       <c r="M14" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="3">
         <v>0.1</v>
@@ -1737,7 +1736,7 @@
         <v>0.1</v>
       </c>
       <c r="R14" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="18" x14ac:dyDescent="0.35">
@@ -1764,7 +1763,7 @@
         <v>0.2</v>
       </c>
       <c r="I15" s="3">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="J15" s="3">
         <v>0.1</v>
@@ -1779,19 +1778,19 @@
         <v>0.1</v>
       </c>
       <c r="N15" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O15" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="P15" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="Q15" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="R15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="18" x14ac:dyDescent="0.35">
@@ -1806,7 +1805,7 @@
         <v>46</v>
       </c>
       <c r="E16" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F16" s="3">
         <v>360</v>
@@ -1818,7 +1817,7 @@
         <v>0.2</v>
       </c>
       <c r="I16" s="3">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="J16" s="3">
         <v>0.1</v>
@@ -1833,19 +1832,19 @@
         <v>0.1</v>
       </c>
       <c r="N16" s="3">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="O16" s="3">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="P16" s="3">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="Q16" s="3">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="R16" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="18" x14ac:dyDescent="0.35">
@@ -1860,7 +1859,7 @@
         <v>83</v>
       </c>
       <c r="E17" s="3">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="F17" s="3">
         <v>360</v>
@@ -1872,7 +1871,7 @@
         <v>0.2</v>
       </c>
       <c r="I17" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J17" s="3">
         <v>0.1</v>
@@ -1914,7 +1913,7 @@
         <v>82</v>
       </c>
       <c r="E18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F18" s="3">
         <v>360</v>
@@ -1926,7 +1925,7 @@
         <v>0.2</v>
       </c>
       <c r="I18" s="3">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="J18" s="3">
         <v>0.1</v>
@@ -1968,7 +1967,7 @@
         <v>115</v>
       </c>
       <c r="E19" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F19" s="3">
         <v>360</v>
@@ -1980,7 +1979,7 @@
         <v>0.2</v>
       </c>
       <c r="I19" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J19" s="3">
         <v>0.1</v>
@@ -1989,25 +1988,25 @@
         <v>0.1</v>
       </c>
       <c r="L19" s="3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="M19" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N19" s="3">
         <v>0</v>
       </c>
       <c r="O19" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P19" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Q19" s="3">
         <v>0</v>
       </c>
       <c r="R19" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="18" x14ac:dyDescent="0.35">
@@ -2022,7 +2021,7 @@
         <v>118</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="F20" s="3">
         <v>360</v>
@@ -2034,7 +2033,7 @@
         <v>0.2</v>
       </c>
       <c r="I20" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J20" s="3">
         <v>0.1</v>
@@ -2043,7 +2042,7 @@
         <v>0.1</v>
       </c>
       <c r="L20" s="3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="M20" s="3">
         <v>0.1</v>
@@ -2052,16 +2051,16 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="18" x14ac:dyDescent="0.35">
@@ -2076,7 +2075,7 @@
         <v>120</v>
       </c>
       <c r="E21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F21" s="3">
         <v>360</v>
@@ -2088,7 +2087,7 @@
         <v>0.2</v>
       </c>
       <c r="I21" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J21" s="3">
         <v>0.1</v>
@@ -2097,13 +2096,13 @@
         <v>0.1</v>
       </c>
       <c r="L21" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M21" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N21" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O21" s="3">
         <v>0</v>
@@ -2115,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="R21" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="18" x14ac:dyDescent="0.35">
@@ -2130,7 +2129,7 @@
         <v>122</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="F22" s="3">
         <v>360</v>
@@ -2142,7 +2141,7 @@
         <v>0.2</v>
       </c>
       <c r="I22" s="3">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="J22" s="3">
         <v>0.1</v>
@@ -2151,13 +2150,13 @@
         <v>0.1</v>
       </c>
       <c r="L22" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -2169,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="R22" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="18" x14ac:dyDescent="0.35">
@@ -2184,7 +2183,7 @@
         <v>124</v>
       </c>
       <c r="E23" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F23" s="3">
         <v>360</v>
@@ -2196,7 +2195,7 @@
         <v>0.2</v>
       </c>
       <c r="I23" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J23" s="3">
         <v>0.1</v>
@@ -2205,13 +2204,13 @@
         <v>0.1</v>
       </c>
       <c r="L23" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O23" s="3">
         <v>0</v>
@@ -2223,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="R23" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="18" x14ac:dyDescent="0.35">
@@ -2238,7 +2237,7 @@
         <v>126</v>
       </c>
       <c r="E24" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F24" s="3">
         <v>360</v>
@@ -2250,7 +2249,7 @@
         <v>0.2</v>
       </c>
       <c r="I24" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J24" s="3">
         <v>0.1</v>
@@ -2262,7 +2261,7 @@
         <v>0.1</v>
       </c>
       <c r="M24" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -2277,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="18" x14ac:dyDescent="0.35">
@@ -2292,7 +2291,7 @@
         <v>128</v>
       </c>
       <c r="E25" s="3">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="F25" s="3">
         <v>360</v>
@@ -2304,7 +2303,7 @@
         <v>0.2</v>
       </c>
       <c r="I25" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J25" s="3">
         <v>0.1</v>
@@ -2316,7 +2315,7 @@
         <v>0.1</v>
       </c>
       <c r="M25" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N25" s="3">
         <v>0</v>
@@ -2331,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="R25" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="18" x14ac:dyDescent="0.35">
@@ -2604,13 +2603,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA639C1-B7A9-4558-AA8A-6FFF02A6BAEF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="5" width="17.625" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="8.875" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2817,31 +2818,31 @@
         <v>1000</v>
       </c>
       <c r="H5" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I5" s="3">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="J5" s="3">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="K5" s="3">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="L5" s="3">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="M5" s="3">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="N5" s="3">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="O5" s="3">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="P5" s="3">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="Q5" s="3">
         <v>400</v>
@@ -2870,31 +2871,31 @@
         <v>2000</v>
       </c>
       <c r="H6" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I6" s="3">
-        <v>20</v>
+        <v>0.1</v>
       </c>
       <c r="J6" s="3">
-        <v>20</v>
+        <v>0.1</v>
       </c>
       <c r="K6" s="3">
-        <v>20</v>
+        <v>0.1</v>
       </c>
       <c r="L6" s="3">
-        <v>20</v>
+        <v>0.1</v>
       </c>
       <c r="M6" s="3">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="N6" s="3">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="O6" s="3">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="P6" s="3">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="Q6" s="3">
         <v>400</v>
@@ -2920,34 +2921,34 @@
         <v>46</v>
       </c>
       <c r="G7" s="3">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="H7" s="3">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="I7" s="3">
-        <v>30</v>
+        <v>0.1</v>
       </c>
       <c r="J7" s="3">
-        <v>30</v>
+        <v>0.1</v>
       </c>
       <c r="K7" s="3">
-        <v>30</v>
+        <v>0.1</v>
       </c>
       <c r="L7" s="3">
-        <v>30</v>
+        <v>0.1</v>
       </c>
       <c r="M7" s="3">
-        <v>30</v>
+        <v>0.2</v>
       </c>
       <c r="N7" s="3">
-        <v>30</v>
+        <v>0.2</v>
       </c>
       <c r="O7" s="3">
-        <v>30</v>
+        <v>0.2</v>
       </c>
       <c r="P7" s="3">
-        <v>30</v>
+        <v>0.2</v>
       </c>
       <c r="Q7" s="3">
         <v>400</v>
@@ -2973,37 +2974,37 @@
         <v>43</v>
       </c>
       <c r="G8" s="3">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="H8" s="3">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="I8" s="3">
-        <v>40</v>
+        <v>0.2</v>
       </c>
       <c r="J8" s="3">
-        <v>40</v>
+        <v>0.2</v>
       </c>
       <c r="K8" s="3">
-        <v>40</v>
+        <v>0.2</v>
       </c>
       <c r="L8" s="3">
-        <v>40</v>
+        <v>0.2</v>
       </c>
       <c r="M8" s="3">
-        <v>40</v>
+        <v>0.2</v>
       </c>
       <c r="N8" s="3">
-        <v>40</v>
+        <v>0.2</v>
       </c>
       <c r="O8" s="3">
-        <v>40</v>
+        <v>0.2</v>
       </c>
       <c r="P8" s="3">
-        <v>40</v>
+        <v>0.2</v>
       </c>
       <c r="Q8" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="18" x14ac:dyDescent="0.35">
@@ -3026,34 +3027,34 @@
         <v>115</v>
       </c>
       <c r="G9" s="3">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="H9" s="3">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="I9" s="3">
-        <v>60</v>
+        <v>0.1</v>
       </c>
       <c r="J9" s="3">
-        <v>60</v>
+        <v>0.1</v>
       </c>
       <c r="K9" s="3">
-        <v>60</v>
+        <v>0.1</v>
       </c>
       <c r="L9" s="3">
-        <v>60</v>
+        <v>0.1</v>
       </c>
       <c r="M9" s="3">
-        <v>60</v>
+        <v>0.2</v>
       </c>
       <c r="N9" s="3">
-        <v>60</v>
+        <v>0.2</v>
       </c>
       <c r="O9" s="3">
-        <v>60</v>
+        <v>0.2</v>
       </c>
       <c r="P9" s="3">
-        <v>60</v>
+        <v>0.2</v>
       </c>
       <c r="Q9" s="3">
         <v>700</v>
@@ -3079,34 +3080,34 @@
         <v>133</v>
       </c>
       <c r="G10" s="3">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="H10" s="3">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>0.3</v>
       </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>0.3</v>
       </c>
       <c r="K10" s="3">
-        <v>100</v>
+        <v>0.3</v>
       </c>
       <c r="L10" s="3">
-        <v>100</v>
+        <v>0.3</v>
       </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>0.3</v>
       </c>
       <c r="N10" s="3">
-        <v>100</v>
+        <v>0.3</v>
       </c>
       <c r="O10" s="3">
-        <v>100</v>
+        <v>0.3</v>
       </c>
       <c r="P10" s="3">
-        <v>100</v>
+        <v>0.3</v>
       </c>
       <c r="Q10" s="3">
         <v>400</v>
@@ -3132,34 +3133,34 @@
         <v>84</v>
       </c>
       <c r="G11" s="3">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="H11" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I11" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J11" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="K11" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="L11" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="M11" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="N11" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="O11" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="P11" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="Q11" s="3">
         <v>400</v>
@@ -3185,34 +3186,34 @@
         <v>95</v>
       </c>
       <c r="G12" s="3">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="H12" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I12" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J12" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="K12" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="L12" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="M12" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="N12" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="O12" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="P12" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="Q12" s="3">
         <v>400</v>
@@ -3238,34 +3239,34 @@
         <v>120</v>
       </c>
       <c r="G13" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H13" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I13" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J13" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="K13" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="L13" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="M13" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="N13" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="O13" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="P13" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="Q13" s="3">
         <v>400</v>
@@ -3291,34 +3292,34 @@
         <v>126</v>
       </c>
       <c r="G14" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H14" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I14" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J14" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="K14" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="L14" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="M14" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="N14" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="O14" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="P14" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="Q14" s="3">
         <v>400</v>
@@ -3344,34 +3345,34 @@
         <v>83</v>
       </c>
       <c r="G15" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H15" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I15" s="3">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="J15" s="3">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="K15" s="3">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="L15" s="3">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="M15" s="3">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="N15" s="3">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="O15" s="3">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="P15" s="3">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="Q15" s="3">
         <v>400</v>
@@ -3397,34 +3398,34 @@
         <v>30</v>
       </c>
       <c r="G16" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H16" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I16" s="3">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="J16" s="3">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="K16" s="3">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="L16" s="3">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="M16" s="3">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="N16" s="3">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="O16" s="3">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="P16" s="3">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="Q16" s="3">
         <v>400</v>
@@ -3450,34 +3451,34 @@
         <v>48</v>
       </c>
       <c r="G17" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I17" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J17" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="K17" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="L17" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="M17" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="N17" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="O17" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="P17" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="Q17" s="3">
         <v>400</v>
@@ -3503,34 +3504,34 @@
         <v>118</v>
       </c>
       <c r="G18" s="3">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="H18" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I18" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J18" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="K18" s="3">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="L18" s="3">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="M18" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="N18" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="O18" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="P18" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="Q18" s="3">
         <v>400</v>
@@ -3556,34 +3557,34 @@
         <v>128</v>
       </c>
       <c r="G19" s="3">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="H19" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I19" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J19" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="K19" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="L19" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="M19" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="N19" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="O19" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="P19" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="Q19" s="3">
         <v>400</v>
@@ -3609,34 +3610,34 @@
         <v>94</v>
       </c>
       <c r="G20" s="3">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="H20" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I20" s="3">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="J20" s="3">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="K20" s="3">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="L20" s="3">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="M20" s="3">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="N20" s="3">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="O20" s="3">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="P20" s="3">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="Q20" s="3">
         <v>400</v>

--- a/tools/luban/Datas/Enemys.xlsx
+++ b/tools/luban/Datas/Enemys.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE6FF2A-79A1-4944-9664-8DFD1F0A976A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5F19B8-79B7-49F6-9980-FF25437248C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enemy" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="149">
   <si>
     <t>##var</t>
   </si>
@@ -598,6 +598,20 @@
   <si>
     <t>射谁谁跑·五星上将</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色恶魔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色恶魔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GreenDemon1</t>
+  </si>
+  <si>
+    <t>BlueDemon</t>
   </si>
 </sst>
 </file>
@@ -982,10 +996,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25:R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2335,43 +2349,111 @@
     </row>
     <row r="26" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
+      <c r="B26" s="3">
+        <v>7022</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" s="3">
+        <v>350</v>
+      </c>
+      <c r="F26" s="3">
+        <v>360</v>
+      </c>
+      <c r="G26" s="3">
+        <v>125</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I26" s="3">
+        <v>30</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>400</v>
+      </c>
     </row>
     <row r="27" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
+      <c r="B27" s="3">
+        <v>7023</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" s="3">
+        <v>350</v>
+      </c>
+      <c r="F27" s="3">
+        <v>360</v>
+      </c>
+      <c r="G27" s="3">
+        <v>125</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I27" s="3">
+        <v>30</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>400</v>
+      </c>
     </row>
     <row r="28" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
@@ -2603,8 +2685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA639C1-B7A9-4558-AA8A-6FFF02A6BAEF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17:H19"/>
+    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/tools/luban/Datas/Enemys.xlsx
+++ b/tools/luban/Datas/Enemys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5F19B8-79B7-49F6-9980-FF25437248C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660AC90F-F85E-48B4-953D-7D70807A5724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -997,9 +997,9 @@
   <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G25" sqref="G25:R27"/>
+      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1007,7 +1007,7 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.875" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="5" max="5" width="8.125" customWidth="1"/>
     <col min="6" max="6" width="9.5" customWidth="1"/>
     <col min="7" max="7" width="8.75" customWidth="1"/>

--- a/tools/luban/Datas/Enemys.xlsx
+++ b/tools/luban/Datas/Enemys.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660AC90F-F85E-48B4-953D-7D70807A5724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EDC659-02F5-4CCC-8AF8-49C1E2710CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enemy" sheetId="1" r:id="rId1"/>
@@ -996,34 +996,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomLeft" activeCell="Q19" sqref="Q19:Q20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="8.125" customWidth="1"/>
-    <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="7" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="10.25" customWidth="1"/>
-    <col min="10" max="10" width="9.625" customWidth="1"/>
-    <col min="11" max="11" width="9.125" customWidth="1"/>
-    <col min="12" max="12" width="9.25" customWidth="1"/>
-    <col min="13" max="14" width="9.75" customWidth="1"/>
-    <col min="15" max="15" width="11.25" customWidth="1"/>
-    <col min="16" max="16" width="9.375" customWidth="1"/>
-    <col min="17" max="17" width="9.875" customWidth="1"/>
-    <col min="18" max="18" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.21875" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" customWidth="1"/>
+    <col min="12" max="12" width="9.21875" customWidth="1"/>
+    <col min="13" max="14" width="9.77734375" customWidth="1"/>
+    <col min="15" max="15" width="11.21875" customWidth="1"/>
+    <col min="16" max="16" width="9.33203125" customWidth="1"/>
+    <col min="17" max="17" width="9.88671875" customWidth="1"/>
+    <col min="18" max="18" width="7.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1157,7 +1157,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>7001</v>
@@ -1225,7 +1225,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F5" s="3">
         <v>360</v>
@@ -1237,10 +1237,10 @@
         <v>0.2</v>
       </c>
       <c r="I5" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J5" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="K5" s="3">
         <v>0</v>
@@ -1252,22 +1252,22 @@
         <v>0</v>
       </c>
       <c r="N5" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O5" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="P5" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q5" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="R5" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>7002</v>
@@ -1279,7 +1279,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="3">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="F6" s="3">
         <v>360</v>
@@ -1291,13 +1291,13 @@
         <v>0.2</v>
       </c>
       <c r="I6" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J6" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="K6" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="L6" s="3">
         <v>0</v>
@@ -1306,22 +1306,22 @@
         <v>0</v>
       </c>
       <c r="N6" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O6" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="P6" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q6" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="R6" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>7003</v>
@@ -1333,7 +1333,7 @@
         <v>43</v>
       </c>
       <c r="E7" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F7" s="3">
         <v>360</v>
@@ -1345,37 +1345,37 @@
         <v>0.2</v>
       </c>
       <c r="I7" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J7" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="K7" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="L7" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="M7" s="3">
         <v>0</v>
       </c>
       <c r="N7" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O7" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="P7" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q7" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="R7" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
       <c r="B8" s="3">
         <v>7004</v>
@@ -1387,7 +1387,7 @@
         <v>47</v>
       </c>
       <c r="E8" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F8" s="3">
         <v>360</v>
@@ -1399,22 +1399,22 @@
         <v>0.2</v>
       </c>
       <c r="I8" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J8" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="K8" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="L8" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
       <c r="N8" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
       <c r="B9" s="3">
         <v>7005</v>
@@ -1441,7 +1441,7 @@
         <v>48</v>
       </c>
       <c r="E9" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F9" s="3">
         <v>360</v>
@@ -1453,25 +1453,25 @@
         <v>0.2</v>
       </c>
       <c r="I9" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J9" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="K9" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="L9" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="M9" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="N9" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="O9" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
@@ -1483,7 +1483,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
       <c r="B10" s="3">
         <v>7006</v>
@@ -1495,7 +1495,7 @@
         <v>65</v>
       </c>
       <c r="E10" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F10" s="3">
         <v>360</v>
@@ -1507,28 +1507,28 @@
         <v>0.2</v>
       </c>
       <c r="I10" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J10" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="K10" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="L10" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="M10" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="N10" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="O10" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="P10" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
       <c r="B11" s="3">
         <v>7007</v>
@@ -1549,7 +1549,7 @@
         <v>86</v>
       </c>
       <c r="E11" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F11" s="3">
         <v>1200</v>
@@ -1561,10 +1561,10 @@
         <v>0.2</v>
       </c>
       <c r="I11" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J11" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="K11" s="3">
         <v>0</v>
@@ -1576,22 +1576,22 @@
         <v>0</v>
       </c>
       <c r="N11" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O11" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="P11" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q11" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="R11" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="B12" s="3">
         <v>7008</v>
@@ -1603,7 +1603,7 @@
         <v>93</v>
       </c>
       <c r="E12" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F12" s="3">
         <v>1200</v>
@@ -1615,13 +1615,13 @@
         <v>0.2</v>
       </c>
       <c r="I12" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J12" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="K12" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
@@ -1630,22 +1630,22 @@
         <v>0</v>
       </c>
       <c r="N12" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O12" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="P12" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q12" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="R12" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="3">
         <v>7009</v>
@@ -1657,7 +1657,7 @@
         <v>94</v>
       </c>
       <c r="E13" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F13" s="3">
         <v>1200</v>
@@ -1669,37 +1669,37 @@
         <v>0.2</v>
       </c>
       <c r="I13" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J13" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="K13" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="L13" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="M13" s="3">
         <v>0</v>
       </c>
       <c r="N13" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O13" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="P13" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q13" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="R13" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="B14" s="3">
         <v>7010</v>
@@ -1711,7 +1711,7 @@
         <v>44</v>
       </c>
       <c r="E14" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F14" s="3">
         <v>360</v>
@@ -1723,37 +1723,37 @@
         <v>0.2</v>
       </c>
       <c r="I14" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J14" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="K14" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="L14" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="O14" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="P14" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="R14" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="B15" s="3">
         <v>7011</v>
@@ -1765,7 +1765,7 @@
         <v>45</v>
       </c>
       <c r="E15" s="3">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="F15" s="3">
         <v>360</v>
@@ -1777,37 +1777,37 @@
         <v>0.2</v>
       </c>
       <c r="I15" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J15" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="K15" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="L15" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="M15" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="N15" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="O15" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="P15" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="Q15" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="R15" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" s="3">
         <v>7012</v>
@@ -1819,7 +1819,7 @@
         <v>46</v>
       </c>
       <c r="E16" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="F16" s="3">
         <v>360</v>
@@ -1831,37 +1831,37 @@
         <v>0.2</v>
       </c>
       <c r="I16" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J16" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="K16" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="L16" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="M16" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="N16" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="O16" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="P16" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="Q16" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="R16" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" s="3">
         <v>7013</v>
@@ -1873,7 +1873,7 @@
         <v>83</v>
       </c>
       <c r="E17" s="3">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="F17" s="3">
         <v>360</v>
@@ -1885,37 +1885,37 @@
         <v>0.2</v>
       </c>
       <c r="I17" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J17" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="K17" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="L17" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="M17" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="N17" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="P17" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q17" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="R17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="3">
         <v>7014</v>
@@ -1927,7 +1927,7 @@
         <v>82</v>
       </c>
       <c r="E18" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F18" s="3">
         <v>360</v>
@@ -1939,37 +1939,37 @@
         <v>0.2</v>
       </c>
       <c r="I18" s="3">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J18" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="K18" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="L18" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="M18" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="R18" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="3">
         <v>7015</v>
@@ -1981,7 +1981,7 @@
         <v>115</v>
       </c>
       <c r="E19" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F19" s="3">
         <v>360</v>
@@ -1993,13 +1993,13 @@
         <v>0.2</v>
       </c>
       <c r="I19" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J19" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="K19" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="L19" s="3">
         <v>0.2</v>
@@ -2008,22 +2008,22 @@
         <v>0</v>
       </c>
       <c r="N19" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O19" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="P19" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="Q19" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="R19" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" s="3">
         <v>7016</v>
@@ -2035,7 +2035,7 @@
         <v>118</v>
       </c>
       <c r="E20" s="3">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="F20" s="3">
         <v>360</v>
@@ -2047,37 +2047,37 @@
         <v>0.2</v>
       </c>
       <c r="I20" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J20" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="K20" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="L20" s="3">
         <v>0.2</v>
       </c>
       <c r="M20" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O20" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="P20" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="R20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="3">
         <v>7017</v>
@@ -2089,7 +2089,7 @@
         <v>120</v>
       </c>
       <c r="E21" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F21" s="3">
         <v>360</v>
@@ -2101,13 +2101,13 @@
         <v>0.2</v>
       </c>
       <c r="I21" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J21" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="K21" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="L21" s="3">
         <v>0</v>
@@ -2116,22 +2116,22 @@
         <v>0</v>
       </c>
       <c r="N21" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="O21" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="P21" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q21" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="R21" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="3">
         <v>7018</v>
@@ -2143,7 +2143,7 @@
         <v>122</v>
       </c>
       <c r="E22" s="3">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="F22" s="3">
         <v>360</v>
@@ -2155,13 +2155,13 @@
         <v>0.2</v>
       </c>
       <c r="I22" s="3">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J22" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="K22" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -2170,22 +2170,22 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="R22" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="3">
         <v>7019</v>
@@ -2197,7 +2197,7 @@
         <v>124</v>
       </c>
       <c r="E23" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F23" s="3">
         <v>360</v>
@@ -2209,13 +2209,13 @@
         <v>0.2</v>
       </c>
       <c r="I23" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J23" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="K23" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="L23" s="3">
         <v>0</v>
@@ -2224,22 +2224,22 @@
         <v>0</v>
       </c>
       <c r="N23" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="R23" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="B24" s="3">
         <v>7020</v>
@@ -2251,7 +2251,7 @@
         <v>126</v>
       </c>
       <c r="E24" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F24" s="3">
         <v>360</v>
@@ -2263,37 +2263,37 @@
         <v>0.2</v>
       </c>
       <c r="I24" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J24" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="K24" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="L24" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O24" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="P24" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q24" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="R24" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="3">
         <v>7021</v>
@@ -2305,7 +2305,7 @@
         <v>128</v>
       </c>
       <c r="E25" s="3">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="F25" s="3">
         <v>360</v>
@@ -2317,37 +2317,37 @@
         <v>0.2</v>
       </c>
       <c r="I25" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J25" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="K25" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="L25" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="M25" s="3">
         <v>0</v>
       </c>
       <c r="N25" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O25" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="P25" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q25" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="R25" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
       <c r="B26" s="3">
         <v>7022</v>
@@ -2359,7 +2359,7 @@
         <v>148</v>
       </c>
       <c r="E26" s="3">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="F26" s="3">
         <v>360</v>
@@ -2371,37 +2371,37 @@
         <v>0.2</v>
       </c>
       <c r="I26" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J26" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="K26" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="L26" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="R26" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="B27" s="3">
         <v>7023</v>
@@ -2413,7 +2413,7 @@
         <v>147</v>
       </c>
       <c r="E27" s="3">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="F27" s="3">
         <v>360</v>
@@ -2425,37 +2425,37 @@
         <v>0.2</v>
       </c>
       <c r="I27" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J27" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="K27" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="L27" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="R27" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2475,7 +2475,7 @@
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
     </row>
-    <row r="29" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2495,7 +2495,7 @@
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
     </row>
-    <row r="30" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2515,7 +2515,7 @@
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
     </row>
-    <row r="31" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2535,7 +2535,7 @@
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
     </row>
-    <row r="32" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2555,7 +2555,7 @@
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
     </row>
-    <row r="33" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2575,7 +2575,7 @@
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
     </row>
-    <row r="34" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2595,7 +2595,7 @@
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
     </row>
-    <row r="35" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2615,7 +2615,7 @@
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
     </row>
-    <row r="36" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2635,7 +2635,7 @@
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
     </row>
-    <row r="37" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2655,7 +2655,7 @@
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
     </row>
-    <row r="38" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2685,19 +2685,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA639C1-B7A9-4558-AA8A-6FFF02A6BAEF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.625" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="8.875" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2824,7 +2824,7 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>96</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>97</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>98</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>99</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>100</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>85</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>101</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>102</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>103</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>104</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>105</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>106</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>107</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>108</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>109</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>110</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3744,7 +3744,7 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
     </row>
-    <row r="22" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3778,13 +3778,13 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -3832,12 +3832,12 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -3870,22 +3870,22 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -3905,14 +3905,14 @@
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5091,7 +5091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5523,7 +5523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5631,7 +5631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5847,7 +5847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5991,7 +5991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6099,7 +6099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -6279,7 +6279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6315,7 +6315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6351,7 +6351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6567,7 +6567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6603,7 +6603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6639,7 +6639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6783,7 +6783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6819,7 +6819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6855,7 +6855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -7035,7 +7035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -7107,7 +7107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -7143,7 +7143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -7215,7 +7215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -7251,7 +7251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -7287,7 +7287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -7323,7 +7323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -7395,7 +7395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -7503,7 +7503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -7539,7 +7539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D102" s="5"/>
     </row>
   </sheetData>
